--- a/NCE/네이버클라우드/00.요약본/NCE_추가정리.xlsx
+++ b/NCE/네이버클라우드/00.요약본/NCE_추가정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repository\NCE\네이버클라우드\00.요약본\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F378D18E-7645-4E81-95F2-1AF7AB8777CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26B9F56-86AD-484A-BED5-66472051DD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34410" yWindow="-3660" windowWidth="25815" windowHeight="21600" activeTab="1" xr2:uid="{F59860EA-48BE-4768-90E0-72E89FFE37D2}"/>
+    <workbookView xWindow="34515" yWindow="-3165" windowWidth="28020" windowHeight="20925" activeTab="1" xr2:uid="{F59860EA-48BE-4768-90E0-72E89FFE37D2}"/>
   </bookViews>
   <sheets>
     <sheet name="OverView" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="619">
   <si>
     <t>클라우드 컴퓨팅 유형</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -498,10 +498,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NACL(Network Access Control List)은 Subnet에 대한 네트워크 보안 관리를 할 수 있는 상품입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ACG</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -511,11 +507,6 @@
   </si>
   <si>
     <t>Init Script</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP 주소/포트 기반 필터링 기능으로 서버로의 네트워크 접근을 관리
-IN / OutBound 각 50개씩 설정 가능</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4152,40 +4143,6 @@
 NAS 조회 : ./ncloud vnas getNasVolumeInstanceList ~~~
 NAS 접근제어추가(ACL 생성) : ./ncloud vnas addNasVolumeAccessControl ~~~
 NAS 스냅샷 생성 : ./ncloud vnas createNasVolumeSnapshot ~~~</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>-대용량 데이터 이전을 위한 효과적인 솔루션
--대용량 데이터(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>최대 100TB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) 이전을 위한 전용 어플라이선스 대여 서비스
--네트워크 비용절감, 언전하고 빠른 데이터 이관이 가능한 서비스
--지원속도 : 1Gbps, 10Gbps, 40Gbps
--지원프로토콜 : FTP, NFS, CIFS, Direct
--rsync (Remote Sync)를 이용
--전송시에 네트웍 대역폭을 최소화하는 delta encoding algorithm을 구현하여 rcp나 scp보다 훨씬 빠르고 효율적으로 site간의 데이터를 동기화 가능</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6318,62 +6275,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Container 상품군 서비스로 제공됨
-- 다양한 클러스터 스펙 제공 (Standard, CPU Intensive)
-- Master 노드(with HA) 관리 필요성 없어 클러스터 관리 효율성 증대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Persistent volumes (NAS, BlockStorage) 사용 가능
-- Container Registry 상품과 연동
-- 연결대상 Naver Cloud Platfrom 
-   : Block Storage, NAS Storage, Load Balancer, Cloud Log Analytics
-Master 노드(etcd, api-server, scheduler, controller-manager)는 Hidden으로 구성
-Worker 노드(docker, kublet, kube-proxy)는 다양한 스펙으로 구성, 라이브러리 자동 설치
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Worker 노드 구성시 수분내에 구성 가능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-NKS(NCloud Kubernetes Service)의 노드수는 최대 50개
-Subnet을 먼저 생성해야함 (Subnet 생성). locadbalancer전용 subnet 필요 (LB Subnet 생성)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">agent 설치
 </t>
     </r>
@@ -6782,6 +6683,147 @@
       <t xml:space="preserve"> - 파일을 쪼개서 노드에 분산&amp;복제 (안정성 높음)
 분산파일시스템2 (Object Storage) - 파일을 쪼개지 않고 복제, 파일 저장단위가 Object</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Container 상품군 서비스로 제공됨
+- 다양한 클러스터 스펙 제공 (Standard, CPU Intensive)
+- Master 노드(with HA) 관리 필요성 없어 클러스터 관리 효율성 증대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Persistent volumes (NAS, BlockStorage) 사용 가능
+- Container Registry 상품과 연동
+- 연결대상 Naver Cloud Platfrom 
+   : Block Storage, NAS Storage, Load Balancer, Cloud Log Analytics
+Master 노드(etcd, api-server, scheduler, controller-manager)는 Hidden으로 구성
+Worker 노드(docker, kubelet, kube-proxy)는 다양한 스펙으로 구성, 라이브러리 자동 설치
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Worker 노드 구성시 수분내에 구성 가능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+NKS(NCloud Kubernetes Service)의 노드수는 최대 50개
+Subnet을 먼저 생성해야함 (Subnet 생성). locadbalancer전용 subnet 필요 (LB Subnet 생성)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-대용량 데이터 이전을 위한 효과적인 솔루션
+-대용량 데이터(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>최대 100TB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) 이전을 위한 전용 어플라이선스 대여 서비스
+-네트워크 비용절감, 안전하고 빠른 데이터 이관이 가능한 서비스
+-지원속도 : 1Gbps, 10Gbps, 40Gbps
+-지원프로토콜 : FTP, NFS, CIFS, Direct
+-rsync (Remote Sync)를 이용
+-전송시에 네트웍 대역폭을 최소화하는 delta encoding algorithm을 구현하여 rcp나 scp보다 훨씬 빠르고 효율적으로 site간의 데이터를 동기화 가능</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IP 주소/포트 기반 필터링 기능으로 서버로의 네트워크 접근을 관리
+IN / OutBound 각 50개씩 설정 가능
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>서버 접근 시 작동
+Inbound/Outbound 트래픽의 허용 규칙만 설정
+Stateful 방식 - 트래픽 상태 저장 O, Inbound 규칙에서 허용되는 트래픽은 Outbound 자동 허용
+트래픽 허용 여부 결정 전 모든 규칙을 평가
+서버 시작 시 보안 그룹을 지정하거나 나중에 보안 그룹을 인스턴스와 연결할 때만 적용</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NACL(Network Access Control List)은 Subnet에 대한 네트워크 보안 관리
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Subnet 접근 시 작동
+Inbound/Outbound 트래픽의 허용 규칙, 차단 규칙 모두 설정
+Stateless 방식 : 트래픽 상태 저장 X, Inboud/Outbound 규칙 별도 설정 필요
+트래픽 허용 여부 결정 시 규칙을 우선순위로 처리
+대상 Subnet 내 모든 서버에 적용 (ACG를 지정하는 사용자에게 의존할 필요 X)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NACL과 ACG 차이점 기억</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7099,8 +7141,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7114,9 +7180,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7128,27 +7191,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8179,7 +8221,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
@@ -8190,7 +8232,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="35"/>
+      <c r="B4" s="39"/>
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -8199,7 +8241,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="35"/>
+      <c r="B5" s="39"/>
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -8208,7 +8250,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B6" s="35"/>
+      <c r="B6" s="39"/>
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -8217,7 +8259,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="35"/>
+      <c r="B7" s="39"/>
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -8246,7 +8288,7 @@
     </row>
     <row r="10" spans="2:5" ht="386.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -8266,8 +8308,8 @@
   </sheetPr>
   <dimension ref="B2:E92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8293,87 +8335,87 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="191.4" x14ac:dyDescent="0.4">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B4" s="40"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B5" s="40"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B7" s="40"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B8" s="40"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="40"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="41" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -8387,7 +8429,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="40"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="6" t="s">
         <v>28</v>
       </c>
@@ -8399,7 +8441,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="40"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="6" t="s">
         <v>29</v>
       </c>
@@ -8411,7 +8453,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="40"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="6" t="s">
         <v>30</v>
       </c>
@@ -8419,7 +8461,7 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="40"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="6" t="s">
         <v>24</v>
       </c>
@@ -8429,7 +8471,7 @@
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B15" s="40"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="6" t="s">
         <v>31</v>
       </c>
@@ -8437,23 +8479,23 @@
         <v>33</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="44" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="36"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="6" t="s">
         <v>44</v>
       </c>
@@ -8463,22 +8505,22 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="36"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="36"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="6" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E19" s="6"/>
     </row>
@@ -8495,21 +8537,21 @@
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="2:5" ht="313.2" x14ac:dyDescent="0.4">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="41" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="40"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="6" t="s">
         <v>49</v>
       </c>
@@ -8517,37 +8559,37 @@
         <v>50</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="40"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B24" s="40"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B25" s="40"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>53</v>
@@ -8555,17 +8597,17 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B26" s="40"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>484</v>
-      </c>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="40"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="6" t="s">
         <v>47</v>
       </c>
@@ -8575,7 +8617,7 @@
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="40"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="6" t="s">
         <v>54</v>
       </c>
@@ -8585,7 +8627,7 @@
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="41" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -8595,23 +8637,23 @@
         <v>58</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B30" s="40"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="41" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -8623,7 +8665,7 @@
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B32" s="40"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="6" t="s">
         <v>62</v>
       </c>
@@ -8633,7 +8675,7 @@
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="40"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="6" t="s">
         <v>65</v>
       </c>
@@ -8643,19 +8685,19 @@
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="41" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B35" s="40"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="6" t="s">
         <v>69</v>
       </c>
@@ -8665,19 +8707,19 @@
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B36" s="40"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="44" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -8689,7 +8731,7 @@
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="36"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="6" t="s">
         <v>73</v>
       </c>
@@ -8704,19 +8746,19 @@
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B40" s="49" t="s">
-        <v>494</v>
+      <c r="B40" s="38" t="s">
+        <v>491</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E40" s="6"/>
     </row>
@@ -8731,19 +8773,19 @@
       <c r="E41" s="6"/>
     </row>
     <row r="42" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="41" t="s">
         <v>26</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B43" s="40"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="6" t="s">
         <v>82</v>
       </c>
@@ -8752,562 +8794,564 @@
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B44" s="40"/>
-      <c r="C44" s="6" t="s">
+    <row r="44" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B44" s="41"/>
+      <c r="C44" s="35" t="s">
         <v>81</v>
       </c>
       <c r="D44" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B45" s="41"/>
+      <c r="C45" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B45" s="40"/>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="6" t="s">
+    </row>
+    <row r="46" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B46" s="41"/>
+      <c r="C46" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B46" s="40"/>
-      <c r="C46" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="D46" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="40" t="s">
+        <v>500</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="C47" s="45" t="s">
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B48" s="40"/>
+      <c r="C48" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B48" s="50"/>
-      <c r="C48" s="45" t="s">
-        <v>505</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B49" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="2:5" ht="87" x14ac:dyDescent="0.4">
       <c r="B50" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="E50" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B51" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="C51" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B51" s="51" t="s">
+      <c r="D51" s="36" t="s">
+        <v>568</v>
+      </c>
+      <c r="E51" s="42" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B52" s="43"/>
+      <c r="C52" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="D52" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="E52" s="42"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B53" s="43"/>
+      <c r="C53" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="46" t="s">
+      <c r="D53" s="36" t="s">
+        <v>570</v>
+      </c>
+      <c r="E53" s="42"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B54" s="43"/>
+      <c r="C54" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="36" t="s">
         <v>571</v>
       </c>
-      <c r="E51" s="47" t="s">
+      <c r="E54" s="42"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B55" s="43"/>
+      <c r="C55" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="42" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B56" s="43"/>
+      <c r="C56" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="42"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B57" s="43"/>
+      <c r="C57" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" s="42"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B58" s="43"/>
+      <c r="C58" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" s="42"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B59" s="43"/>
+      <c r="C59" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="E59" s="42"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B60" s="43"/>
+      <c r="C60" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="E60" s="42"/>
+    </row>
+    <row r="61" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B61" s="41" t="s">
+        <v>588</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B52" s="51"/>
-      <c r="C52" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="D52" s="46" t="s">
-        <v>572</v>
-      </c>
-      <c r="E52" s="47"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B53" s="51"/>
-      <c r="C53" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="46" t="s">
-        <v>573</v>
-      </c>
-      <c r="E53" s="47"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B54" s="51"/>
-      <c r="C54" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" s="46" t="s">
-        <v>574</v>
-      </c>
-      <c r="E54" s="47"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B55" s="51"/>
-      <c r="C55" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="47" t="s">
+      <c r="D61" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E61" s="37" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B62" s="41"/>
+      <c r="C62" s="6" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B56" s="51"/>
-      <c r="C56" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E56" s="47"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B57" s="51"/>
-      <c r="C57" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E57" s="47"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B58" s="51"/>
-      <c r="C58" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E58" s="47"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B59" s="51"/>
-      <c r="C59" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D59" s="7" t="s">
+      <c r="D62" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B63" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="E59" s="47"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B60" s="51"/>
-      <c r="C60" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="E60" s="47"/>
-    </row>
-    <row r="61" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B61" s="40" t="s">
-        <v>591</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="E61" s="48" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B62" s="40"/>
-      <c r="C62" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B63" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>586</v>
-      </c>
       <c r="E63" s="16" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B64" s="49" t="s">
-        <v>581</v>
+      <c r="B64" s="38" t="s">
+        <v>578</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D64" s="34" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B65" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B66" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="2:5" ht="243.6" x14ac:dyDescent="0.4">
+      <c r="B67" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="191.4" x14ac:dyDescent="0.4">
+      <c r="B68" s="41"/>
+      <c r="C68" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>577</v>
-      </c>
-      <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="2:5" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B67" s="40" t="s">
+      <c r="D68" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="2:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C69" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="243.6" x14ac:dyDescent="0.4">
+      <c r="B70" s="44"/>
+      <c r="C70" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B71" s="44"/>
+      <c r="C71" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B72" s="44"/>
+      <c r="C72" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B73" s="44"/>
+      <c r="C73" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B74" s="44"/>
+      <c r="C74" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B75" s="44"/>
+      <c r="C75" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="243.6" x14ac:dyDescent="0.4">
+      <c r="B76" s="44"/>
+      <c r="C76" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="178.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="44"/>
+      <c r="C77" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="2:5" ht="243.6" x14ac:dyDescent="0.4">
+      <c r="B78" s="44"/>
+      <c r="C78" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B79" s="41" t="s">
+        <v>559</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>560</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="2:5" ht="87" x14ac:dyDescent="0.4">
+      <c r="B80" s="41"/>
+      <c r="C80" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="E80" s="14"/>
+    </row>
+    <row r="81" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B81" s="41"/>
+      <c r="C81" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="87" x14ac:dyDescent="0.4">
+      <c r="B83" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B84" s="41"/>
+      <c r="C84" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="87" x14ac:dyDescent="0.4">
+      <c r="B85" s="41"/>
+      <c r="C85" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" ht="261" x14ac:dyDescent="0.4">
+      <c r="B86" s="41"/>
+      <c r="C86" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B87" s="41"/>
+      <c r="C87" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B88" s="41"/>
+      <c r="C88" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="D88" s="32" t="s">
+        <v>549</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B89" s="41"/>
+      <c r="C89" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B90" s="41"/>
+      <c r="C90" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="E90" s="33" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="174" x14ac:dyDescent="0.4">
+      <c r="B91" s="41"/>
+      <c r="C91" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B92" s="41"/>
+      <c r="C92" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>487</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="191.4" x14ac:dyDescent="0.4">
-      <c r="B68" s="40"/>
-      <c r="C68" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69" spans="2:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B70" s="36"/>
-      <c r="C70" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="E70" s="6"/>
-    </row>
-    <row r="71" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B71" s="36"/>
-      <c r="C71" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B72" s="36"/>
-      <c r="C72" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E72" s="6"/>
-    </row>
-    <row r="73" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B73" s="36"/>
-      <c r="C73" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B74" s="36"/>
-      <c r="C74" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>579</v>
-      </c>
-      <c r="E74" s="6"/>
-    </row>
-    <row r="75" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B75" s="36"/>
-      <c r="C75" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B76" s="36"/>
-      <c r="C76" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" ht="178.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="36"/>
-      <c r="C77" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="E77" s="6"/>
-    </row>
-    <row r="78" spans="2:5" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B78" s="36"/>
-      <c r="C78" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>606</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B79" s="40" t="s">
-        <v>562</v>
-      </c>
-      <c r="C79" s="45" t="s">
-        <v>563</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="E79" s="6"/>
-    </row>
-    <row r="80" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B80" s="40"/>
-      <c r="C80" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="E80" s="14"/>
-    </row>
-    <row r="81" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B81" s="40"/>
-      <c r="C81" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B83" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="E83" s="6"/>
-    </row>
-    <row r="84" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B84" s="40"/>
-      <c r="C84" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>547</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B85" s="40"/>
-      <c r="C85" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" ht="261" x14ac:dyDescent="0.4">
-      <c r="B86" s="40"/>
-      <c r="C86" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B87" s="40"/>
-      <c r="C87" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>604</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B88" s="40"/>
-      <c r="C88" s="45" t="s">
-        <v>555</v>
-      </c>
-      <c r="D88" s="32" t="s">
-        <v>552</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B89" s="40"/>
-      <c r="C89" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>557</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B90" s="40"/>
-      <c r="C90" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>553</v>
-      </c>
-      <c r="E90" s="33" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" ht="174" x14ac:dyDescent="0.4">
-      <c r="B91" s="40"/>
-      <c r="C91" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B92" s="40"/>
-      <c r="C92" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>489</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -9385,152 +9429,152 @@
     </row>
     <row r="3" spans="2:5" ht="295.8" x14ac:dyDescent="0.4">
       <c r="B3" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="228" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="87" x14ac:dyDescent="0.4">
+      <c r="B6" s="41"/>
+      <c r="C6" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B6" s="40"/>
-      <c r="C6" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="D6" s="19" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B7" s="40"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="2:5" ht="348" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D10" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="295.8" x14ac:dyDescent="0.4">
+      <c r="B11" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E11" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="243.6" x14ac:dyDescent="0.4">
+      <c r="B12" s="46"/>
+      <c r="C12" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="295.8" x14ac:dyDescent="0.4">
-      <c r="B11" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B12" s="38"/>
-      <c r="C12" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>538</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>518</v>
-      </c>
-    </row>
     <row r="13" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B13" s="38"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B14" s="38"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="288" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="39"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="7"/>
@@ -9538,105 +9582,105 @@
     <row r="16" spans="2:5" ht="156.6" x14ac:dyDescent="0.4">
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="261" x14ac:dyDescent="0.4">
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="7"/>
       <c r="C18" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B19" s="7"/>
       <c r="C19" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B20" s="7"/>
       <c r="C20" s="6" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B21" s="7"/>
       <c r="C21" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
@@ -9645,69 +9689,69 @@
     </row>
     <row r="27" spans="2:5" ht="246.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="191.4" x14ac:dyDescent="0.4">
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="156.6" x14ac:dyDescent="0.4">
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>385</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="87" x14ac:dyDescent="0.4">
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E32" s="6"/>
     </row>
@@ -9754,273 +9798,273 @@
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B3" s="40"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>166</v>
-      </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B4" s="40"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="2:6" ht="202.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="2:6" ht="243.6" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B7" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B7" s="40" t="s">
+      <c r="E7" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="87" x14ac:dyDescent="0.4">
+      <c r="B8" s="41"/>
+      <c r="C8" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B9" s="41"/>
+      <c r="C9" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B8" s="40"/>
-      <c r="C8" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="40"/>
-      <c r="C9" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B10" s="40"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B11" s="40"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B12" s="41"/>
+      <c r="C12" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B12" s="40"/>
-      <c r="C12" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B14" s="41"/>
+      <c r="C14" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D14" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B15" s="41"/>
+      <c r="C15" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B14" s="40"/>
-      <c r="C14" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>464</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="40"/>
-      <c r="C15" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B16" s="40"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B17" s="40"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B18" s="40"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B19" s="40"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B20" s="40"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="2:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="B21" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B22" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B22" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>198</v>
-      </c>
       <c r="D22" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B23" s="40"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>201</v>
-      </c>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B24" s="40"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -10028,268 +10072,268 @@
     <row r="25" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="2:6" ht="87" x14ac:dyDescent="0.4">
       <c r="B26" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B27" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B27" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B28" s="40"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B29" s="40"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>210</v>
       </c>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B30" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="2:5" ht="191.4" x14ac:dyDescent="0.4">
       <c r="B37" s="5"/>
       <c r="C37" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="E37" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B38" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B39" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="40" t="s">
+      <c r="D39" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B40" s="41"/>
+      <c r="C40" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B41" s="41"/>
+      <c r="C41" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="40"/>
-      <c r="C40" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41" s="40"/>
-      <c r="C41" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="E41" s="6"/>
     </row>
     <row r="42" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B42" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B43" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B45" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E45" s="6"/>
     </row>
     <row r="46" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B46" s="26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B47" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E47" s="6"/>
     </row>
     <row r="48" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B48" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B49" s="43" t="s">
-        <v>245</v>
+      <c r="B49" s="50" t="s">
+        <v>243</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B50" s="43"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E50" s="6"/>
     </row>
     <row r="51" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B51" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.4">
@@ -10300,194 +10344,194 @@
     </row>
     <row r="54" spans="2:6" ht="87" x14ac:dyDescent="0.4">
       <c r="B54" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B55" s="41" t="s">
         <v>251</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B55" s="40" t="s">
-        <v>253</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E55" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B56" s="41"/>
+      <c r="C56" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="56" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B56" s="40"/>
-      <c r="C56" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="2:6" ht="208.8" x14ac:dyDescent="0.4">
-      <c r="B57" s="40" t="s">
-        <v>252</v>
+      <c r="B57" s="41" t="s">
+        <v>250</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58" spans="2:6" ht="174" x14ac:dyDescent="0.4">
-      <c r="B58" s="40"/>
+      <c r="B58" s="41"/>
       <c r="C58" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B59" s="41"/>
+      <c r="C59" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D59" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B59" s="40"/>
-      <c r="C59" s="6" t="s">
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B60" s="41"/>
+      <c r="C60" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D60" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B60" s="40"/>
-      <c r="C60" s="6" t="s">
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="2:6" ht="87" x14ac:dyDescent="0.4">
+      <c r="B61" s="41"/>
+      <c r="C61" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D61" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B61" s="40"/>
-      <c r="C61" s="6" t="s">
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="2:6" ht="87" x14ac:dyDescent="0.4">
+      <c r="B62" s="41"/>
+      <c r="C62" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D62" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B62" s="40"/>
-      <c r="C62" s="6" t="s">
+      <c r="E62" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="D62" s="7" t="s">
+    </row>
+    <row r="63" spans="2:6" ht="87" x14ac:dyDescent="0.4">
+      <c r="B63" s="41"/>
+      <c r="C63" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="D63" s="7" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="63" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B63" s="40"/>
-      <c r="C63" s="6" t="s">
+      <c r="E63" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B64" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B65" s="5"/>
       <c r="C65" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="2:10" ht="174" x14ac:dyDescent="0.4">
       <c r="B66" s="23" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J66" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="87" x14ac:dyDescent="0.4">
       <c r="B67" s="27" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="19" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E67" s="7"/>
     </row>
     <row r="68" spans="2:10" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B68" s="27" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B69" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E69" s="6"/>
     </row>
     <row r="70" spans="2:10" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B70" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.4">
@@ -10500,7 +10544,7 @@
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B73" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -10509,124 +10553,124 @@
     <row r="74" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B74" s="25"/>
       <c r="C74" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="D74" s="18" t="s">
         <v>279</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>281</v>
       </c>
       <c r="E74" s="18"/>
     </row>
     <row r="75" spans="2:10" ht="156.6" x14ac:dyDescent="0.4">
       <c r="B75" s="5"/>
       <c r="C75" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B76" s="5"/>
       <c r="C76" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B77" s="5"/>
       <c r="C77" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D77" s="7" t="s">
-        <v>288</v>
-      </c>
       <c r="E77" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="78" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B78" s="5"/>
       <c r="C78" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="79" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B79" s="5"/>
       <c r="C79" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E79" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B80" s="5"/>
       <c r="C80" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E80" s="6"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B81" s="5"/>
       <c r="C81" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E81" s="8" t="s">
         <v>297</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B82" s="5"/>
       <c r="C82" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B83" s="5"/>
       <c r="C83" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E83" s="6"/>
     </row>
     <row r="84" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B84" s="5"/>
       <c r="C84" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E84" s="6"/>
     </row>
@@ -10684,438 +10728,438 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="208.8" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>418</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="87" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B17" s="6"/>
       <c r="C17" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="6"/>
       <c r="C19" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B20" s="6"/>
       <c r="C20" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="6"/>
       <c r="C21" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="6"/>
       <c r="C22" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="2:5" ht="87" x14ac:dyDescent="0.4">
       <c r="B23" s="6"/>
       <c r="C23" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B26" s="6"/>
       <c r="C26" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B27" s="6"/>
       <c r="C27" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="2:5" ht="136.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="6"/>
       <c r="C28" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
     <row r="30" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B30" s="40" t="s">
-        <v>335</v>
+      <c r="B30" s="41" t="s">
+        <v>333</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B31" s="41"/>
+      <c r="C31" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B31" s="40"/>
-      <c r="C31" s="7" t="s">
+      <c r="E31" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B32" s="41"/>
+      <c r="C32" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E32" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B33" s="41"/>
+      <c r="C33" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="2:5" ht="330.6" x14ac:dyDescent="0.4">
+      <c r="B34" s="41"/>
+      <c r="C34" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B35" s="41"/>
+      <c r="C35" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B32" s="40"/>
-      <c r="C32" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="40"/>
-      <c r="C33" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="2:5" ht="330.6" x14ac:dyDescent="0.4">
-      <c r="B34" s="40"/>
-      <c r="C34" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B35" s="40"/>
-      <c r="C35" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E38" s="44" t="s">
-        <v>366</v>
+        <v>354</v>
+      </c>
+      <c r="E38" s="51" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="C39" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E39" s="35"/>
+        <v>356</v>
+      </c>
+      <c r="E39" s="39"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E40" s="35"/>
+        <v>358</v>
+      </c>
+      <c r="E40" s="39"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E41" s="35"/>
+        <v>360</v>
+      </c>
+      <c r="E41" s="39"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C42" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E42" s="35"/>
+        <v>362</v>
+      </c>
+      <c r="E42" s="39"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>429</v>
-      </c>
-      <c r="E43" s="35"/>
+        <v>427</v>
+      </c>
+      <c r="E43" s="39"/>
     </row>
     <row r="44" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="C44" t="s">
+        <v>442</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E44" t="s">
         <v>444</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E44" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
       <c r="D45" s="30" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/NCE/네이버클라우드/00.요약본/NCE_추가정리.xlsx
+++ b/NCE/네이버클라우드/00.요약본/NCE_추가정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repository\NCE\네이버클라우드\00.요약본\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26B9F56-86AD-484A-BED5-66472051DD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65222F88-A7F0-4E14-A03C-06D2FCF3FD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34515" yWindow="-3165" windowWidth="28020" windowHeight="20925" activeTab="1" xr2:uid="{F59860EA-48BE-4768-90E0-72E89FFE37D2}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="641">
   <si>
     <t>클라우드 컴퓨팅 유형</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2579,18 +2579,6 @@
   </si>
   <si>
     <t>Private Domain, Cloud DB ACG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VPC환경은 한국, 싱가폴 리전만 제공
-멀티존 가능 리전 : 한국, 일본, 싱가폴
-멀티존 구성가능 상품 : CDB, LB
-리전종속적 : Object Storage, Arichive Storage
-존 종속적 : Server, NAS, Block Storage, Subnet
-전세계 : sub Account,Init Script, GRM, Safer와 Checker
-하이브리드클라우드호스팅 : 회사DB + 클라우드
-서버정지시 표준요금이 적용되는 서버 : GPU, Bare Metal 서버
-계정당 50개의 server를 가질수 있음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6824,6 +6812,134 @@
   </si>
   <si>
     <t>NACL과 ACG 차이점 기억</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/7 시험 출제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/7 시험 출제
+컨테이너 이미지 저장을 위해 구성해야 하는 것을 모두 고르시오
+1. Container Registry
+2. Object Storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/7 시험 출제
+Cluster Autoscaler와 HPA 비교 문제 출제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/7 시험 출제
+k8s 가장 작은 단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/7 시험 출제
+모든 워커 노드에 띄울 때 사용하는 것?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/7 시험 출제
+Not Ready -&gt; 2문제
+kubelet -&gt; 1문제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/7 시험 출제
+파일 시스템 외울 것
+리눅스 : NFS / 윈도우 : CIFS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/7 시험 출제
+윈도우에 100G 추가 스토리지 증설하면 총 스토리지는?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/7 시험 출제
+Pass Through
+P4, P40, V100 그래픽 카드 수
+VM인지 물리인지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/7 시험 출제
+AI, 동영상 등 고성능 서버 요구 시 어떤 서버를 사용해야할까?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/7 시험 출제
+내서버이미지생성은 정지상태로만 생성이 가능하다?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/7 시험 출제
+최대 몇 개 스토리지?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/7 시험 출제
+자유롭게 증가/감소 시킬 수 있다?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/7 시험 출제
+블록스토리지 스냅샷 생성 명령 CLI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3/7 시험 출제
+내서버이미지생성과 다른점 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/7 시험 출제
+스냅샷으로 스토리지 생성했을 때 스토리지 변경할 수 있다?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/7 시험 출제
+ACG는 자동으로 생성된다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/7 시험 출제
+Object Storage와 Archive Storage의 지원 API 비교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/7 시험 출제
+방화벽 역할 하는 것을 모두 선택하라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/7 시험 출제
+도커 Registry와 컨테이너 Registry 차이점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/7 시험 출제
+네이버 클라우드 서비스에서는 ~~
+으로 시험 출제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/7 시험 출제
+NAS 생성 시, 파라미터 필수값 선택하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPC환경은 한국, 싱가폴, 일본 리전만 제공
+멀티존 가능 리전 : 한국, 일본, 싱가폴
+멀티존 구성가능 상품 : CDB, LB
+리전종속적 : Object Storage, Arichive Storage
+존 종속적 : Server, NAS, Block Storage, Subnet
+전세계 : sub Account,Init Script, GRM, Safer와 Checker
+하이브리드클라우드호스팅 : 회사DB + 클라우드
+서버정지시 표준요금이 적용되는 서버 : GPU, Bare Metal 서버
+계정당 50개의 server를 가질수 있음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6943,7 +7059,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -7029,13 +7145,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7144,32 +7269,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7191,6 +7304,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8221,7 +8355,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
@@ -8232,7 +8366,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="39"/>
+      <c r="B4" s="37"/>
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -8241,7 +8375,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="39"/>
+      <c r="B5" s="37"/>
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -8250,7 +8384,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B6" s="39"/>
+      <c r="B6" s="37"/>
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -8259,7 +8393,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="39"/>
+      <c r="B7" s="37"/>
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -8288,7 +8422,7 @@
     </row>
     <row r="10" spans="2:5" ht="386.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -8306,10 +8440,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:E92"/>
+  <dimension ref="B2:F92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8318,9 +8452,10 @@
     <col min="3" max="3" width="27.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="85" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="71.69921875" customWidth="1"/>
+    <col min="6" max="6" width="38.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
@@ -8334,91 +8469,100 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="191.4" x14ac:dyDescent="0.4">
-      <c r="B3" s="41" t="s">
+    <row r="3" spans="2:6" ht="191.4" x14ac:dyDescent="0.4">
+      <c r="B3" s="38" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B4" s="41"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B4" s="38"/>
       <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B5" s="41"/>
+    <row r="5" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B5" s="38"/>
       <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B6" s="41"/>
-      <c r="C6" s="6" t="s">
+    <row r="6" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B6" s="38"/>
+      <c r="C6" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="B7" s="38"/>
+      <c r="C7" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B7" s="41"/>
-      <c r="C7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>489</v>
-      </c>
       <c r="E7" s="16" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B8" s="41"/>
-      <c r="C8" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B8" s="38"/>
+      <c r="C8" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="41"/>
+        <v>497</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B9" s="38"/>
       <c r="C9" s="6" t="s">
         <v>105</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="41" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -8427,10 +8571,13 @@
       <c r="E10" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="41"/>
-      <c r="C11" s="6" t="s">
+      <c r="F10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B11" s="38"/>
+      <c r="C11" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -8439,10 +8586,13 @@
       <c r="E11" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="41"/>
-      <c r="C12" s="6" t="s">
+      <c r="F11" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B12" s="38"/>
+      <c r="C12" s="35" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -8451,51 +8601,63 @@
       <c r="E12" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="41"/>
-      <c r="C13" s="6" t="s">
+      <c r="F12" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B13" s="38"/>
+      <c r="C13" s="35" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="41"/>
-      <c r="C14" s="6" t="s">
+      <c r="F13" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B14" s="38"/>
+      <c r="C14" s="35" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B15" s="41"/>
-      <c r="C15" s="6" t="s">
+      <c r="F14" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B15" s="38"/>
+      <c r="C15" s="35" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="44" t="s">
+        <v>496</v>
+      </c>
+      <c r="F15" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="39" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="44"/>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" s="39"/>
       <c r="C17" s="6" t="s">
         <v>44</v>
       </c>
@@ -8504,27 +8666,27 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="44"/>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18" s="39"/>
       <c r="C18" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19" s="39"/>
+      <c r="C19" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="44"/>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>496</v>
-      </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
@@ -8536,22 +8698,22 @@
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="2:5" ht="313.2" x14ac:dyDescent="0.4">
-      <c r="B21" s="41" t="s">
+    <row r="21" spans="2:6" ht="313.2" x14ac:dyDescent="0.4">
+      <c r="B21" s="38" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="32" t="s">
         <v>597</v>
       </c>
-      <c r="E21" s="32" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="41"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B22" s="38"/>
       <c r="C22" s="6" t="s">
         <v>49</v>
       </c>
@@ -8562,52 +8724,61 @@
         <v>368</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="41"/>
-      <c r="C23" s="6" t="s">
+    <row r="23" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B23" s="38"/>
+      <c r="C23" s="35" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B24" s="41"/>
+        <v>478</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B24" s="38"/>
       <c r="C24" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B25" s="41"/>
-      <c r="C25" s="6" t="s">
-        <v>481</v>
+        <v>598</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B25" s="38"/>
+      <c r="C25" s="35" t="s">
+        <v>480</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B26" s="41"/>
-      <c r="C26" s="6" t="s">
-        <v>480</v>
+      <c r="F25" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B26" s="38"/>
+      <c r="C26" s="35" t="s">
+        <v>479</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="41"/>
+      <c r="F26" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B27" s="38"/>
       <c r="C27" s="6" t="s">
         <v>47</v>
       </c>
@@ -8616,8 +8787,8 @@
       </c>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="41"/>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B28" s="38"/>
       <c r="C28" s="6" t="s">
         <v>54</v>
       </c>
@@ -8626,8 +8797,8 @@
       </c>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B29" s="41" t="s">
+    <row r="29" spans="2:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B29" s="38" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -8637,35 +8808,38 @@
         <v>58</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B30" s="41"/>
+        <v>604</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B30" s="38"/>
       <c r="C30" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B31" s="41" t="s">
+    <row r="31" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B31" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="35" t="s">
         <v>61</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B32" s="41"/>
+      <c r="F31" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B32" s="38"/>
       <c r="C32" s="6" t="s">
         <v>62</v>
       </c>
@@ -8674,8 +8848,8 @@
       </c>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="41"/>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B33" s="38"/>
       <c r="C33" s="6" t="s">
         <v>65</v>
       </c>
@@ -8684,108 +8858,129 @@
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B34" s="41" t="s">
+    <row r="34" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B34" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="35" t="s">
         <v>68</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B35" s="41"/>
-      <c r="C35" s="6" t="s">
+      <c r="F34" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B35" s="38"/>
+      <c r="C35" s="35" t="s">
         <v>69</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B36" s="41"/>
-      <c r="C36" s="6" t="s">
+      <c r="F35" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B36" s="38"/>
+      <c r="C36" s="35" t="s">
         <v>70</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B37" s="44" t="s">
+        <v>498</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="87" x14ac:dyDescent="0.4">
+      <c r="B37" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="35" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>76</v>
       </c>
       <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="44"/>
-      <c r="C38" s="6" t="s">
+      <c r="F37" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B38" s="39"/>
+      <c r="C38" s="35" t="s">
         <v>73</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>74</v>
       </c>
       <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="F38" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B39" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="6"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B40" s="38" t="s">
-        <v>491</v>
+      <c r="F39" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B40" s="48" t="s">
+        <v>490</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B41" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="6"/>
+      <c r="C41" s="35"/>
       <c r="D41" s="7" t="s">
         <v>79</v>
       </c>
       <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B42" s="41" t="s">
+      <c r="F41" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B42" s="38" t="s">
         <v>26</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B43" s="41"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B43" s="38"/>
       <c r="C43" s="6" t="s">
         <v>82</v>
       </c>
@@ -8794,32 +8989,38 @@
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B44" s="41"/>
+    <row r="44" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B44" s="38"/>
       <c r="C44" s="35" t="s">
         <v>81</v>
       </c>
       <c r="D44" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B45" s="41"/>
+      <c r="F44" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B45" s="38"/>
       <c r="C45" s="35" t="s">
         <v>83</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B46" s="41"/>
+      <c r="F45" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B46" s="38"/>
       <c r="C46" s="6" t="s">
         <v>85</v>
       </c>
@@ -8827,32 +9028,32 @@
         <v>106</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B47" s="40" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B47" s="49" t="s">
+        <v>499</v>
+      </c>
+      <c r="C47" s="50" t="s">
         <v>500</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="D47" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B48" s="49"/>
+      <c r="C48" s="50" t="s">
         <v>501</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D48" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B48" s="40"/>
-      <c r="C48" s="35" t="s">
-        <v>502</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>504</v>
-      </c>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B49" s="5" t="s">
         <v>86</v>
       </c>
@@ -8862,7 +9063,7 @@
       </c>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="2:5" ht="87" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:6" ht="87" x14ac:dyDescent="0.4">
       <c r="B50" s="5" t="s">
         <v>88</v>
       </c>
@@ -8876,254 +9077,272 @@
         <v>371</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B51" s="43" t="s">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B51" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="36" t="s">
+      <c r="D51" s="52" t="s">
+        <v>567</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B52" s="51"/>
+      <c r="C52" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="52" t="s">
         <v>568</v>
       </c>
-      <c r="E51" s="42" t="s">
+      <c r="E52" s="40"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B53" s="51"/>
+      <c r="C53" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="52" t="s">
+        <v>569</v>
+      </c>
+      <c r="E53" s="40"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B54" s="51"/>
+      <c r="C54" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="52" t="s">
+        <v>570</v>
+      </c>
+      <c r="E54" s="40"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B55" s="51"/>
+      <c r="C55" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B56" s="51"/>
+      <c r="C56" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="40"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B57" s="51"/>
+      <c r="C57" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" s="40"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B58" s="51"/>
+      <c r="C58" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" s="40"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B59" s="51"/>
+      <c r="C59" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="52" t="s">
+        <v>579</v>
+      </c>
+      <c r="E59" s="40"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B60" s="51"/>
+      <c r="C60" s="35" t="s">
+        <v>583</v>
+      </c>
+      <c r="D60" s="52" t="s">
+        <v>584</v>
+      </c>
+      <c r="E60" s="40"/>
+      <c r="F60" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B61" s="38" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B52" s="43"/>
-      <c r="C52" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="36" t="s">
-        <v>569</v>
-      </c>
-      <c r="E52" s="42"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B53" s="43"/>
-      <c r="C53" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="36" t="s">
-        <v>570</v>
-      </c>
-      <c r="E53" s="42"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B54" s="43"/>
-      <c r="C54" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="D54" s="36" t="s">
-        <v>571</v>
-      </c>
-      <c r="E54" s="42"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B55" s="43"/>
-      <c r="C55" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E55" s="42" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B56" s="43"/>
-      <c r="C56" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E56" s="42"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B57" s="43"/>
-      <c r="C57" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E57" s="42"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B58" s="43"/>
-      <c r="C58" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" s="42"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B59" s="43"/>
-      <c r="C59" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="E59" s="42"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B60" s="43"/>
-      <c r="C60" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="E60" s="42"/>
-    </row>
-    <row r="61" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B61" s="41" t="s">
-        <v>588</v>
-      </c>
       <c r="C61" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="E61" s="37" t="s">
+      <c r="E61" s="36" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B62" s="38"/>
+      <c r="C62" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="D62" s="14" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="62" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B62" s="41"/>
-      <c r="C62" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="D62" s="14" t="s">
+      <c r="E62" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="E62" s="21" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B63" s="38" t="s">
+    </row>
+    <row r="63" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B63" s="48" t="s">
         <v>107</v>
       </c>
       <c r="C63" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B64" s="48" t="s">
+        <v>577</v>
+      </c>
+      <c r="C64" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="E63" s="16" t="s">
+      <c r="D64" s="34" t="s">
+        <v>578</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B64" s="38" t="s">
-        <v>578</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>582</v>
-      </c>
-      <c r="D64" s="34" t="s">
-        <v>579</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B65" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="53" t="s">
         <v>108</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
+        <v>576</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B66" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="35" t="s">
         <v>109</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="2:5" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B67" s="41" t="s">
+      <c r="F66" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="243.6" x14ac:dyDescent="0.4">
+      <c r="B67" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>485</v>
+      <c r="C67" s="35" t="s">
+        <v>484</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="191.4" x14ac:dyDescent="0.4">
-      <c r="B68" s="41"/>
-      <c r="C68" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="191.4" x14ac:dyDescent="0.4">
+      <c r="B68" s="38"/>
+      <c r="C68" s="50" t="s">
         <v>111</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="2:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="44" t="s">
+    <row r="69" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="35" t="s">
         <v>113</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B70" s="44"/>
+      <c r="F69" s="54" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="243.6" x14ac:dyDescent="0.4">
+      <c r="B70" s="39"/>
       <c r="C70" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B71" s="44"/>
-      <c r="C71" s="6" t="s">
+    <row r="71" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B71" s="39"/>
+      <c r="C71" s="35" t="s">
         <v>115</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B72" s="44"/>
+      <c r="F71" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B72" s="39"/>
       <c r="C72" s="6" t="s">
         <v>117</v>
       </c>
@@ -9132,9 +9351,9 @@
       </c>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B73" s="44"/>
-      <c r="C73" s="6" t="s">
+    <row r="73" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B73" s="39"/>
+      <c r="C73" s="35" t="s">
         <v>119</v>
       </c>
       <c r="D73" s="7" t="s">
@@ -9143,219 +9362,243 @@
       <c r="E73" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="74" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B74" s="44"/>
+      <c r="F73" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B74" s="39"/>
       <c r="C74" s="6" t="s">
         <v>121</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B75" s="44"/>
-      <c r="C75" s="6" t="s">
+    <row r="75" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B75" s="39"/>
+      <c r="C75" s="35" t="s">
         <v>124</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>367</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B76" s="44"/>
+        <v>372</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="243.6" x14ac:dyDescent="0.4">
+      <c r="B76" s="39"/>
       <c r="C76" s="6" t="s">
         <v>123</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" ht="178.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="44"/>
+        <v>563</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="178.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="39"/>
       <c r="C77" s="6" t="s">
         <v>122</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="2:5" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B78" s="44"/>
-      <c r="C78" s="6" t="s">
+    <row r="78" spans="2:6" ht="243.6" x14ac:dyDescent="0.4">
+      <c r="B78" s="39"/>
+      <c r="C78" s="35" t="s">
         <v>125</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B79" s="41" t="s">
+        <v>504</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B79" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="C79" s="50" t="s">
         <v>559</v>
       </c>
-      <c r="C79" s="35" t="s">
+      <c r="D79" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="D79" s="7" t="s">
-        <v>561</v>
-      </c>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B80" s="41"/>
-      <c r="C80" s="6" t="s">
+    <row r="80" spans="2:6" ht="87" x14ac:dyDescent="0.4">
+      <c r="B80" s="38"/>
+      <c r="C80" s="50" t="s">
+        <v>556</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="D80" s="7" t="s">
-        <v>558</v>
-      </c>
       <c r="E80" s="14"/>
     </row>
-    <row r="81" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B81" s="41"/>
-      <c r="C81" s="35" t="s">
+    <row r="81" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B81" s="38"/>
+      <c r="C81" s="50" t="s">
         <v>126</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>127</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B83" s="41" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="87" x14ac:dyDescent="0.4">
+      <c r="B83" s="38" t="s">
         <v>128</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>129</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B84" s="41"/>
+    <row r="84" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B84" s="38"/>
       <c r="C84" s="6" t="s">
         <v>130</v>
       </c>
       <c r="D84" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" ht="87" x14ac:dyDescent="0.4">
+      <c r="B85" s="38"/>
+      <c r="C85" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="E85" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="E84" s="7" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B85" s="41"/>
-      <c r="C85" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" ht="261" x14ac:dyDescent="0.4">
-      <c r="B86" s="41"/>
+      <c r="F85" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" ht="261" x14ac:dyDescent="0.4">
+      <c r="B86" s="38"/>
       <c r="C86" s="6" t="s">
         <v>132</v>
       </c>
       <c r="D86" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B87" s="38"/>
+      <c r="C87" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="E87" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="E86" s="7" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B87" s="41"/>
-      <c r="C87" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>601</v>
-      </c>
-      <c r="E87" s="7" t="s">
+      <c r="F87" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B88" s="38"/>
+      <c r="C88" s="35" t="s">
+        <v>551</v>
+      </c>
+      <c r="D88" s="32" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="88" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B88" s="41"/>
-      <c r="C88" s="35" t="s">
+      <c r="E88" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B89" s="38"/>
+      <c r="C89" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="D88" s="32" t="s">
+      <c r="D89" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B90" s="38"/>
+      <c r="C90" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D90" s="16" t="s">
         <v>549</v>
       </c>
-      <c r="E88" s="7" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B89" s="41"/>
-      <c r="C89" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="D89" s="16" t="s">
+      <c r="E90" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="F90" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" ht="174" x14ac:dyDescent="0.4">
+      <c r="B91" s="38"/>
+      <c r="C91" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B90" s="41"/>
-      <c r="C90" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>550</v>
-      </c>
-      <c r="E90" s="33" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" ht="174" x14ac:dyDescent="0.4">
-      <c r="B91" s="41"/>
-      <c r="C91" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B92" s="41"/>
+    <row r="92" spans="2:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B92" s="38"/>
       <c r="C92" s="6" t="s">
         <v>136</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="E55:E60"/>
+    <mergeCell ref="B61:B62"/>
     <mergeCell ref="B83:B92"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="B51:B60"/>
@@ -9371,9 +9614,6 @@
     <mergeCell ref="B21:B28"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="B79:B81"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="E55:E60"/>
-    <mergeCell ref="B61:B62"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9436,7 +9676,7 @@
         <v>137</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="228" customHeight="1" x14ac:dyDescent="0.4">
@@ -9448,39 +9688,39 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="38" t="s">
         <v>139</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>139</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B6" s="41"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="7" t="s">
         <v>141</v>
       </c>
       <c r="D6" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B7" s="38"/>
+      <c r="C7" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B7" s="41"/>
-      <c r="C7" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>140</v>
@@ -9495,7 +9735,7 @@
         <v>142</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -9515,64 +9755,64 @@
         <v>145</v>
       </c>
       <c r="D10" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>512</v>
-      </c>
     </row>
     <row r="11" spans="2:5" ht="295.8" x14ac:dyDescent="0.4">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="41" t="s">
         <v>146</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>146</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B12" s="46"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="6" t="s">
         <v>146</v>
       </c>
       <c r="D12" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B13" s="42"/>
+      <c r="C13" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B14" s="42"/>
+      <c r="C14" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B13" s="46"/>
-      <c r="C13" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B14" s="46"/>
-      <c r="C14" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>536</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>380</v>
-      </c>
     </row>
     <row r="15" spans="2:5" ht="288" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="47"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="6" t="s">
         <v>157</v>
       </c>
@@ -9585,22 +9825,22 @@
         <v>149</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="261" x14ac:dyDescent="0.4">
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.4">
@@ -9619,22 +9859,22 @@
         <v>152</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B20" s="7"/>
       <c r="C20" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
@@ -9643,10 +9883,10 @@
         <v>147</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
@@ -9655,10 +9895,10 @@
         <v>148</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -9667,20 +9907,20 @@
         <v>153</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
@@ -9696,7 +9936,7 @@
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="191.4" x14ac:dyDescent="0.4">
@@ -9705,22 +9945,22 @@
         <v>156</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="156.6" x14ac:dyDescent="0.4">
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="10" t="s">
         <v>384</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="87" x14ac:dyDescent="0.4">
@@ -9729,10 +9969,10 @@
         <v>158</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
@@ -9741,7 +9981,7 @@
         <v>159</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E31" s="6"/>
     </row>
@@ -9798,16 +10038,16 @@
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B3" s="41"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>164</v>
@@ -9815,7 +10055,7 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B4" s="41"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="6" t="s">
         <v>163</v>
       </c>
@@ -9830,8 +10070,8 @@
     <row r="5" spans="2:6" ht="202.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="2:6" ht="243.6" x14ac:dyDescent="0.4">
@@ -9842,15 +10082,15 @@
         <v>167</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="38" t="s">
         <v>171</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -9865,12 +10105,12 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B8" s="41"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="6" t="s">
         <v>170</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>178</v>
@@ -9878,7 +10118,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="41"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="6" t="s">
         <v>172</v>
       </c>
@@ -9889,7 +10129,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B10" s="41"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="6" t="s">
         <v>174</v>
       </c>
@@ -9900,7 +10140,7 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B11" s="41"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="6" t="s">
         <v>176</v>
       </c>
@@ -9913,7 +10153,7 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B12" s="41"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="6" t="s">
         <v>181</v>
       </c>
@@ -9924,35 +10164,35 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="38" t="s">
         <v>183</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>184</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B14" s="41"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="6" t="s">
         <v>185</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="41"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="6" t="s">
         <v>186</v>
       </c>
@@ -9963,56 +10203,56 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B16" s="41"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="6" t="s">
         <v>188</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B17" s="41"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="6" t="s">
         <v>189</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B18" s="41"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="6" t="s">
         <v>190</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B19" s="41"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="6" t="s">
         <v>191</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B20" s="41"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="6" t="s">
         <v>192</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -10025,28 +10265,28 @@
         <v>194</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>392</v>
-      </c>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="38" t="s">
         <v>195</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>196</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B23" s="41"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="6" t="s">
         <v>197</v>
       </c>
@@ -10059,7 +10299,7 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B24" s="41"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="6" t="s">
         <v>176</v>
       </c>
@@ -10072,10 +10312,10 @@
     <row r="25" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -10088,7 +10328,7 @@
         <v>194</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>202</v>
@@ -10096,7 +10336,7 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="38" t="s">
         <v>195</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -10107,7 +10347,7 @@
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B28" s="41"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="6" t="s">
         <v>204</v>
       </c>
@@ -10118,7 +10358,7 @@
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B29" s="41"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="6" t="s">
         <v>206</v>
       </c>
@@ -10186,14 +10426,14 @@
         <v>167</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="38" t="s">
         <v>225</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -10205,7 +10445,7 @@
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="41"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="6" t="s">
         <v>226</v>
       </c>
@@ -10215,7 +10455,7 @@
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41" s="41"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="6" t="s">
         <v>227</v>
       </c>
@@ -10232,7 +10472,7 @@
         <v>232</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E42" s="6"/>
     </row>
@@ -10242,10 +10482,10 @@
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
@@ -10274,7 +10514,7 @@
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>239</v>
@@ -10296,24 +10536,24 @@
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="46" t="s">
         <v>243</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B50" s="50"/>
+      <c r="B50" s="46"/>
       <c r="C50" s="6" t="s">
         <v>219</v>
       </c>
@@ -10327,13 +10567,13 @@
         <v>246</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>247</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.4">
@@ -10351,23 +10591,23 @@
         <v>249</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="38" t="s">
         <v>251</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="56" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B56" s="41"/>
+      <c r="B56" s="38"/>
       <c r="C56" s="6" t="s">
         <v>253</v>
       </c>
@@ -10377,22 +10617,22 @@
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="2:6" ht="208.8" x14ac:dyDescent="0.4">
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="38" t="s">
         <v>250</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="58" spans="2:6" ht="174" x14ac:dyDescent="0.4">
-      <c r="B58" s="41"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="6" t="s">
         <v>255</v>
       </c>
@@ -10402,7 +10642,7 @@
       <c r="E58" s="6"/>
     </row>
     <row r="59" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B59" s="41"/>
+      <c r="B59" s="38"/>
       <c r="C59" s="6" t="s">
         <v>257</v>
       </c>
@@ -10412,7 +10652,7 @@
       <c r="E59" s="6"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B60" s="41"/>
+      <c r="B60" s="38"/>
       <c r="C60" s="6" t="s">
         <v>259</v>
       </c>
@@ -10422,7 +10662,7 @@
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B61" s="41"/>
+      <c r="B61" s="38"/>
       <c r="C61" s="6" t="s">
         <v>261</v>
       </c>
@@ -10432,7 +10672,7 @@
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B62" s="41"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="6" t="s">
         <v>263</v>
       </c>
@@ -10444,7 +10684,7 @@
       </c>
     </row>
     <row r="63" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B63" s="41"/>
+      <c r="B63" s="38"/>
       <c r="C63" s="6" t="s">
         <v>266</v>
       </c>
@@ -10481,35 +10721,35 @@
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="J66" t="s">
         <v>405</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="J66" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="87" x14ac:dyDescent="0.4">
       <c r="B67" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E67" s="7"/>
     </row>
     <row r="68" spans="2:10" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B68" s="27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="19" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.4">
@@ -10528,10 +10768,10 @@
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.4">
@@ -10569,7 +10809,7 @@
         <v>281</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -10737,7 +10977,7 @@
         <v>306</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
@@ -10746,10 +10986,10 @@
         <v>307</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -10758,10 +10998,10 @@
         <v>308</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
@@ -10773,19 +11013,19 @@
         <v>341</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="208.8" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="87" x14ac:dyDescent="0.4">
@@ -10794,19 +11034,19 @@
         <v>310</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="E9" s="7"/>
     </row>
@@ -10838,10 +11078,10 @@
         <v>315</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
@@ -10850,10 +11090,10 @@
         <v>316</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
@@ -10865,7 +11105,7 @@
         <v>318</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -10877,7 +11117,7 @@
         <v>320</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10887,7 +11127,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
@@ -10896,7 +11136,7 @@
         <v>322</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>323</v>
@@ -10911,7 +11151,7 @@
         <v>325</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
@@ -10920,7 +11160,7 @@
         <v>326</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E19" s="6"/>
     </row>
@@ -10933,7 +11173,7 @@
         <v>328</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
@@ -10965,7 +11205,7 @@
         <v>336</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -10974,31 +11214,31 @@
         <v>337</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B26" s="6"/>
       <c r="C26" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="E26" s="7"/>
     </row>
@@ -11015,27 +11255,27 @@
     <row r="28" spans="2:5" ht="136.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="6"/>
       <c r="C28" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
     <row r="30" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="38" t="s">
         <v>333</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>342</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>446</v>
-      </c>
     </row>
     <row r="31" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B31" s="41"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="7" t="s">
         <v>343</v>
       </c>
@@ -11043,11 +11283,11 @@
         <v>344</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B32" s="41"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="7" t="s">
         <v>345</v>
       </c>
@@ -11055,11 +11295,11 @@
         <v>346</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="41"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="7" t="s">
         <v>347</v>
       </c>
@@ -11069,7 +11309,7 @@
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="2:5" ht="330.6" x14ac:dyDescent="0.4">
-      <c r="B34" s="41"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="7" t="s">
         <v>349</v>
       </c>
@@ -11079,12 +11319,12 @@
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B35" s="41"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="7" t="s">
         <v>351</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>352</v>
@@ -11097,7 +11337,7 @@
       <c r="D38" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="E38" s="51" t="s">
+      <c r="E38" s="47" t="s">
         <v>364</v>
       </c>
     </row>
@@ -11108,7 +11348,7 @@
       <c r="D39" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="E39" s="39"/>
+      <c r="E39" s="37"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
@@ -11117,7 +11357,7 @@
       <c r="D40" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="E40" s="39"/>
+      <c r="E40" s="37"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
@@ -11126,7 +11366,7 @@
       <c r="D41" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="E41" s="39"/>
+      <c r="E41" s="37"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C42" t="s">
@@ -11135,31 +11375,31 @@
       <c r="D42" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E42" s="39"/>
+      <c r="E42" s="37"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
         <v>363</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>427</v>
-      </c>
-      <c r="E43" s="39"/>
+        <v>426</v>
+      </c>
+      <c r="E43" s="37"/>
     </row>
     <row r="44" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="C44" t="s">
+        <v>441</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" t="s">
         <v>443</v>
-      </c>
-      <c r="E44" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
       <c r="D45" s="30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/NCE/네이버클라우드/00.요약본/NCE_추가정리.xlsx
+++ b/NCE/네이버클라우드/00.요약본/NCE_추가정리.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repository\NCE\네이버클라우드\00.요약본\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65222F88-A7F0-4E14-A03C-06D2FCF3FD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E2BD9F-079D-44E1-8E91-5972C45C0D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34515" yWindow="-3165" windowWidth="28020" windowHeight="20925" activeTab="1" xr2:uid="{F59860EA-48BE-4768-90E0-72E89FFE37D2}"/>
+    <workbookView xWindow="35205" yWindow="-3060" windowWidth="26415" windowHeight="20700" firstSheet="1" activeTab="3" xr2:uid="{F59860EA-48BE-4768-90E0-72E89FFE37D2}"/>
   </bookViews>
   <sheets>
     <sheet name="OverView" sheetId="1" r:id="rId1"/>
@@ -794,12 +794,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VPC간 연결을 위한 네트웍 구성
-내 VPC간 연결 뿐만 아니라 다른 계정과의 VPC 연결도 가능
-타계정 VPC 연결시 로그인 ID, VPC ID, VPC명 입력 필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CIDR 
 (Classless Inter-Domain Routing)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1492,579 +1486,6 @@
   </si>
   <si>
     <t>Yarn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클러스터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>환경에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리소스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(CPU, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>메모리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리하고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>애플리케</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이션을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>실행</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-▪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>리소스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>매니저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(RM) : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>자원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>할당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>▪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>노드매니저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(NM) : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>리소스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>매니저에게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>자원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>▪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>애플리케이션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>마스터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(AM) : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>프로세스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실행</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>모니터링</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>자원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2610,14 +2031,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>A : 0 ~ 127
-B : 128 ~ 191
-C : 192 ~ 223
-D : 224 ~ 239
-IP헤더에서 TTL은 8Bit가 할당</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>하나의 계정에서는 최대 3개의 VPC 생성 가능
 VPC당 최대 500개의 ACG생성가능,</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4447,71 +3860,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">* Target Group
- • 요청을 처리할 대상에 대한 집합
- • 동일 VPC내에 있는 모든 대상(서버)들에 대해 타겟 그룹 생성 가능 (Zone 과 Subnet 상관없음)
- • 타겟 그룹 안에 있는 서버를 다른 타겟 그룹에 속하게 할 수 있지만 하나의 타겟 그룹을 다수의 로드밸런서에 연결할 수는 없다.
- • 로드밸런서 생성 후에도 Target group 수정 가능
-* Load balancer
- • 서비스를 수행하는 대상의 프로토콜에 따라 L4와 L7으로 구분
- • </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>헬스체크 주기(5초~300초) 및 임계값 설정. 기본은 30초</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- • 기본은 Round Robin 설정
- • 알고리즘 및 Sticky Session, Proxy Protocol 설정 변경은 생성 이후에 진행
-* Load balancer 프로토콜
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> • TCP : Network Load Balancer
- • Proxy_TCP : Network Proxy Load Balancer
- • HTTP : Application Load Balancer
- • HTTPS : Application Load Balancer
-</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 주요 부가 기능 별 지원 Load Balancer
-TCP 레벨 고성능 분산처리 (DSR:Direct Server Return) - 네트워크 로드밸런서
-TCP 세션 관리 - 네트워크 프록시 로드밸런서
-SSL 인증 및 암호화 설정 - 애플리케이션 로드밸런서, 네트워크 프록시 로드밸런서
-다양한 서버 부하 분산 방식 - 애플리케이션 로드밸런서, 네트워크 프록시 로드밸런서
- - Round Robin, Least Connection, Source IP Hash 
-L7(Application Layer) 기능 제공 - 애플리케이션 로드밸런서
- - HTTP Header 기반 분기, Host Header 기반 분기, URL path pattern 기반 분기, 가중치 기반 분기, Redirection 응답 처리 규치 지원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CDN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4614,13 +3962,6 @@
       <t xml:space="preserve">
 자막 Output format : vtt</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지를 다양한 사이즈로 변환하여 CDN을 통해 제공
-이미지를 Object Storage에 업로드하면 미리 설정된 룰에 맞추어 이미지 변환 (리사이즈 &amp; 크롭)
-CLA 서비스 연동 신청(필수)
-섬네일 호출 URL 방식 : [CDN도메인]+[오브젝트스토리지내의파일경로]+[섬네일생성옵션]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6942,12 +6283,726 @@
 계정당 50개의 server를 가질수 있음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>* 주요 부가 기능 별 지원 Load Balancer
+TCP 레벨 고성능 분산처리 (DSR:Direct Server Return) - 네트워크 로드밸런서
+TCP 세션 관리 - 네트워크 프록시 로드밸런서
+SSL 인증 및 암호화 설정 - 애플리케이션 로드밸런서, 네트워크 프록시 로드밸런서
+다양한 서버 부하 분산 방식 - 애플리케이션 로드밸런서, 네트워크 프록시 로드밸런서
+ - Round Robin, Least Connection, Source IP Hash 
+L7(Application Layer) 기능 제공 - 애플리케이션 로드밸런서
+ - HTTP Header 기반 분기, Host Header 기반 분기, URL path pattern 기반 분기, 가중치 기반 분기, Redirection 응답 처리 규치 지원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Target Group
+ • 요청을 처리할 대상에 대한 집합
+ • 동일 VPC내에 있는 모든 대상(서버)들에 대해 타겟 그룹 생성 가능 (Zone 과 Subnet 상관없음)
+ • 타겟 그룹 안에 있는 서버를 다른 타겟 그룹에 속하게 할 수 있지만 하나의 타겟 그룹을 다수의 로드밸런서에 연결할 수는 없다.
+ • 로드밸런서 생성 후에도 Target group 수정 가능
+* Load balancer
+ • 서비스를 수행하는 대상의 프로토콜에 따라 L4와 L7으로 구분
+ • </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>헬스체크 주기(5초~300초) 및 임계값 설정. 기본은 30초</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ • 기본은 Round Robin 설정
+ • 알고리즘 및 Sticky Session, Proxy Protocol 설정 변경은 생성 이후에 진행
+* Load balancer 프로토콜
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> • TCP : Network Load Balancer
+ • Proxy_TCP : Network Proxy Load Balancer
+ • HTTP : Application Load Balancer
+ • HTTPS : Application Load Balancer
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A : 0 ~ 127
+B : 128 ~ 191
+C : 192 ~ 223
+D : 224 ~ 239
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IP헤더에서 TTL은 8Bit가 할당</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이미지를 다양한 사이즈로 변환하여 CDN을 통해 제공
+이미지를 Object Storage에 업로드하면 미리 설정된 룰에 맞추어 이미지 변환 (리사이즈 &amp; 크롭)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLA 서비스 연동 신청(필수)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+섬네일 호출 URL 방식 : [CDN도메인]+[오브젝트스토리지내의파일경로]+[섬네일생성옵션]</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VPC간 연결을 위한 네트웍 구성
+내 VPC간 연결 뿐만 아니라 다른 계정과의 VPC 연결도 가능
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>타계정 VPC 연결시 로그인 ID, VPC ID, VPC명 입력 필요</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클러스터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환경에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리소스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(CPU, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메모리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>애플리케</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이션을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>▪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>리소스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>매니저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(RM) : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>자원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>할당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>▪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>노드매니저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(NM) : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>리소스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>매니저에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>자원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>▪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>애플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>마스터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(AM) : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>프로세스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모니터링</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>자원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7037,6 +7092,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -7160,7 +7222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7272,14 +7334,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7304,27 +7381,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7563,9 +7619,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>6467475</xdr:colOff>
+      <xdr:colOff>6456045</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>1718865</xdr:rowOff>
+      <xdr:rowOff>1734105</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7609,7 +7665,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>2476500</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>3552825</xdr:rowOff>
+      <xdr:rowOff>3558540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8355,7 +8411,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="42" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
@@ -8366,7 +8422,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="37"/>
+      <c r="B4" s="42"/>
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -8375,7 +8431,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="37"/>
+      <c r="B5" s="42"/>
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -8384,7 +8440,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B6" s="37"/>
+      <c r="B6" s="42"/>
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -8393,7 +8449,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="37"/>
+      <c r="B7" s="42"/>
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -8422,7 +8478,7 @@
     </row>
     <row r="10" spans="2:5" ht="386.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -8442,8 +8498,8 @@
   </sheetPr>
   <dimension ref="B2:F92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" topLeftCell="A82" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8470,96 +8526,96 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="191.4" x14ac:dyDescent="0.4">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="44" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B4" s="38"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B5" s="38"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B6" s="38"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B7" s="38"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="35" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B8" s="38"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="38"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="6" t="s">
         <v>105</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="44" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="35" t="s">
@@ -8572,11 +8628,11 @@
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="38"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="35" t="s">
         <v>28</v>
       </c>
@@ -8587,11 +8643,11 @@
         <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="38"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="35" t="s">
         <v>29</v>
       </c>
@@ -8602,22 +8658,22 @@
         <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="38"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="35" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="6"/>
       <c r="F13" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="38"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="35" t="s">
         <v>24</v>
       </c>
@@ -8626,11 +8682,11 @@
       </c>
       <c r="E14" s="6"/>
       <c r="F14" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B15" s="38"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="35" t="s">
         <v>31</v>
       </c>
@@ -8638,26 +8694,26 @@
         <v>33</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F15" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="43" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="39"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="6" t="s">
         <v>44</v>
       </c>
@@ -8667,22 +8723,22 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="39"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B19" s="39"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E19" s="6"/>
     </row>
@@ -8699,21 +8755,21 @@
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="2:6" ht="313.2" x14ac:dyDescent="0.4">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="44" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B22" s="38"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="6" t="s">
         <v>49</v>
       </c>
@@ -8721,64 +8777,64 @@
         <v>50</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B23" s="38"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="35" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B24" s="38"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B25" s="38"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="35" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="3" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B26" s="38"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="35" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="3" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B27" s="38"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="6" t="s">
         <v>47</v>
       </c>
@@ -8788,7 +8844,7 @@
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B28" s="38"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="6" t="s">
         <v>54</v>
       </c>
@@ -8798,7 +8854,7 @@
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="2:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="44" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -8808,23 +8864,23 @@
         <v>58</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B30" s="38"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="44" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="35" t="s">
@@ -8835,11 +8891,11 @@
       </c>
       <c r="E31" s="6"/>
       <c r="F31" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B32" s="38"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="6" t="s">
         <v>62</v>
       </c>
@@ -8849,7 +8905,7 @@
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B33" s="38"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="6" t="s">
         <v>65</v>
       </c>
@@ -8859,22 +8915,22 @@
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="44" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="35" t="s">
         <v>68</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="3" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B35" s="38"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="35" t="s">
         <v>69</v>
       </c>
@@ -8883,26 +8939,26 @@
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B36" s="38"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="35" t="s">
         <v>70</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="43" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="35" t="s">
@@ -8913,11 +8969,11 @@
       </c>
       <c r="E37" s="6"/>
       <c r="F37" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B38" s="39"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="35" t="s">
         <v>73</v>
       </c>
@@ -8926,7 +8982,7 @@
       </c>
       <c r="E38" s="6"/>
       <c r="F38" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
@@ -8935,22 +8991,22 @@
       </c>
       <c r="C39" s="35"/>
       <c r="D39" s="7" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B40" s="48" t="s">
-        <v>490</v>
+      <c r="B40" s="5" t="s">
+        <v>487</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E40" s="6"/>
     </row>
@@ -8964,23 +9020,23 @@
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="3" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="44" t="s">
         <v>26</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="7" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B43" s="38"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="6" t="s">
         <v>82</v>
       </c>
@@ -8990,37 +9046,37 @@
       <c r="E43" s="6"/>
     </row>
     <row r="44" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B44" s="38"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="35" t="s">
         <v>81</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B45" s="38"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="35" t="s">
         <v>83</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>84</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B46" s="38"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="6" t="s">
         <v>85</v>
       </c>
@@ -9028,28 +9084,28 @@
         <v>106</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="C47" s="50" t="s">
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B48" s="43"/>
+      <c r="C48" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B48" s="49"/>
-      <c r="C48" s="50" t="s">
-        <v>501</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="E48" s="6"/>
     </row>
@@ -9074,187 +9130,187 @@
         <v>90</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="52" t="s">
-        <v>567</v>
-      </c>
-      <c r="E51" s="40" t="s">
+      <c r="D51" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="E51" s="45" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B52" s="44"/>
+      <c r="C52" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="E52" s="45"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B53" s="44"/>
+      <c r="C53" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E53" s="45"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B54" s="44"/>
+      <c r="C54" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E54" s="45"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B55" s="44"/>
+      <c r="C55" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="45" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B56" s="44"/>
+      <c r="C56" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="45"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B57" s="44"/>
+      <c r="C57" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" s="45"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B58" s="44"/>
+      <c r="C58" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" s="45"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B59" s="44"/>
+      <c r="C59" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="E59" s="45"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B60" s="44"/>
+      <c r="C60" s="35" t="s">
+        <v>577</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="E60" s="45"/>
+      <c r="F60" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B61" s="44" t="s">
+        <v>581</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E61" s="36" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B62" s="44"/>
+      <c r="C62" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="E62" s="21" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B52" s="51"/>
-      <c r="C52" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="52" t="s">
-        <v>568</v>
-      </c>
-      <c r="E52" s="40"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B53" s="51"/>
-      <c r="C53" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="52" t="s">
-        <v>569</v>
-      </c>
-      <c r="E53" s="40"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B54" s="51"/>
-      <c r="C54" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="D54" s="52" t="s">
-        <v>570</v>
-      </c>
-      <c r="E54" s="40"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B55" s="51"/>
-      <c r="C55" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="E55" s="40" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B56" s="51"/>
-      <c r="C56" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="E56" s="40"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B57" s="51"/>
-      <c r="C57" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="D57" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="E57" s="40"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B58" s="51"/>
-      <c r="C58" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="D58" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" s="40"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B59" s="51"/>
-      <c r="C59" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="D59" s="52" t="s">
-        <v>579</v>
-      </c>
-      <c r="E59" s="40"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B60" s="51"/>
-      <c r="C60" s="35" t="s">
-        <v>583</v>
-      </c>
-      <c r="D60" s="52" t="s">
-        <v>584</v>
-      </c>
-      <c r="E60" s="40"/>
-      <c r="F60" s="3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B61" s="38" t="s">
-        <v>587</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="E61" s="36" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B62" s="38"/>
-      <c r="C62" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>592</v>
-      </c>
-    </row>
     <row r="63" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B63" s="48" t="s">
+      <c r="B63" s="5" t="s">
         <v>107</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B64" s="48" t="s">
-        <v>577</v>
+      <c r="B64" s="5" t="s">
+        <v>571</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D64" s="34" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B65" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="37" t="s">
         <v>108</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
@@ -9265,84 +9321,84 @@
         <v>109</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="3" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="44" t="s">
         <v>110</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="191.4" x14ac:dyDescent="0.4">
-      <c r="B68" s="38"/>
-      <c r="C68" s="50" t="s">
+      <c r="B68" s="44"/>
+      <c r="C68" s="6" t="s">
         <v>111</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="E68" s="7"/>
     </row>
     <row r="69" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="43" t="s">
         <v>112</v>
       </c>
       <c r="C69" s="35" t="s">
         <v>113</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="F69" s="54" t="s">
-        <v>618</v>
+        <v>367</v>
+      </c>
+      <c r="F69" s="38" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B70" s="39"/>
+      <c r="B70" s="43"/>
       <c r="C70" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E70" s="6"/>
     </row>
     <row r="71" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B71" s="39"/>
+      <c r="B71" s="43"/>
       <c r="C71" s="35" t="s">
         <v>115</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>116</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B72" s="39"/>
+      <c r="B72" s="43"/>
       <c r="C72" s="6" t="s">
         <v>117</v>
       </c>
@@ -9352,253 +9408,250 @@
       <c r="E72" s="6"/>
     </row>
     <row r="73" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B73" s="39"/>
+      <c r="B73" s="43"/>
       <c r="C73" s="35" t="s">
         <v>119</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B74" s="39"/>
+      <c r="B74" s="43"/>
       <c r="C74" s="6" t="s">
         <v>121</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="E74" s="6"/>
     </row>
     <row r="75" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B75" s="39"/>
+      <c r="B75" s="43"/>
       <c r="C75" s="35" t="s">
         <v>124</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B76" s="39"/>
+      <c r="B76" s="43"/>
       <c r="C76" s="6" t="s">
         <v>123</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="178.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="39"/>
+      <c r="B77" s="43"/>
       <c r="C77" s="6" t="s">
         <v>122</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E77" s="6"/>
     </row>
     <row r="78" spans="2:6" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B78" s="39"/>
+      <c r="B78" s="43"/>
       <c r="C78" s="35" t="s">
         <v>125</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B79" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="C79" s="50" t="s">
-        <v>559</v>
+      <c r="B79" s="44" t="s">
+        <v>552</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>553</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="E79" s="6"/>
     </row>
     <row r="80" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B80" s="38"/>
-      <c r="C80" s="50" t="s">
-        <v>556</v>
+      <c r="B80" s="44"/>
+      <c r="C80" s="6" t="s">
+        <v>550</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E80" s="14"/>
     </row>
     <row r="81" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B81" s="38"/>
-      <c r="C81" s="50" t="s">
+      <c r="B81" s="44"/>
+      <c r="C81" s="6" t="s">
         <v>126</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>127</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="83" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B83" s="38" t="s">
+      <c r="B83" s="44" t="s">
         <v>128</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>129</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E83" s="6"/>
     </row>
     <row r="84" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B84" s="38"/>
+      <c r="B84" s="44"/>
       <c r="C84" s="6" t="s">
         <v>130</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="85" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B85" s="38"/>
-      <c r="C85" s="53" t="s">
+      <c r="B85" s="44"/>
+      <c r="C85" s="37" t="s">
         <v>131</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="86" spans="2:6" ht="261" x14ac:dyDescent="0.4">
-      <c r="B86" s="38"/>
+      <c r="B86" s="44"/>
       <c r="C86" s="6" t="s">
         <v>132</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="87" spans="2:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B87" s="38"/>
+      <c r="B87" s="44"/>
       <c r="C87" s="35" t="s">
         <v>133</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="E87" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F87" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B88" s="44"/>
+      <c r="C88" s="35" t="s">
+        <v>545</v>
+      </c>
+      <c r="D88" s="32" t="s">
+        <v>542</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B89" s="44"/>
+      <c r="C89" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="D89" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="F87" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B88" s="38"/>
-      <c r="C88" s="35" t="s">
-        <v>551</v>
-      </c>
-      <c r="D88" s="32" t="s">
-        <v>548</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B89" s="38"/>
-      <c r="C89" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>553</v>
-      </c>
       <c r="E89" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="90" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B90" s="38"/>
+      <c r="B90" s="44"/>
       <c r="C90" s="35" t="s">
         <v>134</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F90" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="91" spans="2:6" ht="174" x14ac:dyDescent="0.4">
-      <c r="B91" s="38"/>
+      <c r="B91" s="44"/>
       <c r="C91" s="35" t="s">
         <v>135</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B92" s="38"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="6" t="s">
         <v>136</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="E55:E60"/>
-    <mergeCell ref="B61:B62"/>
     <mergeCell ref="B83:B92"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="B51:B60"/>
@@ -9614,6 +9667,9 @@
     <mergeCell ref="B21:B28"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="B79:B81"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="E55:E60"/>
+    <mergeCell ref="B61:B62"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9640,8 +9696,8 @@
   </sheetPr>
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:D12"/>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9650,7 +9706,7 @@
     <col min="2" max="2" width="19.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.3984375" customWidth="1"/>
     <col min="4" max="4" width="85" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.69921875" customWidth="1"/>
+    <col min="5" max="5" width="87.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
@@ -9676,7 +9732,7 @@
         <v>137</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="228" customHeight="1" x14ac:dyDescent="0.4">
@@ -9688,133 +9744,133 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="7" t="s">
-        <v>375</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>539</v>
+      <c r="D5" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B6" s="38"/>
-      <c r="C6" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>508</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>538</v>
+      <c r="B6" s="44"/>
+      <c r="C6" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>505</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B7" s="38"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>140</v>
+        <v>639</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="2:5" ht="348" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>143</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>144</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="330.6" x14ac:dyDescent="0.4">
+      <c r="B11" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="295.8" x14ac:dyDescent="0.4">
-      <c r="B11" s="41" t="s">
-        <v>146</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>513</v>
+        <v>636</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B12" s="42"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>514</v>
+        <v>635</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B13" s="42"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B14" s="42"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="288" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="43"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="7"/>
@@ -9822,176 +9878,176 @@
     <row r="16" spans="2:5" ht="156.6" x14ac:dyDescent="0.4">
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="261" x14ac:dyDescent="0.4">
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="7"/>
       <c r="C18" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B19" s="7"/>
       <c r="C19" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B20" s="7"/>
       <c r="C20" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B21" s="7"/>
       <c r="C21" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="27" spans="2:5" ht="246.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5" ht="284.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="191.4" x14ac:dyDescent="0.4">
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="156.6" x14ac:dyDescent="0.4">
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="87" x14ac:dyDescent="0.4">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>521</v>
+        <v>638</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="E32" s="6"/>
     </row>
@@ -10011,8 +10067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9297385-E462-473E-AEDC-F69A1F3886A9}">
   <dimension ref="B2:J84"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -10038,273 +10094,273 @@
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B3" s="38"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B4" s="44"/>
+      <c r="C4" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B4" s="38"/>
-      <c r="C4" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="2:6" ht="202.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="2:6" ht="243.6" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B7" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B7" s="38" t="s">
+      <c r="D7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="87" x14ac:dyDescent="0.4">
+      <c r="B8" s="44"/>
+      <c r="C8" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B9" s="44"/>
+      <c r="C9" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B8" s="38"/>
-      <c r="C8" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="38"/>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B10" s="38"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B11" s="38"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B12" s="44"/>
+      <c r="C12" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B12" s="38"/>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B14" s="44"/>
+      <c r="C14" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B14" s="38"/>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B15" s="44"/>
+      <c r="C15" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>461</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="38"/>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B16" s="38"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B17" s="38"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B18" s="38"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B19" s="38"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B20" s="38"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="2:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="B21" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B22" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B22" s="38" t="s">
+      <c r="C22" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>196</v>
-      </c>
       <c r="D22" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B23" s="38"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B24" s="44"/>
+      <c r="C24" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B24" s="38"/>
-      <c r="C24" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -10312,268 +10368,268 @@
     <row r="25" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="2:6" ht="87" x14ac:dyDescent="0.4">
       <c r="B26" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B27" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="C27" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B27" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B28" s="38"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B29" s="38"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>208</v>
       </c>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B30" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="2:5" ht="191.4" x14ac:dyDescent="0.4">
       <c r="B37" s="5"/>
       <c r="C37" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D37" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B38" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="E38" s="10" t="s">
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B39" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="38" t="s">
+      <c r="D39" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B40" s="44"/>
+      <c r="C40" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="38"/>
-      <c r="C40" s="6" t="s">
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B41" s="44"/>
+      <c r="C41" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41" s="38"/>
-      <c r="C41" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="E41" s="6"/>
     </row>
     <row r="42" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B42" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>232</v>
-      </c>
       <c r="D42" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B43" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B45" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E45" s="6"/>
     </row>
     <row r="46" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B46" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B47" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E47" s="6"/>
     </row>
     <row r="48" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B48" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B49" s="46" t="s">
-        <v>243</v>
+      <c r="B49" s="51" t="s">
+        <v>242</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="10" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E49" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B50" s="51"/>
+      <c r="C50" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B50" s="46"/>
-      <c r="C50" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="E50" s="6"/>
     </row>
     <row r="51" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B51" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>247</v>
-      </c>
       <c r="E51" s="16" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.4">
@@ -10584,194 +10640,194 @@
     </row>
     <row r="54" spans="2:6" ht="87" x14ac:dyDescent="0.4">
       <c r="B54" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B55" s="38" t="s">
-        <v>251</v>
+      <c r="B55" s="44" t="s">
+        <v>250</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E55" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B56" s="44"/>
+      <c r="C56" s="6" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="56" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B56" s="38"/>
-      <c r="C56" s="6" t="s">
+      <c r="D56" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="2:6" ht="208.8" x14ac:dyDescent="0.4">
-      <c r="B57" s="38" t="s">
-        <v>250</v>
+      <c r="B57" s="44" t="s">
+        <v>249</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="13" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58" spans="2:6" ht="174" x14ac:dyDescent="0.4">
-      <c r="B58" s="38"/>
+      <c r="B58" s="44"/>
       <c r="C58" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B59" s="44"/>
+      <c r="C59" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B59" s="38"/>
-      <c r="C59" s="6" t="s">
+      <c r="D59" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B60" s="44"/>
+      <c r="C60" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B60" s="38"/>
-      <c r="C60" s="6" t="s">
+      <c r="D60" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B61" s="44"/>
+      <c r="C61" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B61" s="38"/>
-      <c r="C61" s="6" t="s">
+      <c r="D61" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="2:6" ht="87" x14ac:dyDescent="0.4">
+      <c r="B62" s="44"/>
+      <c r="C62" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D62" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B62" s="38"/>
-      <c r="C62" s="6" t="s">
+      <c r="E62" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="D62" s="7" t="s">
+    </row>
+    <row r="63" spans="2:6" ht="87" x14ac:dyDescent="0.4">
+      <c r="B63" s="44"/>
+      <c r="C63" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="D63" s="7" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="63" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B63" s="38"/>
-      <c r="C63" s="6" t="s">
+      <c r="E63" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B64" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B65" s="5"/>
       <c r="C65" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="2:10" ht="174" x14ac:dyDescent="0.4">
       <c r="B66" s="23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="10" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J66" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="87" x14ac:dyDescent="0.4">
       <c r="B67" s="27" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="19" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E67" s="7"/>
     </row>
     <row r="68" spans="2:10" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B68" s="27" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="19" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B69" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E69" s="6"/>
     </row>
     <row r="70" spans="2:10" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B70" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.4">
@@ -10784,7 +10840,7 @@
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B73" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -10793,124 +10849,124 @@
     <row r="74" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B74" s="25"/>
       <c r="C74" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D74" s="18" t="s">
         <v>277</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>279</v>
       </c>
       <c r="E74" s="18"/>
     </row>
     <row r="75" spans="2:10" ht="156.6" x14ac:dyDescent="0.4">
       <c r="B75" s="5"/>
       <c r="C75" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B76" s="5"/>
       <c r="C76" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="77" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B77" s="5"/>
       <c r="C77" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="D77" s="7" t="s">
-        <v>286</v>
-      </c>
       <c r="E77" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B78" s="5"/>
       <c r="C78" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="79" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B79" s="5"/>
       <c r="C79" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E79" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B80" s="5"/>
       <c r="C80" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E80" s="6"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B81" s="5"/>
       <c r="C81" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E81" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B82" s="5"/>
       <c r="C82" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B83" s="5"/>
       <c r="C83" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E83" s="6"/>
     </row>
     <row r="84" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B84" s="5"/>
       <c r="C84" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E84" s="6"/>
     </row>
@@ -10941,7 +10997,7 @@
   <dimension ref="B2:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -10968,438 +11024,438 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="208.8" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="28" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="87" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B17" s="6"/>
       <c r="C17" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="6"/>
       <c r="C19" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B20" s="6"/>
       <c r="C20" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="6"/>
       <c r="C21" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="6"/>
       <c r="C22" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="2:5" ht="87" x14ac:dyDescent="0.4">
       <c r="B23" s="6"/>
       <c r="C23" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B26" s="6"/>
       <c r="C26" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B27" s="6"/>
       <c r="C27" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="2:5" ht="136.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="6"/>
       <c r="C28" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
     <row r="30" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B30" s="38" t="s">
-        <v>333</v>
+      <c r="B30" s="44" t="s">
+        <v>331</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B31" s="44"/>
+      <c r="C31" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B31" s="38"/>
-      <c r="C31" s="7" t="s">
+      <c r="E31" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B32" s="44"/>
+      <c r="C32" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B32" s="38"/>
-      <c r="C32" s="7" t="s">
+      <c r="E32" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B33" s="44"/>
+      <c r="C33" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="38"/>
-      <c r="C33" s="7" t="s">
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="2:5" ht="330.6" x14ac:dyDescent="0.4">
+      <c r="B34" s="44"/>
+      <c r="C34" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="2:5" ht="330.6" x14ac:dyDescent="0.4">
-      <c r="B34" s="38"/>
-      <c r="C34" s="7" t="s">
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B35" s="44"/>
+      <c r="C35" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D35" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B35" s="38"/>
-      <c r="C35" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="E38" s="47" t="s">
-        <v>364</v>
+        <v>352</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="C39" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E39" s="37"/>
+        <v>354</v>
+      </c>
+      <c r="E39" s="42"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E40" s="37"/>
+        <v>356</v>
+      </c>
+      <c r="E40" s="42"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E41" s="37"/>
+        <v>358</v>
+      </c>
+      <c r="E41" s="42"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C42" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E42" s="37"/>
+        <v>360</v>
+      </c>
+      <c r="E42" s="42"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>426</v>
-      </c>
-      <c r="E43" s="37"/>
+        <v>423</v>
+      </c>
+      <c r="E43" s="42"/>
     </row>
     <row r="44" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="C44" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E44" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
       <c r="D45" s="30" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>

--- a/NCE/네이버클라우드/00.요약본/NCE_추가정리.xlsx
+++ b/NCE/네이버클라우드/00.요약본/NCE_추가정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repository\NCE\네이버클라우드\00.요약본\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351492C2-6106-422E-B838-91B99AD05F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585D2448-7011-44D2-97E7-3CF26890BAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31680" yWindow="-3405" windowWidth="24810" windowHeight="20445" activeTab="2" xr2:uid="{F59860EA-48BE-4768-90E0-72E89FFE37D2}"/>
+    <workbookView xWindow="35085" yWindow="-3075" windowWidth="24810" windowHeight="20445" activeTab="4" xr2:uid="{F59860EA-48BE-4768-90E0-72E89FFE37D2}"/>
   </bookViews>
   <sheets>
     <sheet name="OverView" sheetId="1" r:id="rId1"/>
@@ -987,10 +987,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MySQL은 10대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Cloud DB for Redis</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1541,33 +1537,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">• 트랜스코딩을 통해 여러 화질로 변환 후, 송출
-• 스트림 상태를 볼 수 있는 모니터링 기능 제공
-• Thumbnail Image 추출
-• 타임머신(Time Shift) 기능으로 놓치지 않는 라이브 방송 서비스 구현 가능
-• CDN 연동을 통해 안정적인 송출 가능
-• 송출된 영상을 다른 플랫폼으로 중계하는 Re-Stream 기능 제공
-• 실시간 DVR(Digital Video Recorder) 기능 제공
-채널 유지 비용은 발생
-채널이 생성 중인 상태는 '준비'상태로 콘솔에 표기된다.
-Object stroage 와 CDN연동임
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(주의)Live Station 생성시, CDN을 동시에 생성할 수 없기에 별도로 생성하여 따로 연동해 줘야한다. &gt; 틀림</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>모든 계정의 사용량 또는 비용을 확인하고 이에 대한 비용을 하나의 청구서로 지불 서비스별 이용한도를 정의한 이용한도정책을 생성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2531,69 +2500,6 @@
       <t xml:space="preserve">고객의 사내망 과 NCP간 사설통신을 위해
 고객의 VPN 장비와 NCP VPN 장비 간 터널링 연결 제공 (통신 방식 호환이 되어야 함)
 </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>host(PC) -  망 연결</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-외부에서 NCP서버 접속시 보안통신이 가능하도록 보안소켓계층 기반의 가상사설망지원 운영체제 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Windows 10/11, MacOS 12.0/13.0 (중요)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-(주의) SSL VPN 접속만 하면 ACG 설정 변경없이도 서버에접근이 가능하다. =&gt; 틀림. * 사전에 해당 SSL VPN IP Pool을 허용처리해 두어야 함.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-VPC당 1개의 SSL VPN 생성 가능</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2865,39 +2771,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">10.0.0.0/8,  172.16.0.0/12,  192.168.0.0/16 중에서 선택가능
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>최소 /28에서 최대 /16까지 Netmask 생성 가능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Subnet을 이용하여 VPC안에서 Segment 생성관리 가능
-10.0.0.0 ~ 10.255.255.255 중에 /28 ~ /16 Netmask로 네트워크 대역 생성
-172.16.0.0 ~ 172.18.255.255 중에 /28 ~ /16 Netmask로 네트워크 대역 생성
-192.168.0.0 ~ 192.168.255.255 중에 /28 ~ /16 Netmask로 네트워크 대역 생성</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NTP(Network Time Protocol) : UDP만 사용
 ARP(Address Resolution Protocol) : ip에서 맥주소를 얻기위한 프로토콜
 - RDP(ACG 에서 설정 , 윈도우 데스크탑 원격제어) : 3389
@@ -4883,12 +4756,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DB 백업 주기 : 매일
-백업 유지기간 : Redis - 7일 나머지는 30일
-멀티 존 지원, 멀티 리전 미지원, ACG는 자동 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>주의) MongoDB 안됨
 MySQL, PosgreSQL, MariaDB, Tibero</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6213,38 +6080,6 @@
       </rPr>
       <t xml:space="preserve">
 CLA(Cloud Log Analytics) - 필수 연동이고 CLA가 제공하는 모든 기능 가능</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>상세 기능
--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Console과 API호출</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>을 통해 발생하는 사용자 계정 활동 기록을 저장하여 제공 (작업 상태는 알지 못한다)
-- 조회기간 : 최근 1일, 1주, 1개월, 3개월
-- 메인 계정과 서브 계정에 대해 구분 검색
-리소스 작업 이력은 최대 3개월 보관후 삭제된다.</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -7886,38 +7721,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">GCM : Google Cloud Messaging (Android &amp; iOS 지원)
-FCM : Firebase Cloud Messaging 의 약자로 GCM의 새로운 버전 (다양한 플랫포 모두 커버)
-APNS : Apple Push Notification Service (Apple 개발자 페이지에서 인증서와 키 설정 후 사용가능)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SMS 발송 비용 : 50건 이하 무료, 그 이상은 건당 9원
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-다양한 문자 전송 메시지 포맷 지원 : SMS(80자 미만), LMS(80자 이상), MMS(멀티미디어포함)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>개인화된 메일을 빠르고 안정적으로 전송할 수 있는 메일 서비스
 - 대용량 및 예약 메일 전송
 - 개인화된 콘텐츠 메일 전송 : 다양한 치환 태그가 포함된 메일 템플릿을 제작하고 활용 
@@ -7926,64 +7729,6 @@
 - 실시간 통계 조회: 실시간 통계를 이용해 메일 전송 건별 상세 결과를 분석
 - 발송 이력 조회: 최대 2개월의 메시지 발송 이력이 보관되어 검색 가능
 - Open API 사용: HTTP Open API를 통해 메일을 발송하고 그 결과를 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>받는사람 주소는 1000명 (30명씩 순차 발송), 참조 주소는 30명, 숨은 참조 주소는 30명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-파일 업로드를 통한 대량 메일 발송 (최대 100,000개 수신자 주소 입력 가능)
-** 치환 태그
-* 사용자 정의 치환태그
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">${태그명} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>형태
-- 치환값을 사용자가 직업 입력
-- 입력 개수와 태그명에 제한 없음
-- 태그값을 모두 사용자가 입력해야 메일 발송 가능
-- 대량 발송 구분의 모든 유형에서 사용 가능
-* Meta 정보 치환 태그
-- #{태그명} 형태
-- 사전에 정의된 지정된 변수로 수신자명 , 수신자 이메일 , 발송자명 , 발송자 이메일 , 수신거부 링크</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -8751,6 +8496,413 @@
   </si>
   <si>
     <t>Object Storage, Block Storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10.0.0.0/8,  172.16.0.0/12,  192.168.0.0/16 중에서 선택가능
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>최소 /28에서 최대 /16까지 Netmask 생성 가능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Subnet을 이용하여 VPC안에서 Segment 생성관리 가능
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10.0.0.0 ~ 10.255.255.255 중에 /28 ~ /16 Netmask로 네트워크 대역 생성
+172.16.0.0 ~ 172.18.255.255 중에 /28 ~ /16 Netmask로 네트워크 대역 생성
+192.168.0.0 ~ 192.168.255.255 중에 /28 ~ /16 Netmask로 네트워크 대역 생성</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>host(PC) -  망 연결</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+외부에서 NCP서버 접속시 보안통신이 가능하도록 보안소켓계층 기반의 가상사설망지원 운영체제 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Windows 10/11, MacOS 12.0/13.0 (중요)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(주의) SSL VPN 접속만 하면 ACG 설정 변경없이도 서버에접근이 가능하다. =&gt; 틀림. * 사전에 해당 SSL VPN IP Pool을 허용처리해 두어야 함.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+VPC당 1개의 SSL VPN 생성 가능</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• 트랜스코딩을 통해 여러 화질로 변환 후, 송출
+• 스트림 상태를 볼 수 있는 모니터링 기능 제공
+• Thumbnail Image 추출
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• 타임머신(Time Shift) 기능으로 놓치지 않는 라이브 방송 서비스 구현 가능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• CDN 연동을 통해 안정적인 송출 가능
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• 송출된 영상을 다른 플랫폼으로 중계하는 Re-Stream 기능 제공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• 실시간 DVR(Digital Video Recorder) 기능 제공
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>채널 유지 비용은 발생
+채널이 생성 중인 상태는 '준비'상태로 콘솔에 표기된다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Object stroage 와 CDN연동임
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(주의)Live Station 생성시, CDN을 동시에 생성할 수 없기에 별도로 생성하여 따로 연동해 줘야한다. &gt; 틀림</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DB 백업 주기 : 매일
+백업 유지기간 : Redis - 7일 나머지는 30일
+멀티 존 지원, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>멀티 리전 미지원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ACG는 자동 생성</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(비교) MySQL은 10대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>상세 기능
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Console과 API호출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">을 통해 발생하는 사용자 계정 활동 기록을 저장하여 제공 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(작업 상태는 알지 못한다)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 조회기간 : 최근 1일, 1주, 1개월, 3개월
+- 메인 계정과 서브 계정에 대해 구분 검색
+리소스 작업 이력은 최대 3개월 보관후 삭제된다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GCM : Google Cloud Messaging (Android &amp; iOS 지원)
+FCM : Firebase Cloud Messaging 의 약자로 GCM의 새로운 버전 (다양한 플랫폼 모두 커버)
+APNS : Apple Push Notification Service (Apple 개발자 페이지에서 인증서와 키 설정 후 사용가능)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SMS 발송 비용 : 50건 이하 무료, 그 이상은 건당 9원
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+다양한 문자 전송 메시지 포맷 지원 : SMS(80자 미만), LMS(80자 이상), MMS(멀티미디어포함)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>받는사람 주소는 1000명 (30명씩 순차 발송), 참조 주소는 30명, 숨은 참조 주소는 30명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+파일 업로드를 통한 대량 메일 발송 (최대 100,000개 수신자 주소 입력 가능)
+** 치환 태그
+* 사용자 정의 치환태그
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">${태그명} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>형태
+- 치환값을 사용자가 직접 입력
+- 입력 개수와 태그명에 제한 없음
+- 태그값을 모두 사용자가 입력해야 메일 발송 가능
+- 대량 발송 구분의 모든 유형에서 사용 가능
+* Meta 정보 치환 태그
+- #{태그명} 형태
+- 사전에 정의된 지정된 변수로 수신자명 , 수신자 이메일 , 발송자명 , 발송자 이메일 , 수신거부 링크</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8958,7 +9110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9076,17 +9228,32 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9097,32 +9264,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -9130,7 +9285,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10157,7 +10318,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
@@ -10168,7 +10329,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="39"/>
+      <c r="B4" s="44"/>
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -10177,7 +10338,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="39"/>
+      <c r="B5" s="44"/>
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -10186,7 +10347,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B6" s="39"/>
+      <c r="B6" s="44"/>
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -10195,7 +10356,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="39"/>
+      <c r="B7" s="44"/>
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -10224,7 +10385,7 @@
     </row>
     <row r="10" spans="2:5" ht="386.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -10272,96 +10433,96 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="191.4" x14ac:dyDescent="0.4">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="46" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B4" s="41"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B5" s="41"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B6" s="41"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B7" s="41"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="30" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B8" s="41"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="30" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="41"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="6" t="s">
         <v>105</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="46" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="30" t="s">
@@ -10374,11 +10535,11 @@
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="41"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="30" t="s">
         <v>28</v>
       </c>
@@ -10389,11 +10550,11 @@
         <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="41"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="30" t="s">
         <v>29</v>
       </c>
@@ -10404,22 +10565,22 @@
         <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="41"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="30" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="6"/>
       <c r="F13" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="41"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="30" t="s">
         <v>24</v>
       </c>
@@ -10428,11 +10589,11 @@
       </c>
       <c r="E14" s="6"/>
       <c r="F14" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B15" s="41"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="30" t="s">
         <v>31</v>
       </c>
@@ -10440,26 +10601,26 @@
         <v>33</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F15" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="45" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="42"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="6" t="s">
         <v>44</v>
       </c>
@@ -10469,22 +10630,22 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="42"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19" s="45"/>
+      <c r="C19" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>347</v>
-      </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B19" s="42"/>
-      <c r="C19" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>349</v>
       </c>
       <c r="E19" s="6"/>
     </row>
@@ -10501,21 +10662,21 @@
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="2:6" ht="313.2" x14ac:dyDescent="0.4">
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="46" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B22" s="41"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="6" t="s">
         <v>49</v>
       </c>
@@ -10523,64 +10684,64 @@
         <v>50</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B23" s="41"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="30" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B24" s="41"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B25" s="41"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="30" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B26" s="41"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B27" s="41"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="6" t="s">
         <v>47</v>
       </c>
@@ -10590,7 +10751,7 @@
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B28" s="41"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="6" t="s">
         <v>54</v>
       </c>
@@ -10600,7 +10761,7 @@
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="2:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="46" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -10610,23 +10771,23 @@
         <v>58</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B30" s="41"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="46" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="30" t="s">
@@ -10637,11 +10798,11 @@
       </c>
       <c r="E31" s="6"/>
       <c r="F31" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B32" s="41"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="6" t="s">
         <v>62</v>
       </c>
@@ -10651,7 +10812,7 @@
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B33" s="41"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="6" t="s">
         <v>65</v>
       </c>
@@ -10661,22 +10822,22 @@
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="46" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="30" t="s">
         <v>68</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B35" s="41"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="30" t="s">
         <v>69</v>
       </c>
@@ -10685,26 +10846,26 @@
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B36" s="41"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="30" t="s">
         <v>70</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="45" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="30" t="s">
@@ -10715,11 +10876,11 @@
       </c>
       <c r="E37" s="6"/>
       <c r="F37" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B38" s="42"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="30" t="s">
         <v>73</v>
       </c>
@@ -10728,7 +10889,7 @@
       </c>
       <c r="E38" s="6"/>
       <c r="F38" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
@@ -10737,22 +10898,22 @@
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B40" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E40" s="6"/>
     </row>
@@ -10766,23 +10927,23 @@
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="46" t="s">
         <v>26</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B43" s="41"/>
+      <c r="B43" s="46"/>
       <c r="C43" s="6" t="s">
         <v>82</v>
       </c>
@@ -10792,37 +10953,37 @@
       <c r="E43" s="6"/>
     </row>
     <row r="44" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B44" s="41"/>
+      <c r="B44" s="46"/>
       <c r="C44" s="30" t="s">
         <v>81</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B45" s="41"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="30" t="s">
         <v>83</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>84</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B46" s="41"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="6" t="s">
         <v>85</v>
       </c>
@@ -10830,28 +10991,28 @@
         <v>106</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B48" s="45"/>
+      <c r="C48" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B48" s="42"/>
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="E48" s="6"/>
     </row>
@@ -10876,142 +11037,142 @@
         <v>90</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="46" t="s">
         <v>91</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>92</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="E51" s="40" t="s">
-        <v>436</v>
+        <v>413</v>
+      </c>
+      <c r="E51" s="47" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B52" s="41"/>
+      <c r="B52" s="46"/>
       <c r="C52" s="6" t="s">
         <v>93</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="E52" s="40"/>
+        <v>414</v>
+      </c>
+      <c r="E52" s="47"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B53" s="41"/>
+      <c r="B53" s="46"/>
       <c r="C53" s="6" t="s">
         <v>94</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="E53" s="40"/>
+        <v>415</v>
+      </c>
+      <c r="E53" s="47"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B54" s="41"/>
+      <c r="B54" s="46"/>
       <c r="C54" s="6" t="s">
         <v>95</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="E54" s="40"/>
+        <v>416</v>
+      </c>
+      <c r="E54" s="47"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B55" s="41"/>
+      <c r="B55" s="46"/>
       <c r="C55" s="6" t="s">
         <v>96</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E55" s="40" t="s">
-        <v>435</v>
+      <c r="E55" s="47" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B56" s="41"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="6" t="s">
         <v>99</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E56" s="40"/>
+      <c r="E56" s="47"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B57" s="41"/>
+      <c r="B57" s="46"/>
       <c r="C57" s="6" t="s">
         <v>101</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E57" s="40"/>
+      <c r="E57" s="47"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B58" s="41"/>
+      <c r="B58" s="46"/>
       <c r="C58" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E58" s="40"/>
+      <c r="E58" s="47"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B59" s="41"/>
+      <c r="B59" s="46"/>
       <c r="C59" s="6" t="s">
         <v>104</v>
       </c>
       <c r="D59" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E59" s="47"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B60" s="46"/>
+      <c r="C60" s="30" t="s">
         <v>429</v>
       </c>
-      <c r="E59" s="40"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B60" s="41"/>
-      <c r="C60" s="30" t="s">
+      <c r="D60" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="E60" s="47"/>
+      <c r="F60" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B61" s="46" t="s">
         <v>433</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="C61" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B62" s="46"/>
+      <c r="C62" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="E60" s="40"/>
-      <c r="F60" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B61" s="41" t="s">
+      <c r="D62" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="E61" s="31" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B62" s="41"/>
-      <c r="C62" s="6" t="s">
+      <c r="E62" s="19" t="s">
         <v>438</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
@@ -11019,27 +11180,27 @@
         <v>107</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B64" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="C64" s="11" t="s">
-        <v>431</v>
-      </c>
       <c r="D64" s="29" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
@@ -11050,13 +11211,13 @@
         <v>108</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
@@ -11067,84 +11228,84 @@
         <v>109</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B67" s="41" t="s">
+      <c r="B67" s="46" t="s">
         <v>110</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="191.4" x14ac:dyDescent="0.4">
-      <c r="B68" s="41"/>
+      <c r="B68" s="46"/>
       <c r="C68" s="6" t="s">
         <v>111</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E68" s="7"/>
     </row>
     <row r="69" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="45" t="s">
         <v>112</v>
       </c>
       <c r="C69" s="30" t="s">
         <v>113</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F69" s="33" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B70" s="42"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E70" s="6"/>
     </row>
     <row r="71" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B71" s="42"/>
+      <c r="B71" s="45"/>
       <c r="C71" s="30" t="s">
         <v>115</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>116</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B72" s="42"/>
+      <c r="B72" s="45"/>
       <c r="C72" s="6" t="s">
         <v>117</v>
       </c>
@@ -11154,106 +11315,106 @@
       <c r="E72" s="6"/>
     </row>
     <row r="73" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B73" s="42"/>
+      <c r="B73" s="45"/>
       <c r="C73" s="30" t="s">
         <v>119</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B74" s="42"/>
+      <c r="B74" s="45"/>
       <c r="C74" s="6" t="s">
         <v>121</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E74" s="6"/>
     </row>
     <row r="75" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B75" s="42"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="30" t="s">
         <v>124</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B76" s="42"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="6" t="s">
         <v>123</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="178.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="42"/>
+      <c r="B77" s="45"/>
       <c r="C77" s="6" t="s">
         <v>122</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E77" s="6"/>
     </row>
     <row r="78" spans="2:6" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B78" s="42"/>
+      <c r="B78" s="45"/>
       <c r="C78" s="30" t="s">
         <v>125</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B79" s="41" t="s">
-        <v>408</v>
+      <c r="B79" s="46" t="s">
+        <v>404</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E79" s="6"/>
     </row>
     <row r="80" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B80" s="41"/>
+      <c r="B80" s="46"/>
       <c r="C80" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E80" s="13"/>
     </row>
     <row r="81" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B81" s="41"/>
+      <c r="B81" s="46"/>
       <c r="C81" s="6" t="s">
         <v>126</v>
       </c>
@@ -11261,148 +11422,143 @@
         <v>127</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="83" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B83" s="41" t="s">
+      <c r="B83" s="46" t="s">
         <v>128</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>129</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E83" s="6"/>
     </row>
     <row r="84" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B84" s="41"/>
+      <c r="B84" s="46"/>
       <c r="C84" s="6" t="s">
         <v>130</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="85" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B85" s="41"/>
+      <c r="B85" s="46"/>
       <c r="C85" s="32" t="s">
         <v>131</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="86" spans="2:6" ht="261" x14ac:dyDescent="0.4">
-      <c r="B86" s="41"/>
+      <c r="B86" s="46"/>
       <c r="C86" s="6" t="s">
         <v>132</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="87" spans="2:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B87" s="41"/>
+      <c r="B87" s="46"/>
       <c r="C87" s="30" t="s">
         <v>133</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E87" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F87" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B88" s="46"/>
+      <c r="C88" s="30" t="s">
         <v>397</v>
       </c>
-      <c r="F87" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B88" s="41"/>
-      <c r="C88" s="30" t="s">
-        <v>401</v>
-      </c>
       <c r="D88" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B89" s="46"/>
+      <c r="C89" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="E88" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B89" s="41"/>
-      <c r="C89" s="6" t="s">
-        <v>402</v>
-      </c>
       <c r="D89" s="15" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="90" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B90" s="41"/>
+      <c r="B90" s="46"/>
       <c r="C90" s="30" t="s">
         <v>134</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E90" s="28" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F90" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="91" spans="2:6" ht="174" x14ac:dyDescent="0.4">
-      <c r="B91" s="41"/>
+      <c r="B91" s="46"/>
       <c r="C91" s="30" t="s">
         <v>135</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B92" s="41"/>
+      <c r="B92" s="46"/>
       <c r="C92" s="6" t="s">
         <v>136</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="E55:E60"/>
-    <mergeCell ref="B61:B62"/>
     <mergeCell ref="B83:B92"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="B51:B60"/>
@@ -11416,6 +11572,11 @@
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="B21:B28"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="E55:E60"/>
+    <mergeCell ref="B61:B62"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11442,8 +11603,8 @@
   </sheetPr>
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -11478,7 +11639,7 @@
         <v>137</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="228" customHeight="1" x14ac:dyDescent="0.4">
@@ -11490,42 +11651,42 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="46" t="s">
         <v>139</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>139</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>389</v>
+        <v>681</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B6" s="41"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="35" t="s">
         <v>140</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B7" s="41"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -11537,7 +11698,7 @@
         <v>141</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -11557,64 +11718,64 @@
         <v>144</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="330.6" x14ac:dyDescent="0.4">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="48" t="s">
         <v>145</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>145</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B12" s="44"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="6" t="s">
         <v>145</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B13" s="44"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B14" s="49"/>
+      <c r="C14" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B14" s="44"/>
-      <c r="C14" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>297</v>
-      </c>
     </row>
     <row r="15" spans="2:5" ht="288" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="45"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="6" t="s">
         <v>156</v>
       </c>
@@ -11627,22 +11788,22 @@
         <v>148</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="226.2" x14ac:dyDescent="0.4">
       <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>497</v>
+      <c r="C17" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.4">
@@ -11661,22 +11822,22 @@
         <v>151</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B20" s="7"/>
       <c r="C20" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>378</v>
+        <v>682</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
@@ -11685,10 +11846,10 @@
         <v>146</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
@@ -11697,10 +11858,10 @@
         <v>147</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -11709,20 +11870,20 @@
         <v>152</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
@@ -11738,7 +11899,7 @@
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="7" t="s">
-        <v>302</v>
+        <v>683</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="191.4" x14ac:dyDescent="0.4">
@@ -11747,22 +11908,22 @@
         <v>155</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="156.6" x14ac:dyDescent="0.4">
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>300</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -11771,10 +11932,10 @@
         <v>157</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
@@ -11783,7 +11944,7 @@
         <v>158</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E31" s="6"/>
     </row>
@@ -11816,8 +11977,8 @@
   </sheetPr>
   <dimension ref="B1:F83"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -11831,7 +11992,7 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B1" s="37" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
@@ -11849,181 +12010,181 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B3" s="47" t="s">
-        <v>499</v>
+      <c r="B3" s="51" t="s">
+        <v>495</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>161</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>501</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B4" s="48"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="182.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="49"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>504</v>
+        <v>498</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>499</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="330" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="51" t="s">
         <v>163</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>164</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B7" s="49"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="51" t="s">
+        <v>504</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B9" s="54"/>
+      <c r="C9" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="E9" s="24" t="s">
         <v>510</v>
       </c>
-      <c r="D8" s="15" t="s">
+    </row>
+    <row r="10" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B10" s="54"/>
+      <c r="C10" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="D10" s="7" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B9" s="48"/>
-      <c r="C9" s="6" t="s">
+      <c r="E10" s="40" t="s">
         <v>513</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B10" s="48"/>
-      <c r="C10" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>518</v>
-      </c>
     </row>
     <row r="11" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B11" s="48"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:5" ht="174" x14ac:dyDescent="0.4">
-      <c r="B12" s="48"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="6" t="s">
         <v>166</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B13" s="48"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="6" t="s">
         <v>167</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B14" s="49"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="6" t="s">
         <v>169</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B15" s="42" t="s">
-        <v>525</v>
+      <c r="B15" s="45" t="s">
+        <v>520</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>170</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B16" s="42"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="28" t="s">
         <v>171</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="42"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="28" t="s">
         <v>172</v>
       </c>
@@ -12033,107 +12194,107 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B18" s="42"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="28" t="s">
         <v>174</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B19" s="42"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="28" t="s">
         <v>175</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B20" s="42"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="28" t="s">
         <v>176</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B21" s="42"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="28" t="s">
         <v>177</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B22" s="42"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="28" t="s">
         <v>178</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="2:5" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="51" t="s">
         <v>179</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>180</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B24" s="49"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B25" s="42" t="s">
-        <v>530</v>
+      <c r="B25" s="45" t="s">
+        <v>525</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>181</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B26" s="42"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="6" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>184</v>
+        <v>685</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="42"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="6" t="s">
         <v>167</v>
       </c>
@@ -12144,684 +12305,690 @@
     </row>
     <row r="28" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B28" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>180</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B29" s="42" t="s">
-        <v>536</v>
+      <c r="B29" s="45" t="s">
+        <v>531</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B30" s="45"/>
+      <c r="C30" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="42"/>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B31" s="45"/>
+      <c r="C31" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="42"/>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B32" s="14" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>180</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B33" s="14" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>180</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34" s="37" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="117" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="261" x14ac:dyDescent="0.4">
+      <c r="B36" s="52"/>
+      <c r="C36" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="261" x14ac:dyDescent="0.4">
-      <c r="B36" s="49"/>
-      <c r="C36" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>545</v>
+      <c r="D36" s="58" t="s">
+        <v>539</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="93" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="14" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>164</v>
       </c>
       <c r="D37" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B38" s="45" t="s">
+        <v>544</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B39" s="45"/>
+      <c r="C39" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B40" s="45"/>
+      <c r="C40" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="41" t="s">
         <v>547</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B38" s="42" t="s">
-        <v>549</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="42"/>
-      <c r="C39" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B40" s="42"/>
-      <c r="C40" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>552</v>
       </c>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B41" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>203</v>
-      </c>
       <c r="D41" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B42" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>206</v>
-      </c>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B43" s="46" t="s">
-        <v>211</v>
+      <c r="B43" s="53" t="s">
+        <v>210</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B44" s="46"/>
+      <c r="B44" s="53"/>
       <c r="C44" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B45" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>561</v>
+        <v>686</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="191.4" x14ac:dyDescent="0.4">
       <c r="B46" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="2:5" ht="191.4" x14ac:dyDescent="0.4">
       <c r="B47" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B48" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>566</v>
+        <v>559</v>
+      </c>
+      <c r="E48" s="59" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B49" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B50" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B51" s="14" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B52" s="37" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D52" s="20"/>
     </row>
     <row r="53" spans="2:6" ht="243.6" x14ac:dyDescent="0.4">
       <c r="B53" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="E53" s="60" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="226.2" x14ac:dyDescent="0.4">
+      <c r="B54" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="226.2" x14ac:dyDescent="0.4">
-      <c r="B54" s="42" t="s">
-        <v>214</v>
-      </c>
       <c r="C54" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="174" x14ac:dyDescent="0.4">
-      <c r="B55" s="42"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B56" s="45"/>
+      <c r="C56" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B56" s="42"/>
-      <c r="C56" s="6" t="s">
+      <c r="D56" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B57" s="45"/>
+      <c r="C57" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E56" s="6"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B57" s="42"/>
-      <c r="C57" s="6" t="s">
+      <c r="D57" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B58" s="45"/>
+      <c r="C58" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B58" s="42"/>
-      <c r="C58" s="6" t="s">
-        <v>224</v>
-      </c>
       <c r="D58" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B59" s="42"/>
+      <c r="B59" s="45"/>
       <c r="C59" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B60" s="45"/>
+      <c r="C60" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B60" s="42"/>
-      <c r="C60" s="6" t="s">
-        <v>226</v>
-      </c>
       <c r="D60" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B62" s="45"/>
+      <c r="C62" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B62" s="42"/>
-      <c r="C62" s="6" t="s">
+      <c r="D62" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B63" s="23" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B64" s="47" t="s">
+      <c r="B64" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B65" s="52"/>
+      <c r="C65" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="E64" s="6"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B65" s="49"/>
-      <c r="C65" s="6" t="s">
+      <c r="D65" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>229</v>
       </c>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="2:6" ht="226.2" x14ac:dyDescent="0.4">
       <c r="B66" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F66" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="B67" s="23" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="87" x14ac:dyDescent="0.4">
       <c r="B68" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B69" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B70" s="37" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="25"/>
     </row>
     <row r="71" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B72" s="45"/>
+      <c r="C72" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="E72" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B73" s="45"/>
+      <c r="C73" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B74" s="45"/>
+      <c r="C74" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="330.6" x14ac:dyDescent="0.4">
+      <c r="B75" s="45"/>
+      <c r="C75" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D71" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B72" s="42"/>
-      <c r="C72" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E72" s="6" t="s">
+      <c r="D75" s="6" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="73" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B73" s="42"/>
-      <c r="C73" s="6" t="s">
+      <c r="E75" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="D73" s="6" t="s">
+    </row>
+    <row r="76" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B76" s="45"/>
+      <c r="C76" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E76" s="12" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B74" s="42"/>
-      <c r="C74" s="6" t="s">
+    <row r="77" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B77" s="45"/>
+      <c r="C77" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="B78" s="45"/>
+      <c r="C78" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="2:6" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="B79" s="45"/>
+      <c r="C79" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" ht="330.6" x14ac:dyDescent="0.4">
-      <c r="B75" s="42"/>
-      <c r="C75" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D75" s="6" t="s">
+      <c r="D79" s="35" t="s">
         <v>607</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E79" s="34" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B76" s="42"/>
-      <c r="C76" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D76" s="7" t="s">
+    <row r="80" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B80" s="45"/>
+      <c r="C80" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E80" s="6" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B77" s="42"/>
-      <c r="C77" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B78" s="42"/>
-      <c r="C78" s="6" t="s">
+    <row r="81" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B81" s="45"/>
+      <c r="C81" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="E81" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="E78" s="6"/>
-    </row>
-    <row r="79" spans="2:6" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B79" s="42"/>
-      <c r="C79" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D79" s="35" t="s">
+    </row>
+    <row r="82" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B82" s="45"/>
+      <c r="C82" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="E79" s="34" t="s">
+      <c r="D82" s="7" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="80" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B80" s="42"/>
-      <c r="C80" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D80" s="7" t="s">
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="2:5" ht="174" x14ac:dyDescent="0.4">
+      <c r="B83" s="45"/>
+      <c r="C83" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="D83" s="7" t="s">
         <v>616</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B81" s="42"/>
-      <c r="C81" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B82" s="42"/>
-      <c r="C82" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="E82" s="7"/>
-    </row>
-    <row r="83" spans="2:5" ht="174" x14ac:dyDescent="0.4">
-      <c r="B83" s="42"/>
-      <c r="C83" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>622</v>
       </c>
       <c r="E83" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="B71:B83"/>
     <mergeCell ref="B29:B31"/>
@@ -12830,12 +12997,6 @@
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B54:B60"/>
     <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12851,8 +13012,8 @@
   </sheetPr>
   <dimension ref="B2:E46"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12879,479 +13040,479 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="394.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="55"/>
+      <c r="C4" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="278.39999999999998" x14ac:dyDescent="0.4">
+      <c r="B5" s="55"/>
+      <c r="C5" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="191.4" x14ac:dyDescent="0.4">
+      <c r="B6" s="55"/>
+      <c r="C6" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="E6" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="E3" s="7" t="s">
+    </row>
+    <row r="7" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B7" s="55"/>
+      <c r="C7" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="394.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="53"/>
-      <c r="C4" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="D4" s="15" t="s">
+    </row>
+    <row r="8" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B8" s="55"/>
+      <c r="C8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="278.39999999999998" x14ac:dyDescent="0.4">
-      <c r="B5" s="53"/>
-      <c r="C5" s="6" t="s">
+    <row r="9" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B9" s="55"/>
+      <c r="C9" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="B10" s="55" t="s">
+        <v>631</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="191.4" x14ac:dyDescent="0.4">
-      <c r="B6" s="53"/>
-      <c r="C6" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B7" s="53"/>
-      <c r="C7" s="7" t="s">
+      <c r="E10" s="15" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="226.2" x14ac:dyDescent="0.4">
+      <c r="B11" s="55"/>
+      <c r="C11" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="87" x14ac:dyDescent="0.4">
+      <c r="B12" s="55"/>
+      <c r="C12" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="177" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="55"/>
+      <c r="C13" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>637</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B14" s="55"/>
+      <c r="C14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="87" x14ac:dyDescent="0.4">
+      <c r="B15" s="55"/>
+      <c r="C15" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B16" s="55"/>
+      <c r="C16" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="87" x14ac:dyDescent="0.4">
+      <c r="B17" s="55"/>
+      <c r="C17" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="2:5" ht="174" x14ac:dyDescent="0.4">
+      <c r="B18" s="55"/>
+      <c r="C18" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19" s="55"/>
+      <c r="C19" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="2:5" ht="191.4" x14ac:dyDescent="0.4">
+      <c r="B20" s="55"/>
+      <c r="C20" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B21" s="55"/>
+      <c r="C21" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B8" s="53"/>
-      <c r="C8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="53"/>
-      <c r="C9" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B10" s="53" t="s">
-        <v>639</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="226.2" x14ac:dyDescent="0.4">
-      <c r="B11" s="53"/>
-      <c r="C11" s="24" t="s">
+      <c r="D21" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="87" x14ac:dyDescent="0.4">
+      <c r="B22" s="55"/>
+      <c r="C22" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B23" s="55"/>
+      <c r="C23" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B24" s="55"/>
+      <c r="C24" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B25" s="55"/>
+      <c r="C25" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B26" s="55"/>
+      <c r="C26" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B27" s="55"/>
+      <c r="C27" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="87" x14ac:dyDescent="0.4">
+      <c r="B28" s="55"/>
+      <c r="C28" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>642</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B12" s="53"/>
-      <c r="C12" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="177" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="53"/>
-      <c r="C13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>645</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B14" s="53"/>
-      <c r="C14" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B15" s="53"/>
-      <c r="C15" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B16" s="53"/>
-      <c r="C16" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B17" s="53"/>
-      <c r="C17" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="2:5" ht="174" x14ac:dyDescent="0.4">
-      <c r="B18" s="53"/>
-      <c r="C18" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="53"/>
-      <c r="C19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="2:5" ht="191.4" x14ac:dyDescent="0.4">
-      <c r="B20" s="53"/>
-      <c r="C20" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B21" s="53"/>
-      <c r="C21" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B22" s="53"/>
-      <c r="C22" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B23" s="53"/>
-      <c r="C23" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B24" s="53"/>
-      <c r="C24" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B25" s="53"/>
-      <c r="C25" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B29" s="55"/>
+      <c r="C29" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B26" s="53"/>
-      <c r="C26" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="2:5" ht="136.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="55"/>
+      <c r="C30" s="7" t="s">
         <v>670</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B27" s="53"/>
-      <c r="C27" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B28" s="53"/>
-      <c r="C28" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B29" s="53"/>
-      <c r="C29" s="7" t="s">
-        <v>676</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="2:5" ht="136.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="53"/>
-      <c r="C30" s="7" t="s">
-        <v>678</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="7" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B32" s="41" t="s">
-        <v>262</v>
+      <c r="B32" s="46" t="s">
+        <v>261</v>
       </c>
       <c r="C32" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B33" s="46"/>
+      <c r="C33" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D32" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B33" s="41"/>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B34" s="46"/>
+      <c r="C34" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B34" s="41"/>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B35" s="46"/>
+      <c r="C35" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="E34" s="57" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="41"/>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="2:5" ht="330.6" x14ac:dyDescent="0.4">
+      <c r="B36" s="46"/>
+      <c r="C36" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="2:5" ht="330.6" x14ac:dyDescent="0.4">
-      <c r="B36" s="41"/>
-      <c r="C36" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>273</v>
-      </c>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B37" s="41"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="7" t="s">
         <v>107</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B40" s="56" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="55" t="s">
+      <c r="C40" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="D40" s="7" t="s">
+      <c r="E40" s="57" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B41" s="56"/>
+      <c r="C41" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="E40" s="56" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B41" s="55"/>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="E41" s="47"/>
+    </row>
+    <row r="42" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B42" s="56"/>
+      <c r="C42" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="E41" s="40"/>
-    </row>
-    <row r="42" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B42" s="55"/>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="E42" s="47"/>
+    </row>
+    <row r="43" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B43" s="56"/>
+      <c r="C43" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="D42" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="E42" s="40"/>
-    </row>
-    <row r="43" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B43" s="55"/>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="E43" s="47"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B44" s="56"/>
+      <c r="C44" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D43" s="15" t="s">
-        <v>685</v>
-      </c>
-      <c r="E43" s="40"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B44" s="55"/>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="E44" s="47"/>
+    </row>
+    <row r="45" spans="2:5" ht="87" x14ac:dyDescent="0.4">
+      <c r="B45" s="56"/>
+      <c r="C45" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="E44" s="40"/>
-    </row>
-    <row r="45" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B45" s="55"/>
-      <c r="C45" s="6" t="s">
-        <v>283</v>
-      </c>
       <c r="D45" s="12" t="s">
-        <v>686</v>
-      </c>
-      <c r="E45" s="40"/>
+        <v>678</v>
+      </c>
+      <c r="E45" s="47"/>
     </row>
     <row r="46" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B46" s="55"/>
+      <c r="B46" s="56"/>
       <c r="C46" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/NCE/네이버클라우드/00.요약본/NCE_추가정리.xlsx
+++ b/NCE/네이버클라우드/00.요약본/NCE_추가정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repository\NCE\네이버클라우드\00.요약본\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585D2448-7011-44D2-97E7-3CF26890BAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1CD92D-2D03-4FAD-91D1-0234EA9B4B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35085" yWindow="-3075" windowWidth="24810" windowHeight="20445" activeTab="4" xr2:uid="{F59860EA-48BE-4768-90E0-72E89FFE37D2}"/>
+    <workbookView xWindow="36255" yWindow="-3105" windowWidth="25410" windowHeight="19920" firstSheet="2" activeTab="2" xr2:uid="{F59860EA-48BE-4768-90E0-72E89FFE37D2}"/>
   </bookViews>
   <sheets>
     <sheet name="OverView" sheetId="1" r:id="rId1"/>
@@ -1354,10 +1354,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>사전에 빌드할 소스코드가 올라가 있는 SourceCommit과, 빌드 결과물을 저장할 Object Storage 를 먼저 생성해야함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SourceDeploy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2287,41 +2283,6 @@
   <si>
     <t>VGW생성후 Route Table에 통신을 원하는 Subnet간에 Routes 설정을 등록해야함.
 Routes설정시 Target 을 VGW로 설정 (Target Type : VGW, Target : vgw id)해야 함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Object storage에 저장된 원본 영상을 Mobile/PC 등 여러 Device에서 다양한 화질로 시청할 수 있도록 변환하는 서비스 (인코딩, CDN 설정, 송출 URL 생성의 VOD 관련 프로세스 일원화)
-Object storage 연동 : 영상은 Object Storage에 업로드 해야함(용량제한 없음)
-- 비디오 인코딩 작업 진행하면서 Thumbnail 추출 가능
-- 최적의 CDN을 자동으로 설정하여 제공
-- 세그먼트 길이는 5, 10, 15, 20초
-자막 input format : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>vtt, srit, dfxp, ttml, cap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-자막 Output format : vtt</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5656,79 +5617,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>서브 계정에 대한 일시 정지 기능도 가능
-System managed: 사용자 편의를 위해 몇 가지 상품에 대해 Change/View 권한을 미리 정의해두고 제공하는 정책
-Usercreated: 계정 사용자가 임의로 생성한 정책</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>WMS
 (Web service Monitoring System)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">간단히 URL 등록만으로 시작되는 웹사이트 모니터링서비스 (의미중요)
-시나리오 기반 모니터링 수행
-모니터링 수행주기는 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>분단위 (1분, 5분, 10분)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>한국, 미국(서부), 일본, 홍콩, 싱가폴, 독일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">에서도 측정이 가능 (중요)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실시간대응 : 최대 1분</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -7840,6 +7730,1012 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>음성을 텍스트로 변환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 국내에서 가장 높은 한국어 인식률
+- Android 및 iOS SDK 제공
+- Rest API 제공
+- 초단위에 따른 비용부담이 있음</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">가능 파일종류 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mp3, aac, ac3, ogg, flac, wav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제공 언어 : 한국어, 영어, 일어, 중국어(간체)
+인식 가능 시간 : 60초 (문의하여 상향 가능)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정형화되지 않은 말소리를 인식하여 텍스트로 바꿔주는 음성인식 서비스
+- 음성메모, 영상자막생성, 통화 녹취록관리등의 서비스에 활용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">결과 파일 포맷 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> json, smi, csv, xls, srt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+최대 2시간 인식이 가능하며 인식 파일크기는 최대 2GB
+인식 결과 수정을 위한 Speech 빌더 제공 (API 기반 인식 도 제공)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 입력 문장이용 다양한 미디어 파일에 음성을 더빙
+- Standard / Premium서비스 플랜을 사용할 경우에는 출처 표기를 하지 않아도 됩니다.
+- 개인/비영리 목적으로는 YouTube와 같은 온라인 채녈 뿐 아니라, 무료 교육채널에도 게시 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 다운로드 파일 형태
+· 영상 파일: 더빙이 동영상에 더해져 1개의 파일로 저장
+· 음원 파일: 더빙과 효과음이 합쳐져 1개의 파일로 저장
+· 개별 더빙 파일: 파일 각각의 보이스 합성음이 개별 파일로 저장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLOVA Voice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트를 사람의 음성에 가까운 자연스러운 음성으로 변환
+실시간 음성 생성 가능한 Neural Vocoder를 사용하여 고품질 합성음 제공
+텍스트 입력을 RESTfull API 방식으로 전달 하면 mp3 포맷의 스트림 데이터나 파일로 리턴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1회 호출시 요청 가능한 글자수는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+총 100가지 음성 합성음 제공</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력된 비전데이터를 통해 얼굴을 인식하고 관련된 다양한 정보를 제공하는 서비스
+AI 기술인 머신 러닝을 사용하여 지속적으로 학습
+RESTful 형태로 API 제공, 고객의 서비스에 얼굴 인식 및 얼굴 감지 기능을 간단히 적용 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제공 서비스 : 1. 유명인 얼굴인식, 2. 얼굴 감지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLOVA Face Sign</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴 사진을 기반으로, 다수의 인물 중 특정 인물을 식별하여 본인 인증을 수행
+- 0.3초 내에 99.99% 정확도로 사용자 식별
+- 얼굴인식을 위한 APP/사용자등록을 위한 WEB/사용자관리를 위한 admin 화면 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">지정된 템플릿에 맞추어 데이터를 추출하고 데이터베이스화
+OCR 연동
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eKYC 연동 (2차 인증)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 신분증 진위 확인
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>API Gateway 연동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 서비스 처리 수준 향상을 위해 반드시 연동 사용
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLOVA Chatbot 연동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 멀티미디어 인텐트 사용
+OCR 기술 : 문자탐지(Text Detection) &amp; 문자인식(Text Recognition) 구성</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* OCR process
+1. 템플릿지정(Classify)
+2. 전처리(Pre-process) : Image Normalization, Template title detection, Template title Text recognition
+3. 영역검출(Area Detection)
+4. 글자인식(Text Recognition)
+5. 결과출력(Test/Output)
+제공 언어 : 한국어, 영어, 일본어
+필기체 인식 언어 : 한국어, 일본어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버가 자체적으로 개발한 인공신경망 기반의 기계번역 기술인 NMT를 이용한 번역서비스
+- 통계 기반 번역
+- Papago NMT(Neural Machine Translation) 기술 이용
+- 학습을 통해 성능이 높아짐
+- 다음 Rest API 제공
+텍스트 번역 API
+문서 번역 API - hwp, doc 파일 변환 (한국어 &lt;-&gt; 영어)
+웹 번역 API - HTML 페이지 변환 (한국어 &lt;-&gt; 영어)
+언어 감지 API - 번역할 언어 자동 감지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어, 중국어, 일어, 영어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR, HTS, NMT, Text Editing등 파파고의 AI 기술이 집약된 최고 품질의 이미지 번역 API
+* 사용예
+안내표지판(중국어-&gt;한국어)
+의약품정보(영어-&gt;한국어)
+영수증(영어-&gt;한국어)
+제품정보집(한국어-&gt;영어) 등등</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTS(Hierarchical Text Structuring) 기술 이용 OCR에 비해 더욱 자연스러운 번역 결과 제공
+한국어, 중국어, 일어, 영어, 베트남어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이미지 속의 사람(객체)을 감지하여 눈, 코, 어깨, 무릎 등 주요 신체부위 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">개의 좌표를 제공
+RESTful API 방식 제공
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이미지는 2MB 이하로 제한</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용예 : 스포츠선수들의 동작이미지 분석등, 골프스윙동작 분석등</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이미지 내의 객체를 탐지하고 객체를 분석
+RESTful API 방식 제공
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이미지는 2MB 이하로 제한</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제공 정보 : 객체의 이름, 바운딩 박스, 탐지 정확률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문장에서 긍정, 부정, 중립의 감정을 판단하는 서비스
+- Naver 빅데이터와 형태소 분석기를 이용하여 한국어 문장 분석
+- 문장분리 -&gt; 감정 분석(패턴기반 감정분석, 범용 감정분석기) -&gt; 감정 분석 결과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼핑몰 운영 등에서 악성 댓글 파악 하고자 할떄 활용 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문장을 분석하여 핵심을 요약하는 서비스
+NLP(Natural Language Processing, 자연어처리) 기술 적용으로 별도 학습 없이 사용 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가능 언어 : 한국어, 일어
+네이버 뉴스등에서 실제 사용
+요약 결과에 대한 반말/존대말 선택 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dataset 구성 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User(사용자)정보, Item(항목)정보, Interaction(상호작용)정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+서비스가 필요할 때 사용하고, 사용한 만큼만 비용을 지불
+하이퍼파라미터 HPO설정을 통해 여러 옵션을 저정함으로써 예측 정확도를 향상시켜 최적의 머신러닝 모델을 구현</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLOVA AiCall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI 기능을 기반으로 고객센터를 구축하고 운영할 수 있는 서비스
+구성 Solution : CLOVA Speech + CLOVA Chatbot + CLOVA Voice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용예 : 성남시 클로바 케어콜서비스 (코로나19 능동감시 대상자에게 하루에 2번씩 AI 상담사가 자동으로 전화를 걸어 상담하고 발열, 호흡기 증상등을 확인)
+E2E(Ear-to-Eye) : 고객 커뮤니케이션 채널이 기존의 음성 기반 서비스(Auditory Interface)에서 진화하여 웹페이지 기반의 시각적 서비스(Web-based Visual IVR)를 함께 제공하는 과정 및 결과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분산 서비스 및 시스템의 성능 분석/진단/추적 플랫폼 서비스
+- 'N' 계층의 SOA(Service Oriented Architecture) 및 Micro-Service로 구성된 아키텍처 서비스의 추적 및 분석 기능을 제공
+- 분산 애플리케이션의 트랜잭션 분석, Topology Detection, Bytecode Instrumentation을 활용한 진단 기능을 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI / Naver API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* Application 등록하기
+ - AI / Naver Service로 개발하려면 먼저 Application을 등록한다.
+ - Application 하나당 유일한 Client ID와 Client Secret값이 생성됨
+ - Client ID와 Client Secret값은 API를 호출할 때 HTTP헤드값에 포함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI 서비스 지원 언어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLOVA Speech Recognition : 한, 중, 일, 영
+CLOVA Summary : 한, 일
+Papago Image Translation : 한, 중, 일, 영, 베
+CLOAV Speech : 한, 일, 영, 숫자 (Keyword Boosting 가능 언어)
+CLOVA OCR : 한, 일, 영 (필기체 : 한, 일)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">레파지토리로 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NAS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 사용함</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배포하고자 하는 타겟 서버에 SourceDeploy용 에이전트가 필수
+배포하고자 하는 소스는 Object Storage 및 SourceBuild 중에서 선택
+사용자별 접근제어 : SubAccount 와 연동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아키텍처 발전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음성인식 이용 계좌 이체 시스템 – CLOVA Speech Recognition, CLOVA Chatbot
+이미지 및 음성인식 번역 시스템 – CLOVA OCR, Papago Translation
+OCR 기술을 활용한 텍스트 자동 입력 시스템 – CLOVA OCR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련내용 의미를 알고 갈것. 시험에 출제됨
+Availability : 가용성
+Scalability : 확장성
+Elasticity : 탄력성
+Automated : 가능한 운영자의 개입없이 워크로드/트래픽 변화에 자동으로 반응 할 수 있도록
+Security : 보안성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lift-and-shift</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Cloud-optimized
+Cloud-native architecture</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IoT 디바이스 전용 데이터 수집 및 처리 플랫폼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- IoT 환경에 최적화된 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MQTT(Message Queueing Telemetry Transport)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 프로토콜을 기반으로 데이터를 안정적으로 전송
+- 인증서를 통해 자격이 증명된 IoT 디바이스만 클라우드와 연결
+- 데이터 전송 구간은 Transport Layer Security(TLS) 방식으로 암호화되어 통신</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DB 설정 가능 이벤트
+- Connection
+- SlowQuery
+- Replication Stop
+- Replication Delay
+- DB Down
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* Backup 이벤트는 없음</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object Storage, Block Storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>host(PC) -  망 연결</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+외부에서 NCP서버 접속시 보안통신이 가능하도록 보안소켓계층 기반의 가상사설망지원 운영체제 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Windows 10/11, MacOS 12.0/13.0 (중요)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(주의) SSL VPN 접속만 하면 ACG 설정 변경없이도 서버에접근이 가능하다. =&gt; 틀림. * 사전에 해당 SSL VPN IP Pool을 허용처리해 두어야 함.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+VPC당 1개의 SSL VPN 생성 가능</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• 트랜스코딩을 통해 여러 화질로 변환 후, 송출
+• 스트림 상태를 볼 수 있는 모니터링 기능 제공
+• Thumbnail Image 추출
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• 타임머신(Time Shift) 기능으로 놓치지 않는 라이브 방송 서비스 구현 가능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• CDN 연동을 통해 안정적인 송출 가능
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• 송출된 영상을 다른 플랫폼으로 중계하는 Re-Stream 기능 제공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• 실시간 DVR(Digital Video Recorder) 기능 제공
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>채널 유지 비용은 발생
+채널이 생성 중인 상태는 '준비'상태로 콘솔에 표기된다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Object stroage 와 CDN연동임
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(주의)Live Station 생성시, CDN을 동시에 생성할 수 없기에 별도로 생성하여 따로 연동해 줘야한다. &gt; 틀림</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DB 백업 주기 : 매일
+백업 유지기간 : Redis - 7일 나머지는 30일
+멀티 존 지원, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>멀티 리전 미지원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ACG는 자동 생성</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(비교) MySQL은 10대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>상세 기능
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Console과 API호출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">을 통해 발생하는 사용자 계정 활동 기록을 저장하여 제공 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(작업 상태는 알지 못한다)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 조회기간 : 최근 1일, 1주, 1개월, 3개월
+- 메인 계정과 서브 계정에 대해 구분 검색
+리소스 작업 이력은 최대 3개월 보관후 삭제된다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GCM : Google Cloud Messaging (Android &amp; iOS 지원)
+FCM : Firebase Cloud Messaging 의 약자로 GCM의 새로운 버전 (다양한 플랫폼 모두 커버)
+APNS : Apple Push Notification Service (Apple 개발자 페이지에서 인증서와 키 설정 후 사용가능)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SMS 발송 비용 : 50건 이하 무료, 그 이상은 건당 9원
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+다양한 문자 전송 메시지 포맷 지원 : SMS(80자 미만), LMS(80자 이상), MMS(멀티미디어포함)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>받는사람 주소는 1000명 (30명씩 순차 발송), 참조 주소는 30명, 숨은 참조 주소는 30명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+파일 업로드를 통한 대량 메일 발송 (최대 100,000개 수신자 주소 입력 가능)
+** 치환 태그
+* 사용자 정의 치환태그
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">${태그명} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>형태
+- 치환값을 사용자가 직접 입력
+- 입력 개수와 태그명에 제한 없음
+- 태그값을 모두 사용자가 입력해야 메일 발송 가능
+- 대량 발송 구분의 모든 유형에서 사용 가능
+* Meta 정보 치환 태그
+- #{태그명} 형태
+- 사전에 정의된 지정된 변수로 수신자명 , 수신자 이메일 , 발송자명 , 발송자 이메일 , 수신거부 링크</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">사전에 빌드할 소스코드가 올라가 있는 SourceCommit과, 빌드 결과물을 저장할 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Object Storage 를 먼저 생성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해야함</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">- 도메인
 - 대화관리 – 질문생성 : </t>
     </r>
@@ -7873,11 +8769,8 @@
 - 테스트 : 수동테스트, 자동테스트, 품질테스트(자동테스트 고급기능)
 - 통합지표 : 다양한 관점의 통계 지표 요약 대시보드 구성
 - 피드백 : 재학습 과정
-- 외부메신저 연동 : LINE, Talk Talk, Facebook, Line Works, Custom, CLOVA Extension (Twitter는 대상 아님)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+- 외부메신저 연동 : LINE, Talk Talk, Facebook, Line Works, Custom, CLOVA Extension </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -7888,7 +8781,22 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>음성을 텍스트로 변환</t>
+      <t>(Twitter는 대상 아님)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10.0.0.0/8,  172.16.0.0/12,  192.168.0.0/16 중에서 선택가능</t>
     </r>
     <r>
       <rPr>
@@ -7900,607 +8808,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- 국내에서 가장 높은 한국어 인식률
-- Android 및 iOS SDK 제공
-- Rest API 제공
-- 초단위에 따른 비용부담이 있음</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">가능 파일종류 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mp3, aac, ac3, ogg, flac, wav</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-제공 언어 : 한국어, 영어, 일어, 중국어(간체)
-인식 가능 시간 : 60초 (문의하여 상향 가능)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정형화되지 않은 말소리를 인식하여 텍스트로 바꿔주는 음성인식 서비스
-- 음성메모, 영상자막생성, 통화 녹취록관리등의 서비스에 활용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">결과 파일 포맷 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> json, smi, csv, xls, srt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-최대 2시간 인식이 가능하며 인식 파일크기는 최대 2GB
-인식 결과 수정을 위한 Speech 빌더 제공 (API 기반 인식 도 제공)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 입력 문장이용 다양한 미디어 파일에 음성을 더빙
-- Standard / Premium서비스 플랜을 사용할 경우에는 출처 표기를 하지 않아도 됩니다.
-- 개인/비영리 목적으로는 YouTube와 같은 온라인 채녈 뿐 아니라, 무료 교육채널에도 게시 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 다운로드 파일 형태
-· 영상 파일: 더빙이 동영상에 더해져 1개의 파일로 저장
-· 음원 파일: 더빙과 효과음이 합쳐져 1개의 파일로 저장
-· 개별 더빙 파일: 파일 각각의 보이스 합성음이 개별 파일로 저장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLOVA Voice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>텍스트를 사람의 음성에 가까운 자연스러운 음성으로 변환
-실시간 음성 생성 가능한 Neural Vocoder를 사용하여 고품질 합성음 제공
-텍스트 입력을 RESTfull API 방식으로 전달 하면 mp3 포맷의 스트림 데이터나 파일로 리턴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1회 호출시 요청 가능한 글자수는 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2000자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-총 100가지 음성 합성음 제공</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력된 비전데이터를 통해 얼굴을 인식하고 관련된 다양한 정보를 제공하는 서비스
-AI 기술인 머신 러닝을 사용하여 지속적으로 학습
-RESTful 형태로 API 제공, 고객의 서비스에 얼굴 인식 및 얼굴 감지 기능을 간단히 적용 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제공 서비스 : 1. 유명인 얼굴인식, 2. 얼굴 감지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLOVA Face Sign</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼굴 사진을 기반으로, 다수의 인물 중 특정 인물을 식별하여 본인 인증을 수행
-- 0.3초 내에 99.99% 정확도로 사용자 식별
-- 얼굴인식을 위한 APP/사용자등록을 위한 WEB/사용자관리를 위한 admin 화면 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">지정된 템플릿에 맞추어 데이터를 추출하고 데이터베이스화
-OCR 연동
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eKYC 연동 (2차 인증)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 신분증 진위 확인
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>API Gateway 연동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 서비스 처리 수준 향상을 위해 반드시 연동 사용
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CLOVA Chatbot 연동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 멀티미디어 인텐트 사용
-OCR 기술 : 문자탐지(Text Detection) &amp; 문자인식(Text Recognition) 구성</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>* OCR process
-1. 템플릿지정(Classify)
-2. 전처리(Pre-process) : Image Normalization, Template title detection, Template title Text recognition
-3. 영역검출(Area Detection)
-4. 글자인식(Text Recognition)
-5. 결과출력(Test/Output)
-제공 언어 : 한국어, 영어, 일본어
-필기체 인식 언어 : 한국어, 일본어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>네이버가 자체적으로 개발한 인공신경망 기반의 기계번역 기술인 NMT를 이용한 번역서비스
-- 통계 기반 번역
-- Papago NMT(Neural Machine Translation) 기술 이용
-- 학습을 통해 성능이 높아짐
-- 다음 Rest API 제공
-텍스트 번역 API
-문서 번역 API - hwp, doc 파일 변환 (한국어 &lt;-&gt; 영어)
-웹 번역 API - HTML 페이지 변환 (한국어 &lt;-&gt; 영어)
-언어 감지 API - 번역할 언어 자동 감지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국어, 중국어, 일어, 영어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OCR, HTS, NMT, Text Editing등 파파고의 AI 기술이 집약된 최고 품질의 이미지 번역 API
-* 사용예
-안내표지판(중국어-&gt;한국어)
-의약품정보(영어-&gt;한국어)
-영수증(영어-&gt;한국어)
-제품정보집(한국어-&gt;영어) 등등</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTS(Hierarchical Text Structuring) 기술 이용 OCR에 비해 더욱 자연스러운 번역 결과 제공
-한국어, 중국어, 일어, 영어, 베트남어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">이미지 속의 사람(객체)을 감지하여 눈, 코, 어깨, 무릎 등 주요 신체부위 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">개의 좌표를 제공
-RESTful API 방식 제공
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이미지는 2MB 이하로 제한</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용예 : 스포츠선수들의 동작이미지 분석등, 골프스윙동작 분석등</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">이미지 내의 객체를 탐지하고 객체를 분석
-RESTful API 방식 제공
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이미지는 2MB 이하로 제한</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제공 정보 : 객체의 이름, 바운딩 박스, 탐지 정확률</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문장에서 긍정, 부정, 중립의 감정을 판단하는 서비스
-- Naver 빅데이터와 형태소 분석기를 이용하여 한국어 문장 분석
-- 문장분리 -&gt; 감정 분석(패턴기반 감정분석, 범용 감정분석기) -&gt; 감정 분석 결과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쇼핑몰 운영 등에서 악성 댓글 파악 하고자 할떄 활용 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문장을 분석하여 핵심을 요약하는 서비스
-NLP(Natural Language Processing, 자연어처리) 기술 적용으로 별도 학습 없이 사용 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가능 언어 : 한국어, 일어
-네이버 뉴스등에서 실제 사용
-요약 결과에 대한 반말/존대말 선택 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI가 타겟팅한 효과적인 상품제안
-데이터 전처리, 학습, 조정, 예측등 머신러닝(ML)에 필요한 모든 추천 기술이 담겨 있는 서비스로, 사용자 이력 데이터를 업로드하고 학습시작 버튼을 누르면 입력된 데이터를 분석해 추천 결과를 제공
-초개인화서비스는 선택아닌 필수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dataset 구성 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User(사용자)정보, Item(항목)정보, Interaction(상호작용)정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-서비스가 필요할 때 사용하고, 사용한 만큼만 비용을 지불
-하이퍼파라미터 HPO설정을 통해 여러 옵션을 저정함으로써 예측 정확도를 향상시켜 최적의 머신러닝 모델을 구현</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLOVA AiCall</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI 기능을 기반으로 고객센터를 구축하고 운영할 수 있는 서비스
-구성 Solution : CLOVA Speech + CLOVA Chatbot + CLOVA Voice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용예 : 성남시 클로바 케어콜서비스 (코로나19 능동감시 대상자에게 하루에 2번씩 AI 상담사가 자동으로 전화를 걸어 상담하고 발열, 호흡기 증상등을 확인)
-E2E(Ear-to-Eye) : 고객 커뮤니케이션 채널이 기존의 음성 기반 서비스(Auditory Interface)에서 진화하여 웹페이지 기반의 시각적 서비스(Web-based Visual IVR)를 함께 제공하는 과정 및 결과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>분산 서비스 및 시스템의 성능 분석/진단/추적 플랫폼 서비스
-- 'N' 계층의 SOA(Service Oriented Architecture) 및 Micro-Service로 구성된 아키텍처 서비스의 추적 및 분석 기능을 제공
-- 분산 애플리케이션의 트랜잭션 분석, Topology Detection, Bytecode Instrumentation을 활용한 진단 기능을 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI / Naver API</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>* Application 등록하기
- - AI / Naver Service로 개발하려면 먼저 Application을 등록한다.
- - Application 하나당 유일한 Client ID와 Client Secret값이 생성됨
- - Client ID와 Client Secret값은 API를 호출할 때 HTTP헤드값에 포함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI 서비스 지원 언어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLOVA Speech Recognition : 한, 중, 일, 영
-CLOVA Summary : 한, 일
-Papago Image Translation : 한, 중, 일, 영, 베
-CLOAV Speech : 한, 일, 영, 숫자 (Keyword Boosting 가능 언어)
-CLOVA OCR : 한, 일, 영 (필기체 : 한, 일)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">레파지토리로 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NAS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>를 사용함</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배포하고자 하는 타겟 서버에 SourceDeploy용 에이전트가 필수
-배포하고자 하는 소스는 Object Storage 및 SourceBuild 중에서 선택
-사용자별 접근제어 : SubAccount 와 연동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아키텍처 발전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>음성인식 이용 계좌 이체 시스템 – CLOVA Speech Recognition, CLOVA Chatbot
-이미지 및 음성인식 번역 시스템 – CLOVA OCR, Papago Translation
-OCR 기술을 활용한 텍스트 자동 입력 시스템 – CLOVA OCR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>관련내용 의미를 알고 갈것. 시험에 출제됨
-Availability : 가용성
-Scalability : 확장성
-Elasticity : 탄력성
-Automated : 가능한 운영자의 개입없이 워크로드/트래픽 변화에 자동으로 반응 할 수 있도록
-Security : 보안성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lift-and-shift</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Cloud-optimized
-Cloud-native architecture</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IoT 디바이스 전용 데이터 수집 및 처리 플랫폼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- IoT 환경에 최적화된 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MQTT(Message Queueing Telemetry Transport)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 프로토콜을 기반으로 데이터를 안정적으로 전송
-- 인증서를 통해 자격이 증명된 IoT 디바이스만 클라우드와 연결
-- 데이터 전송 구간은 Transport Layer Security(TLS) 방식으로 암호화되어 통신</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">DB 설정 가능 이벤트
-- Connection
-- SlowQuery
-- Replication Stop
-- Replication Delay
-- DB Down
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>* Backup 이벤트는 없음</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Object Storage, Block Storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10.0.0.0/8,  172.16.0.0/12,  192.168.0.0/16 중에서 선택가능
 </t>
     </r>
     <r>
@@ -8545,6 +8852,10 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Object storage에 저장된 원본 영상을 Mobile/PC 등 여러 Device에서 다양한 화질로 시청할 수 있도록 변환하는 서비스 (인코딩, CDN 설정, 송출 URL 생성의 VOD 관련 프로세스 일원화)
+</t>
+    </r>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -8554,7 +8865,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>host(PC) -  망 연결</t>
+      <t>Object storage 연동 : 영상은 Object Storage에 업로드 해야함(용량제한 없음)</t>
     </r>
     <r>
       <rPr>
@@ -8566,18 +8877,101 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-외부에서 NCP서버 접속시 보안통신이 가능하도록 보안소켓계층 기반의 가상사설망지원 운영체제 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Windows 10/11, MacOS 12.0/13.0 (중요)</t>
+- 비디오 인코딩 작업 진행하면서 Thumbnail 추출 가능
+- 최적의 CDN을 자동으로 설정하여 제공
+- 세그먼트 길이는 5, 10, 15, 20초
+자막 input format : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vtt, srit, dfxp, ttml, cap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+자막 Output format : vtt</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>서브 계정에 대한 일시 정지 기능도 가능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+System managed: 사용자 편의를 위해 몇 가지 상품에 대해 Change/View 권한을 미리 정의해두고 제공하는 정책
+Usercreated: 계정 사용자가 임의로 생성한 정책</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AI가 타겟팅한 효과적인 상품제안
+데이터 전처리, 학습, 조정, 예측등 머신러닝(ML)에 필요한 모든 추천 기술이 담겨 있는 서비스로, 사용자 이력 데이터를 업로드하고 학습시작 버튼을 누르면 입력된 데이터를 분석해 추천 결과를 제공
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>초개인화서비스는 선택아닌 필수</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">간단히 URL 등록만으로 시작되는 웹사이트 모니터링서비스 (의미중요)
+시나리오 기반 모니터링 수행
+모니터링 수행주기는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>분단위 (1분, 5분, 10분)</t>
     </r>
     <r>
       <rPr>
@@ -8593,315 +8987,37 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(주의) SSL VPN 접속만 하면 ACG 설정 변경없이도 서버에접근이 가능하다. =&gt; 틀림. * 사전에 해당 SSL VPN IP Pool을 허용처리해 두어야 함.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>한국, 미국, 일본, 홍콩, 싱가폴, 독일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">에서도 측정이 가능 (중요)
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-VPC당 1개의 SSL VPN 생성 가능</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">• 트랜스코딩을 통해 여러 화질로 변환 후, 송출
-• 스트림 상태를 볼 수 있는 모니터링 기능 제공
-• Thumbnail Image 추출
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>• 타임머신(Time Shift) 기능으로 놓치지 않는 라이브 방송 서비스 구현 가능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-• CDN 연동을 통해 안정적인 송출 가능
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>• 송출된 영상을 다른 플랫폼으로 중계하는 Re-Stream 기능 제공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-• 실시간 DVR(Digital Video Recorder) 기능 제공
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>채널 유지 비용은 발생
-채널이 생성 중인 상태는 '준비'상태로 콘솔에 표기된다.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Object stroage 와 CDN연동임
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(주의)Live Station 생성시, CDN을 동시에 생성할 수 없기에 별도로 생성하여 따로 연동해 줘야한다. &gt; 틀림</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">DB 백업 주기 : 매일
-백업 유지기간 : Redis - 7일 나머지는 30일
-멀티 존 지원, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>멀티 리전 미지원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, ACG는 자동 생성</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(비교) MySQL은 10대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>상세 기능
--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Console과 API호출</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">을 통해 발생하는 사용자 계정 활동 기록을 저장하여 제공 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(작업 상태는 알지 못한다)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- 조회기간 : 최근 1일, 1주, 1개월, 3개월
-- 메인 계정과 서브 계정에 대해 구분 검색
-리소스 작업 이력은 최대 3개월 보관후 삭제된다.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">GCM : Google Cloud Messaging (Android &amp; iOS 지원)
-FCM : Firebase Cloud Messaging 의 약자로 GCM의 새로운 버전 (다양한 플랫폼 모두 커버)
-APNS : Apple Push Notification Service (Apple 개발자 페이지에서 인증서와 키 설정 후 사용가능)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SMS 발송 비용 : 50건 이하 무료, 그 이상은 건당 9원
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-다양한 문자 전송 메시지 포맷 지원 : SMS(80자 미만), LMS(80자 이상), MMS(멀티미디어포함)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>받는사람 주소는 1000명 (30명씩 순차 발송), 참조 주소는 30명, 숨은 참조 주소는 30명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-파일 업로드를 통한 대량 메일 발송 (최대 100,000개 수신자 주소 입력 가능)
-** 치환 태그
-* 사용자 정의 치환태그
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">${태그명} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>형태
-- 치환값을 사용자가 직접 입력
-- 입력 개수와 태그명에 제한 없음
-- 태그값을 모두 사용자가 입력해야 메일 발송 가능
-- 대량 발송 구분의 모든 유형에서 사용 가능
-* Meta 정보 치환 태그
-- #{태그명} 형태
-- 사전에 정의된 지정된 변수로 수신자명 , 수신자 이메일 , 발송자명 , 발송자 이메일 , 수신거부 링크</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실시간대응 : 최대 1분</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -9110,7 +9226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9180,9 +9296,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -9243,6 +9356,30 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -9267,13 +9404,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9285,14 +9422,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9437,9 +9574,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>26670</xdr:colOff>
+      <xdr:colOff>24765</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -9468,8 +9605,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3982346" y="4213636"/>
-          <a:ext cx="6394301" cy="2823605"/>
+          <a:off x="3984444" y="4206240"/>
+          <a:ext cx="6392396" cy="2823605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9481,15 +9618,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>5391151</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>18000</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1142411</xdr:rowOff>
+      <xdr:rowOff>1411941</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9512,8 +9649,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10953751" y="7924800"/>
-          <a:ext cx="5391150" cy="1142411"/>
+          <a:off x="10432676" y="10421471"/>
+          <a:ext cx="6663089" cy="1411941"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9531,9 +9668,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>6456045</xdr:colOff>
+      <xdr:colOff>6459855</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>1734105</xdr:rowOff>
+      <xdr:rowOff>1730295</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9577,7 +9714,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>2476500</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>3558540</xdr:rowOff>
+      <xdr:rowOff>3562350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9915,7 +10052,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5055870</xdr:colOff>
+      <xdr:colOff>5050155</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>1638300</xdr:rowOff>
     </xdr:to>
@@ -10318,7 +10455,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="51" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
@@ -10329,7 +10466,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="44"/>
+      <c r="B4" s="51"/>
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -10338,7 +10475,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="44"/>
+      <c r="B5" s="51"/>
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -10347,7 +10484,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B6" s="44"/>
+      <c r="B6" s="51"/>
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -10356,7 +10493,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="44"/>
+      <c r="B7" s="51"/>
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -10385,7 +10522,7 @@
     </row>
     <row r="10" spans="2:5" ht="386.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -10405,8 +10542,8 @@
   </sheetPr>
   <dimension ref="B2:F92"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -10433,99 +10570,99 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="191.4" x14ac:dyDescent="0.4">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="53" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B4" s="46"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B5" s="46"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B6" s="46"/>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="B7" s="53"/>
+      <c r="C7" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="E7" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B8" s="53"/>
+      <c r="C8" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B7" s="46"/>
-      <c r="C7" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B8" s="46"/>
-      <c r="C8" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
     <row r="9" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="46"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="6" t="s">
         <v>105</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -10535,12 +10672,12 @@
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="46"/>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -10550,12 +10687,12 @@
         <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="46"/>
-      <c r="C12" s="30" t="s">
+      <c r="B12" s="53"/>
+      <c r="C12" s="29" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -10565,23 +10702,23 @@
         <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="46"/>
-      <c r="C13" s="30" t="s">
+      <c r="B13" s="53"/>
+      <c r="C13" s="29" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="6"/>
       <c r="F13" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="46"/>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="53"/>
+      <c r="C14" s="29" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -10589,38 +10726,38 @@
       </c>
       <c r="E14" s="6"/>
       <c r="F14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B15" s="46"/>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="53"/>
+      <c r="C15" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F15" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="52" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="45"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="6" t="s">
         <v>44</v>
       </c>
@@ -10630,22 +10767,22 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="45"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19" s="52"/>
+      <c r="C19" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B19" s="45"/>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>346</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>347</v>
       </c>
       <c r="E19" s="6"/>
     </row>
@@ -10662,21 +10799,21 @@
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="2:6" ht="313.2" x14ac:dyDescent="0.4">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="53" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="E21" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>443</v>
-      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B22" s="46"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="6" t="s">
         <v>49</v>
       </c>
@@ -10684,64 +10821,64 @@
         <v>50</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B23" s="46"/>
-      <c r="C23" s="30" t="s">
+      <c r="B23" s="53"/>
+      <c r="C23" s="29" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B24" s="46"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B25" s="46"/>
-      <c r="C25" s="30" t="s">
-        <v>332</v>
+      <c r="B25" s="53"/>
+      <c r="C25" s="29" t="s">
+        <v>331</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B26" s="46"/>
-      <c r="C26" s="30" t="s">
-        <v>331</v>
+      <c r="B26" s="53"/>
+      <c r="C26" s="29" t="s">
+        <v>330</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B27" s="46"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="6" t="s">
         <v>47</v>
       </c>
@@ -10751,7 +10888,7 @@
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B28" s="46"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="6" t="s">
         <v>54</v>
       </c>
@@ -10761,7 +10898,7 @@
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="2:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="53" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -10771,26 +10908,26 @@
         <v>58</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B30" s="46"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="29" t="s">
         <v>61</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -10798,11 +10935,11 @@
       </c>
       <c r="E31" s="6"/>
       <c r="F31" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B32" s="46"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="6" t="s">
         <v>62</v>
       </c>
@@ -10812,7 +10949,7 @@
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B33" s="46"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="6" t="s">
         <v>65</v>
       </c>
@@ -10822,23 +10959,23 @@
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="29" t="s">
         <v>68</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B35" s="46"/>
-      <c r="C35" s="30" t="s">
+      <c r="B35" s="53"/>
+      <c r="C35" s="29" t="s">
         <v>69</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -10846,29 +10983,29 @@
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B36" s="46"/>
-      <c r="C36" s="30" t="s">
+      <c r="B36" s="53"/>
+      <c r="C36" s="29" t="s">
         <v>70</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="29" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="7" t="s">
@@ -10876,12 +11013,12 @@
       </c>
       <c r="E37" s="6"/>
       <c r="F37" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B38" s="45"/>
-      <c r="C38" s="30" t="s">
+      <c r="B38" s="52"/>
+      <c r="C38" s="29" t="s">
         <v>73</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -10889,31 +11026,31 @@
       </c>
       <c r="E38" s="6"/>
       <c r="F38" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B39" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="30"/>
+      <c r="C39" s="29"/>
       <c r="D39" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B40" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E40" s="6"/>
     </row>
@@ -10921,29 +11058,29 @@
       <c r="B41" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="30"/>
+      <c r="C41" s="29"/>
       <c r="D41" s="7" t="s">
         <v>79</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="53" t="s">
         <v>26</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B43" s="46"/>
+      <c r="B43" s="53"/>
       <c r="C43" s="6" t="s">
         <v>82</v>
       </c>
@@ -10953,37 +11090,37 @@
       <c r="E43" s="6"/>
     </row>
     <row r="44" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B44" s="46"/>
-      <c r="C44" s="30" t="s">
+      <c r="B44" s="53"/>
+      <c r="C44" s="29" t="s">
         <v>81</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B45" s="46"/>
-      <c r="C45" s="30" t="s">
+      <c r="B45" s="53"/>
+      <c r="C45" s="29" t="s">
         <v>83</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>84</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B46" s="46"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="6" t="s">
         <v>85</v>
       </c>
@@ -10991,28 +11128,28 @@
         <v>106</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B48" s="52"/>
+      <c r="C48" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D48" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B48" s="45"/>
-      <c r="C48" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="E48" s="6"/>
     </row>
@@ -11037,142 +11174,142 @@
         <v>90</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="53" t="s">
         <v>91</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>92</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="E51" s="47" t="s">
-        <v>432</v>
+        <v>411</v>
+      </c>
+      <c r="E51" s="54" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B52" s="46"/>
+      <c r="B52" s="53"/>
       <c r="C52" s="6" t="s">
         <v>93</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="E52" s="47"/>
+        <v>412</v>
+      </c>
+      <c r="E52" s="54"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B53" s="46"/>
+      <c r="B53" s="53"/>
       <c r="C53" s="6" t="s">
         <v>94</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="E53" s="47"/>
+        <v>413</v>
+      </c>
+      <c r="E53" s="54"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B54" s="46"/>
+      <c r="B54" s="53"/>
       <c r="C54" s="6" t="s">
         <v>95</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="E54" s="47"/>
+        <v>414</v>
+      </c>
+      <c r="E54" s="54"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B55" s="46"/>
+      <c r="B55" s="53"/>
       <c r="C55" s="6" t="s">
         <v>96</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E55" s="47" t="s">
-        <v>431</v>
+      <c r="E55" s="54" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B56" s="46"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="6" t="s">
         <v>99</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E56" s="47"/>
+      <c r="E56" s="54"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B57" s="46"/>
+      <c r="B57" s="53"/>
       <c r="C57" s="6" t="s">
         <v>101</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E57" s="47"/>
+      <c r="E57" s="54"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B58" s="46"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E58" s="47"/>
+      <c r="E58" s="54"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B59" s="46"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="6" t="s">
         <v>104</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="E59" s="47"/>
+        <v>423</v>
+      </c>
+      <c r="E59" s="54"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B60" s="46"/>
-      <c r="C60" s="30" t="s">
-        <v>429</v>
+      <c r="B60" s="53"/>
+      <c r="C60" s="29" t="s">
+        <v>427</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="E60" s="47"/>
+        <v>428</v>
+      </c>
+      <c r="E60" s="54"/>
       <c r="F60" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B61" s="46" t="s">
+      <c r="B61" s="53" t="s">
+        <v>431</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="D61" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B62" s="53"/>
+      <c r="C62" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="D62" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="E61" s="31" t="s">
+      <c r="E62" s="19" t="s">
         <v>436</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B62" s="46"/>
-      <c r="C62" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
@@ -11180,132 +11317,132 @@
         <v>107</v>
       </c>
       <c r="C63" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>428</v>
-      </c>
       <c r="E63" s="15" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B64" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>424</v>
+        <v>425</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>422</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B65" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C65" s="31" t="s">
         <v>108</v>
       </c>
       <c r="D65" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>422</v>
-      </c>
       <c r="F65" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B66" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="29" t="s">
         <v>109</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B67" s="46" t="s">
+      <c r="B67" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="C67" s="30" t="s">
-        <v>336</v>
+      <c r="C67" s="29" t="s">
+        <v>335</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="191.4" x14ac:dyDescent="0.4">
-      <c r="B68" s="46"/>
+      <c r="B68" s="53"/>
       <c r="C68" s="6" t="s">
         <v>111</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E68" s="7"/>
     </row>
     <row r="69" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="45" t="s">
+      <c r="B69" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="29" t="s">
         <v>113</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="F69" s="33" t="s">
-        <v>464</v>
+        <v>286</v>
+      </c>
+      <c r="F69" s="32" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B70" s="45"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E70" s="6"/>
     </row>
     <row r="71" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B71" s="45"/>
-      <c r="C71" s="30" t="s">
+      <c r="B71" s="52"/>
+      <c r="C71" s="29" t="s">
         <v>115</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>116</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B72" s="45"/>
+      <c r="B72" s="52"/>
       <c r="C72" s="6" t="s">
         <v>117</v>
       </c>
@@ -11315,106 +11452,106 @@
       <c r="E72" s="6"/>
     </row>
     <row r="73" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B73" s="45"/>
-      <c r="C73" s="30" t="s">
+      <c r="B73" s="52"/>
+      <c r="C73" s="29" t="s">
         <v>119</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B74" s="45"/>
+      <c r="B74" s="52"/>
       <c r="C74" s="6" t="s">
         <v>121</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E74" s="6"/>
     </row>
     <row r="75" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B75" s="45"/>
-      <c r="C75" s="30" t="s">
+      <c r="B75" s="52"/>
+      <c r="C75" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B76" s="45"/>
+      <c r="B76" s="52"/>
       <c r="C76" s="6" t="s">
         <v>123</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="178.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="45"/>
+      <c r="B77" s="52"/>
       <c r="C77" s="6" t="s">
         <v>122</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E77" s="6"/>
     </row>
     <row r="78" spans="2:6" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B78" s="45"/>
-      <c r="C78" s="30" t="s">
+      <c r="B78" s="52"/>
+      <c r="C78" s="29" t="s">
         <v>125</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="53" t="s">
+        <v>402</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>406</v>
-      </c>
       <c r="E79" s="6"/>
     </row>
     <row r="80" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B80" s="46"/>
+      <c r="B80" s="53"/>
       <c r="C80" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E80" s="13"/>
     </row>
     <row r="81" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B81" s="46"/>
+      <c r="B81" s="53"/>
       <c r="C81" s="6" t="s">
         <v>126</v>
       </c>
@@ -11422,139 +11559,139 @@
         <v>127</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="83" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B83" s="46" t="s">
+      <c r="B83" s="53" t="s">
         <v>128</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>129</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E83" s="6"/>
     </row>
     <row r="84" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B84" s="46"/>
+      <c r="B84" s="53"/>
       <c r="C84" s="6" t="s">
         <v>130</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E84" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" ht="87" x14ac:dyDescent="0.4">
+      <c r="B85" s="53"/>
+      <c r="C85" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="E85" s="7" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="85" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B85" s="46"/>
-      <c r="C85" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>390</v>
-      </c>
       <c r="F85" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="86" spans="2:6" ht="261" x14ac:dyDescent="0.4">
-      <c r="B86" s="46"/>
+      <c r="B86" s="53"/>
       <c r="C86" s="6" t="s">
         <v>132</v>
       </c>
       <c r="D86" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B87" s="53"/>
+      <c r="C87" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F87" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B88" s="53"/>
+      <c r="C88" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="D88" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="E86" s="7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B87" s="46"/>
-      <c r="C87" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D87" s="12" t="s">
+      <c r="E88" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B89" s="53"/>
+      <c r="C89" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="E89" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="E87" s="7" t="s">
+    </row>
+    <row r="90" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B90" s="53"/>
+      <c r="C90" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D90" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="F87" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B88" s="46"/>
-      <c r="C88" s="30" t="s">
-        <v>397</v>
-      </c>
-      <c r="D88" s="27" t="s">
+      <c r="E90" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="E88" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B89" s="46"/>
-      <c r="C89" s="6" t="s">
+      <c r="F90" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" ht="174" x14ac:dyDescent="0.4">
+      <c r="B91" s="53"/>
+      <c r="C91" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="D89" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B90" s="46"/>
-      <c r="C90" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="E90" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="F90" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" ht="174" x14ac:dyDescent="0.4">
-      <c r="B91" s="46"/>
-      <c r="C91" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>400</v>
-      </c>
       <c r="E91" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B92" s="46"/>
+      <c r="B92" s="53"/>
       <c r="C92" s="6" t="s">
         <v>136</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -11603,8 +11740,8 @@
   </sheetPr>
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -11639,7 +11776,7 @@
         <v>137</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="228" customHeight="1" x14ac:dyDescent="0.4">
@@ -11651,42 +11788,42 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B5" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="87" x14ac:dyDescent="0.4">
+      <c r="B6" s="53"/>
+      <c r="C6" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B7" s="53"/>
+      <c r="C7" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>488</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B5" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B6" s="46"/>
-      <c r="C6" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B7" s="46"/>
-      <c r="C7" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -11698,7 +11835,7 @@
         <v>141</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -11718,64 +11855,64 @@
         <v>144</v>
       </c>
       <c r="D10" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>363</v>
-      </c>
     </row>
     <row r="11" spans="2:5" ht="330.6" x14ac:dyDescent="0.4">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="55" t="s">
         <v>145</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>492</v>
+      <c r="D11" s="37" t="s">
+        <v>490</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B12" s="49"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="6" t="s">
         <v>145</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>487</v>
+        <v>379</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B13" s="49"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B14" s="56"/>
+      <c r="C14" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B14" s="49"/>
-      <c r="C14" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>296</v>
-      </c>
     </row>
     <row r="15" spans="2:5" ht="288" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="50"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="6" t="s">
         <v>156</v>
       </c>
@@ -11788,22 +11925,22 @@
         <v>148</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="226.2" x14ac:dyDescent="0.4">
       <c r="B17" s="6"/>
-      <c r="C17" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>377</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>493</v>
+      <c r="C17" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.4">
@@ -11822,22 +11959,22 @@
         <v>151</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B20" s="7"/>
-      <c r="C20" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>682</v>
+      <c r="C20" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>675</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
@@ -11846,10 +11983,10 @@
         <v>146</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
@@ -11858,32 +11995,32 @@
         <v>147</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B23" s="6"/>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>367</v>
+      <c r="D23" s="50" t="s">
+        <v>366</v>
       </c>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
@@ -11894,12 +12031,12 @@
       <c r="B27" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="7" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="191.4" x14ac:dyDescent="0.4">
@@ -11908,22 +12045,22 @@
         <v>155</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>370</v>
+        <v>685</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="156.6" x14ac:dyDescent="0.4">
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>299</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -11932,10 +12069,10 @@
         <v>157</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
@@ -11944,7 +12081,7 @@
         <v>158</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E31" s="6"/>
     </row>
@@ -11977,8 +12114,8 @@
   </sheetPr>
   <dimension ref="B1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -11991,8 +12128,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B1" s="37" t="s">
-        <v>494</v>
+      <c r="B1" s="36" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
@@ -12010,182 +12147,182 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B3" s="51" t="s">
-        <v>495</v>
+      <c r="B3" s="58" t="s">
+        <v>493</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>161</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B4" s="54"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="182.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="52"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>497</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="D5" s="39" t="s">
-        <v>499</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>500</v>
-      </c>
     </row>
     <row r="6" spans="2:5" ht="330" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="58" t="s">
         <v>163</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>164</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B7" s="52"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B8" s="58" t="s">
+        <v>502</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B8" s="51" t="s">
+      <c r="D8" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="E8" s="26" t="s">
         <v>505</v>
       </c>
-      <c r="D8" s="15" t="s">
+    </row>
+    <row r="9" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B9" s="59"/>
+      <c r="C9" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="D9" s="7" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B9" s="54"/>
-      <c r="C9" s="6" t="s">
+      <c r="E9" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="D9" s="7" t="s">
+    </row>
+    <row r="10" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B10" s="59"/>
+      <c r="C10" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="D10" s="7" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B10" s="54"/>
-      <c r="C10" s="6" t="s">
+      <c r="E10" s="39" t="s">
         <v>511</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>513</v>
-      </c>
     </row>
     <row r="11" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B11" s="54"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:5" ht="174" x14ac:dyDescent="0.4">
-      <c r="B12" s="54"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="6" t="s">
         <v>166</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B13" s="54"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="6" t="s">
         <v>167</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B14" s="52"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="6" t="s">
         <v>169</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B15" s="52" t="s">
         <v>518</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B15" s="45" t="s">
-        <v>520</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>170</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B16" s="45"/>
-      <c r="C16" s="28" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>521</v>
+      <c r="D16" s="25" t="s">
+        <v>519</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="45"/>
-      <c r="C17" s="28" t="s">
+      <c r="B17" s="52"/>
+      <c r="C17" s="27" t="s">
         <v>172</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -12194,107 +12331,107 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B18" s="45"/>
-      <c r="C18" s="28" t="s">
+      <c r="B18" s="52"/>
+      <c r="C18" s="27" t="s">
         <v>174</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B19" s="52"/>
+      <c r="C19" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B20" s="52"/>
+      <c r="C20" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B19" s="45"/>
-      <c r="C19" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B21" s="52"/>
+      <c r="C21" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B22" s="52"/>
+      <c r="C22" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="2:5" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="B23" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="E23" s="42" t="s">
         <v>522</v>
       </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B20" s="45"/>
-      <c r="C20" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B21" s="45"/>
-      <c r="C21" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B22" s="45"/>
-      <c r="C22" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="2:5" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B23" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D23" s="7" t="s">
+    </row>
+    <row r="24" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B24" s="66"/>
+      <c r="C24" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E24" s="29"/>
+    </row>
+    <row r="25" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B25" s="52" t="s">
         <v>523</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B24" s="52"/>
-      <c r="C24" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B25" s="45" t="s">
-        <v>525</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>181</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B26" s="45"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="6" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="45"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="6" t="s">
         <v>167</v>
       </c>
@@ -12311,26 +12448,26 @@
         <v>180</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B29" s="52" t="s">
         <v>529</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B29" s="45" t="s">
-        <v>531</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>185</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="45"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="6" t="s">
         <v>186</v>
       </c>
@@ -12340,7 +12477,7 @@
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="45"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="6" t="s">
         <v>188</v>
       </c>
@@ -12352,105 +12489,105 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B32" s="14" t="s">
-        <v>533</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="B32" s="47" t="s">
+        <v>531</v>
+      </c>
+      <c r="C32" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="67" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B33" s="14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>180</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="37" t="s">
-        <v>536</v>
+      <c r="B34" s="36" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="117" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="58" t="s">
         <v>195</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>194</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="261" x14ac:dyDescent="0.4">
-      <c r="B36" s="52"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D36" s="58" t="s">
-        <v>539</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>540</v>
+      <c r="D36" s="43" t="s">
+        <v>537</v>
+      </c>
+      <c r="E36" s="49" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="93" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="14" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>164</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>542</v>
+        <v>688</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B38" s="45" t="s">
-        <v>544</v>
+      <c r="B38" s="52" t="s">
+        <v>540</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>198</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="45"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="6" t="s">
         <v>199</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B40" s="45"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D40" s="41" t="s">
-        <v>547</v>
+      <c r="D40" s="40" t="s">
+        <v>543</v>
       </c>
       <c r="E40" s="6"/>
     </row>
@@ -12462,10 +12599,10 @@
         <v>202</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -12481,29 +12618,29 @@
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="61" t="s">
         <v>210</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B44" s="53"/>
+      <c r="B44" s="61"/>
       <c r="C44" s="6" t="s">
         <v>197</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
@@ -12514,10 +12651,10 @@
         <v>202</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="191.4" x14ac:dyDescent="0.4">
@@ -12528,7 +12665,7 @@
         <v>202</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E46" s="6"/>
     </row>
@@ -12537,27 +12674,27 @@
         <v>207</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="E48" s="59" t="s">
-        <v>560</v>
+      <c r="C48" s="29" t="s">
+        <v>546</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>555</v>
+      </c>
+      <c r="E48" s="48" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -12565,13 +12702,13 @@
         <v>209</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
@@ -12579,32 +12716,32 @@
         <v>211</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B51" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B52" s="36" t="s">
         <v>564</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B52" s="37" t="s">
-        <v>568</v>
       </c>
       <c r="D52" s="20"/>
     </row>
@@ -12613,31 +12750,31 @@
         <v>212</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="E53" s="60" t="s">
-        <v>571</v>
+        <v>566</v>
+      </c>
+      <c r="E53" s="45" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="226.2" x14ac:dyDescent="0.4">
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="52" t="s">
         <v>213</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>202</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="174" x14ac:dyDescent="0.4">
-      <c r="B55" s="45"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="6" t="s">
         <v>217</v>
       </c>
@@ -12647,7 +12784,7 @@
       <c r="E55" s="6"/>
     </row>
     <row r="56" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B56" s="45"/>
+      <c r="B56" s="52"/>
       <c r="C56" s="6" t="s">
         <v>219</v>
       </c>
@@ -12657,7 +12794,7 @@
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B57" s="45"/>
+      <c r="B57" s="52"/>
       <c r="C57" s="6" t="s">
         <v>221</v>
       </c>
@@ -12667,58 +12804,58 @@
       <c r="E57" s="6"/>
     </row>
     <row r="58" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B58" s="45"/>
+      <c r="B58" s="52"/>
       <c r="C58" s="6" t="s">
         <v>223</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B59" s="45"/>
+      <c r="B59" s="52"/>
       <c r="C59" s="6" t="s">
         <v>224</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B60" s="45"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="6" t="s">
         <v>225</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B61" s="45" t="s">
+      <c r="B61" s="52" t="s">
         <v>214</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>202</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B62" s="45"/>
+      <c r="B62" s="52"/>
       <c r="C62" s="6" t="s">
         <v>215</v>
       </c>
@@ -12728,33 +12865,33 @@
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B63" s="23" t="s">
-        <v>580</v>
+      <c r="B63" s="46" t="s">
+        <v>576</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="58" t="s">
         <v>226</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>202</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B65" s="52"/>
+      <c r="B65" s="60"/>
       <c r="C65" s="6" t="s">
         <v>227</v>
       </c>
@@ -12771,27 +12908,27 @@
         <v>202</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F66" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B67" s="23" t="s">
-        <v>313</v>
+      <c r="B67" s="46" t="s">
+        <v>312</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>202</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="87" x14ac:dyDescent="0.4">
@@ -12802,10 +12939,10 @@
         <v>202</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
@@ -12816,35 +12953,35 @@
         <v>202</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B70" s="37" t="s">
-        <v>592</v>
+      <c r="B70" s="36" t="s">
+        <v>588</v>
       </c>
       <c r="D70" s="3"/>
-      <c r="E70" s="25"/>
+      <c r="E70" s="24"/>
     </row>
     <row r="71" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B71" s="45" t="s">
+      <c r="B71" s="52" t="s">
         <v>233</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>235</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B72" s="45"/>
+      <c r="B72" s="52"/>
       <c r="C72" s="6" t="s">
         <v>232</v>
       </c>
@@ -12852,59 +12989,59 @@
         <v>234</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B73" s="45"/>
+      <c r="B73" s="52"/>
       <c r="C73" s="6" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B74" s="45"/>
+      <c r="B74" s="52"/>
       <c r="C74" s="6" t="s">
         <v>241</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="330.6" x14ac:dyDescent="0.4">
-      <c r="B75" s="45"/>
+      <c r="B75" s="52"/>
       <c r="C75" s="6" t="s">
         <v>236</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B76" s="45"/>
+      <c r="B76" s="52"/>
       <c r="C76" s="7" t="s">
         <v>237</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B77" s="45"/>
+      <c r="B77" s="52"/>
       <c r="C77" s="7" t="s">
         <v>239</v>
       </c>
@@ -12916,79 +13053,73 @@
       </c>
     </row>
     <row r="78" spans="2:6" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B78" s="45"/>
+      <c r="B78" s="52"/>
       <c r="C78" s="6" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E78" s="6"/>
     </row>
     <row r="79" spans="2:6" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B79" s="45"/>
-      <c r="C79" s="30" t="s">
+      <c r="B79" s="52"/>
+      <c r="C79" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="D79" s="35" t="s">
-        <v>607</v>
-      </c>
-      <c r="E79" s="34" t="s">
-        <v>608</v>
+      <c r="D79" s="34" t="s">
+        <v>603</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B80" s="45"/>
+      <c r="B80" s="52"/>
       <c r="C80" s="6" t="s">
         <v>243</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B81" s="45"/>
+      <c r="B81" s="52"/>
       <c r="C81" s="6" t="s">
         <v>244</v>
       </c>
       <c r="D81" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B82" s="52"/>
+      <c r="C82" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="2:5" ht="174" x14ac:dyDescent="0.4">
+      <c r="B83" s="52"/>
+      <c r="C83" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="D83" s="7" t="s">
         <v>612</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B82" s="45"/>
-      <c r="C82" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="E82" s="7"/>
-    </row>
-    <row r="83" spans="2:5" ht="174" x14ac:dyDescent="0.4">
-      <c r="B83" s="45"/>
-      <c r="C83" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>616</v>
       </c>
       <c r="E83" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="B71:B83"/>
     <mergeCell ref="B29:B31"/>
@@ -12997,6 +13128,12 @@
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B54:B60"/>
     <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13012,8 +13149,8 @@
   </sheetPr>
   <dimension ref="B2:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13040,479 +13177,479 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B3" s="55" t="s">
-        <v>617</v>
+      <c r="B3" s="62" t="s">
+        <v>613</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>245</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="394.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="55"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="7" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="278.39999999999998" x14ac:dyDescent="0.4">
-      <c r="B5" s="55"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="6" t="s">
         <v>246</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="191.4" x14ac:dyDescent="0.4">
-      <c r="B6" s="55"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="7" t="s">
         <v>262</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B7" s="55"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B8" s="55"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="7" t="s">
         <v>259</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="55"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="7" t="s">
         <v>260</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B10" s="55" t="s">
-        <v>631</v>
+      <c r="B10" s="62" t="s">
+        <v>627</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>247</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="226.2" x14ac:dyDescent="0.4">
-      <c r="B11" s="55"/>
-      <c r="C11" s="24" t="s">
+      <c r="B11" s="62"/>
+      <c r="C11" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>310</v>
-      </c>
     </row>
     <row r="12" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B12" s="55"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="7" t="s">
         <v>248</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="177" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="55"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="D13" s="42" t="s">
-        <v>637</v>
+      <c r="D13" s="41" t="s">
+        <v>632</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B14" s="55"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="7" t="s">
         <v>255</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B15" s="55"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="6" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B16" s="55"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="6" t="s">
         <v>249</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="87" x14ac:dyDescent="0.4">
+      <c r="B17" s="62"/>
+      <c r="C17" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="2:5" ht="174" x14ac:dyDescent="0.4">
+      <c r="B18" s="62"/>
+      <c r="C18" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B17" s="55"/>
-      <c r="C17" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="2:5" ht="174" x14ac:dyDescent="0.4">
-      <c r="B18" s="55"/>
-      <c r="C18" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>649</v>
-      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="55"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>315</v>
-      </c>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" ht="191.4" x14ac:dyDescent="0.4">
-      <c r="B20" s="55"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="7" t="s">
         <v>251</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B21" s="55"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="7" t="s">
         <v>264</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B22" s="55"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="7" t="s">
         <v>252</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B23" s="55"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="7" t="s">
         <v>253</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B24" s="55"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="7" t="s">
         <v>256</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B25" s="55"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B26" s="55"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="7" t="s">
         <v>258</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B27" s="62"/>
+      <c r="C27" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="87" x14ac:dyDescent="0.4">
+      <c r="B28" s="62"/>
+      <c r="C28" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B29" s="62"/>
+      <c r="C29" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B27" s="55"/>
-      <c r="C27" s="7" t="s">
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="2:5" ht="136.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="62"/>
+      <c r="C30" s="7" t="s">
         <v>664</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B28" s="55"/>
-      <c r="C28" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B29" s="55"/>
-      <c r="C29" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="2:5" ht="136.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="55"/>
-      <c r="C30" s="7" t="s">
-        <v>670</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="7" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="53" t="s">
         <v>261</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="D32" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>672</v>
+      <c r="D32" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B33" s="46"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="7" t="s">
         <v>266</v>
       </c>
       <c r="D33" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B34" s="53"/>
+      <c r="C34" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="D34" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="E34" s="42" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B34" s="46"/>
-      <c r="C34" s="7" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B35" s="53"/>
+      <c r="C35" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="46"/>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="2:5" ht="330.6" x14ac:dyDescent="0.4">
+      <c r="B36" s="53"/>
+      <c r="C36" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="2:5" ht="330.6" x14ac:dyDescent="0.4">
-      <c r="B36" s="46"/>
-      <c r="C36" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>272</v>
-      </c>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B37" s="46"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="7" t="s">
         <v>107</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B40" s="63" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="56" t="s">
+      <c r="C40" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="D40" s="7" t="s">
+      <c r="E40" s="64" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B41" s="63"/>
+      <c r="C41" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="E40" s="57" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B41" s="56"/>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="E41" s="54"/>
+    </row>
+    <row r="42" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B42" s="63"/>
+      <c r="C42" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E41" s="47"/>
-    </row>
-    <row r="42" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B42" s="56"/>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="E42" s="54"/>
+    </row>
+    <row r="43" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B43" s="63"/>
+      <c r="C43" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D42" s="12" t="s">
-        <v>676</v>
-      </c>
-      <c r="E42" s="47"/>
-    </row>
-    <row r="43" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B43" s="56"/>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="E43" s="54"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B44" s="63"/>
+      <c r="C44" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="D43" s="15" t="s">
-        <v>677</v>
-      </c>
-      <c r="E43" s="47"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B44" s="56"/>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="E44" s="54"/>
+    </row>
+    <row r="45" spans="2:5" ht="87" x14ac:dyDescent="0.4">
+      <c r="B45" s="63"/>
+      <c r="C45" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="E44" s="47"/>
-    </row>
-    <row r="45" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B45" s="56"/>
-      <c r="C45" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="D45" s="12" t="s">
-        <v>678</v>
-      </c>
-      <c r="E45" s="47"/>
+        <v>672</v>
+      </c>
+      <c r="E45" s="54"/>
     </row>
     <row r="46" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B46" s="56"/>
+      <c r="B46" s="63"/>
       <c r="C46" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="E46" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/NCE/네이버클라우드/00.요약본/NCE_추가정리.xlsx
+++ b/NCE/네이버클라우드/00.요약본/NCE_추가정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repository\NCE\네이버클라우드\00.요약본\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1CD92D-2D03-4FAD-91D1-0234EA9B4B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C81429A-2371-47F9-9C2F-74E4CCC80B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36255" yWindow="-3105" windowWidth="25410" windowHeight="19920" firstSheet="2" activeTab="2" xr2:uid="{F59860EA-48BE-4768-90E0-72E89FFE37D2}"/>
+    <workbookView xWindow="36255" yWindow="-3660" windowWidth="25410" windowHeight="21600" firstSheet="1" activeTab="2" xr2:uid="{F59860EA-48BE-4768-90E0-72E89FFE37D2}"/>
   </bookViews>
   <sheets>
     <sheet name="OverView" sheetId="1" r:id="rId1"/>
@@ -9380,14 +9380,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -9404,13 +9407,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9421,15 +9430,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10455,7 +10455,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="52" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
@@ -10466,7 +10466,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="51"/>
+      <c r="B4" s="52"/>
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -10475,7 +10475,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="51"/>
+      <c r="B5" s="52"/>
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -10484,7 +10484,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B6" s="51"/>
+      <c r="B6" s="52"/>
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -10493,7 +10493,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="51"/>
+      <c r="B7" s="52"/>
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -10542,8 +10542,8 @@
   </sheetPr>
   <dimension ref="B2:F92"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44:D45"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -10745,7 +10745,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -10757,7 +10757,7 @@
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="52"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="6" t="s">
         <v>44</v>
       </c>
@@ -10767,7 +10767,7 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="52"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="6" t="s">
         <v>43</v>
       </c>
@@ -10777,7 +10777,7 @@
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B19" s="52"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="6" t="s">
         <v>345</v>
       </c>
@@ -11002,7 +11002,7 @@
       </c>
     </row>
     <row r="37" spans="2:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="54" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="29" t="s">
@@ -11017,7 +11017,7 @@
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B38" s="52"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="29" t="s">
         <v>73</v>
       </c>
@@ -11132,7 +11132,7 @@
       </c>
     </row>
     <row r="47" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="54" t="s">
         <v>350</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -11144,7 +11144,7 @@
       <c r="E47" s="6"/>
     </row>
     <row r="48" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B48" s="52"/>
+      <c r="B48" s="54"/>
       <c r="C48" s="6" t="s">
         <v>352</v>
       </c>
@@ -11187,7 +11187,7 @@
       <c r="D51" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="E51" s="54" t="s">
+      <c r="E51" s="55" t="s">
         <v>430</v>
       </c>
     </row>
@@ -11199,7 +11199,7 @@
       <c r="D52" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="E52" s="54"/>
+      <c r="E52" s="55"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B53" s="53"/>
@@ -11209,7 +11209,7 @@
       <c r="D53" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="E53" s="54"/>
+      <c r="E53" s="55"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B54" s="53"/>
@@ -11219,7 +11219,7 @@
       <c r="D54" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="E54" s="54"/>
+      <c r="E54" s="55"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B55" s="53"/>
@@ -11229,7 +11229,7 @@
       <c r="D55" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E55" s="54" t="s">
+      <c r="E55" s="55" t="s">
         <v>429</v>
       </c>
     </row>
@@ -11241,7 +11241,7 @@
       <c r="D56" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E56" s="54"/>
+      <c r="E56" s="55"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B57" s="53"/>
@@ -11251,7 +11251,7 @@
       <c r="D57" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E57" s="54"/>
+      <c r="E57" s="55"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B58" s="53"/>
@@ -11261,7 +11261,7 @@
       <c r="D58" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E58" s="54"/>
+      <c r="E58" s="55"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B59" s="53"/>
@@ -11271,7 +11271,7 @@
       <c r="D59" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="E59" s="54"/>
+      <c r="E59" s="55"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B60" s="53"/>
@@ -11281,7 +11281,7 @@
       <c r="D60" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="E60" s="54"/>
+      <c r="E60" s="55"/>
       <c r="F60" s="3" t="s">
         <v>462</v>
       </c>
@@ -11400,7 +11400,7 @@
       <c r="E68" s="7"/>
     </row>
     <row r="69" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="52" t="s">
+      <c r="B69" s="54" t="s">
         <v>112</v>
       </c>
       <c r="C69" s="29" t="s">
@@ -11417,7 +11417,7 @@
       </c>
     </row>
     <row r="70" spans="2:6" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B70" s="52"/>
+      <c r="B70" s="54"/>
       <c r="C70" s="6" t="s">
         <v>114</v>
       </c>
@@ -11427,7 +11427,7 @@
       <c r="E70" s="6"/>
     </row>
     <row r="71" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B71" s="52"/>
+      <c r="B71" s="54"/>
       <c r="C71" s="29" t="s">
         <v>115</v>
       </c>
@@ -11442,7 +11442,7 @@
       </c>
     </row>
     <row r="72" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B72" s="52"/>
+      <c r="B72" s="54"/>
       <c r="C72" s="6" t="s">
         <v>117</v>
       </c>
@@ -11452,7 +11452,7 @@
       <c r="E72" s="6"/>
     </row>
     <row r="73" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B73" s="52"/>
+      <c r="B73" s="54"/>
       <c r="C73" s="29" t="s">
         <v>119</v>
       </c>
@@ -11467,7 +11467,7 @@
       </c>
     </row>
     <row r="74" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B74" s="52"/>
+      <c r="B74" s="54"/>
       <c r="C74" s="6" t="s">
         <v>121</v>
       </c>
@@ -11477,7 +11477,7 @@
       <c r="E74" s="6"/>
     </row>
     <row r="75" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B75" s="52"/>
+      <c r="B75" s="54"/>
       <c r="C75" s="29" t="s">
         <v>124</v>
       </c>
@@ -11492,7 +11492,7 @@
       </c>
     </row>
     <row r="76" spans="2:6" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B76" s="52"/>
+      <c r="B76" s="54"/>
       <c r="C76" s="6" t="s">
         <v>123</v>
       </c>
@@ -11504,7 +11504,7 @@
       </c>
     </row>
     <row r="77" spans="2:6" ht="178.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="52"/>
+      <c r="B77" s="54"/>
       <c r="C77" s="6" t="s">
         <v>122</v>
       </c>
@@ -11514,7 +11514,7 @@
       <c r="E77" s="6"/>
     </row>
     <row r="78" spans="2:6" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B78" s="52"/>
+      <c r="B78" s="54"/>
       <c r="C78" s="29" t="s">
         <v>125</v>
       </c>
@@ -11696,6 +11696,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="E55:E60"/>
+    <mergeCell ref="B61:B62"/>
     <mergeCell ref="B83:B92"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="B51:B60"/>
@@ -11711,9 +11714,6 @@
     <mergeCell ref="B21:B28"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="B79:B81"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="E55:E60"/>
-    <mergeCell ref="B61:B62"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11740,8 +11740,8 @@
   </sheetPr>
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -11862,7 +11862,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="330.6" x14ac:dyDescent="0.4">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="56" t="s">
         <v>145</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -11876,7 +11876,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="B12" s="56"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="6" t="s">
         <v>145</v>
       </c>
@@ -11888,7 +11888,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B13" s="56"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="6" t="s">
         <v>358</v>
       </c>
@@ -11900,7 +11900,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B14" s="56"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="6" t="s">
         <v>291</v>
       </c>
@@ -11912,7 +11912,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="288" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="57"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="6" t="s">
         <v>156</v>
       </c>
@@ -12115,7 +12115,7 @@
   <dimension ref="B1:F83"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection activeCell="C79" sqref="C79:E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12147,7 +12147,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="59" t="s">
         <v>493</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -12161,7 +12161,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B4" s="59"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="6" t="s">
         <v>162</v>
       </c>
@@ -12185,7 +12185,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="330" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="59" t="s">
         <v>163</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -12211,7 +12211,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="59" t="s">
         <v>502</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -12225,7 +12225,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B9" s="59"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="6" t="s">
         <v>506</v>
       </c>
@@ -12237,7 +12237,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B10" s="59"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="6" t="s">
         <v>509</v>
       </c>
@@ -12249,7 +12249,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B11" s="59"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="6" t="s">
         <v>165</v>
       </c>
@@ -12259,7 +12259,7 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:5" ht="174" x14ac:dyDescent="0.4">
-      <c r="B12" s="59"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="6" t="s">
         <v>166</v>
       </c>
@@ -12271,7 +12271,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B13" s="59"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="6" t="s">
         <v>167</v>
       </c>
@@ -12295,7 +12295,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="54" t="s">
         <v>518</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -12309,7 +12309,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B16" s="52"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="27" t="s">
         <v>171</v>
       </c>
@@ -12321,7 +12321,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="52"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="27" t="s">
         <v>172</v>
       </c>
@@ -12331,7 +12331,7 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B18" s="52"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="27" t="s">
         <v>174</v>
       </c>
@@ -12341,7 +12341,7 @@
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B19" s="52"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="27" t="s">
         <v>175</v>
       </c>
@@ -12351,7 +12351,7 @@
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B20" s="52"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="27" t="s">
         <v>176</v>
       </c>
@@ -12361,7 +12361,7 @@
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B21" s="52"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="27" t="s">
         <v>177</v>
       </c>
@@ -12371,7 +12371,7 @@
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B22" s="52"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="27" t="s">
         <v>178</v>
       </c>
@@ -12381,7 +12381,7 @@
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="2:5" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="63" t="s">
         <v>179</v>
       </c>
       <c r="C23" s="29" t="s">
@@ -12395,7 +12395,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B24" s="66"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="29" t="s">
         <v>91</v>
       </c>
@@ -12405,7 +12405,7 @@
       <c r="E24" s="29"/>
     </row>
     <row r="25" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="54" t="s">
         <v>523</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -12419,7 +12419,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B26" s="52"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="6" t="s">
         <v>182</v>
       </c>
@@ -12431,7 +12431,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="52"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="6" t="s">
         <v>167</v>
       </c>
@@ -12455,7 +12455,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="54" t="s">
         <v>529</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -12467,7 +12467,7 @@
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="52"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="6" t="s">
         <v>186</v>
       </c>
@@ -12477,7 +12477,7 @@
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="52"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="6" t="s">
         <v>188</v>
       </c>
@@ -12498,7 +12498,7 @@
       <c r="D32" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="E32" s="67" t="s">
+      <c r="E32" s="51" t="s">
         <v>191</v>
       </c>
     </row>
@@ -12520,7 +12520,7 @@
       </c>
     </row>
     <row r="35" spans="2:5" ht="117" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="59" t="s">
         <v>195</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -12560,7 +12560,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="54" t="s">
         <v>540</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -12572,7 +12572,7 @@
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="52"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="6" t="s">
         <v>199</v>
       </c>
@@ -12582,7 +12582,7 @@
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B40" s="52"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="6" t="s">
         <v>200</v>
       </c>
@@ -12760,7 +12760,7 @@
       </c>
     </row>
     <row r="54" spans="2:6" ht="226.2" x14ac:dyDescent="0.4">
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="54" t="s">
         <v>213</v>
       </c>
       <c r="C54" s="6" t="s">
@@ -12774,7 +12774,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" ht="174" x14ac:dyDescent="0.4">
-      <c r="B55" s="52"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="6" t="s">
         <v>217</v>
       </c>
@@ -12784,7 +12784,7 @@
       <c r="E55" s="6"/>
     </row>
     <row r="56" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B56" s="52"/>
+      <c r="B56" s="54"/>
       <c r="C56" s="6" t="s">
         <v>219</v>
       </c>
@@ -12794,7 +12794,7 @@
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B57" s="52"/>
+      <c r="B57" s="54"/>
       <c r="C57" s="6" t="s">
         <v>221</v>
       </c>
@@ -12804,7 +12804,7 @@
       <c r="E57" s="6"/>
     </row>
     <row r="58" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B58" s="52"/>
+      <c r="B58" s="54"/>
       <c r="C58" s="6" t="s">
         <v>223</v>
       </c>
@@ -12817,7 +12817,7 @@
       </c>
     </row>
     <row r="59" spans="2:6" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B59" s="52"/>
+      <c r="B59" s="54"/>
       <c r="C59" s="6" t="s">
         <v>224</v>
       </c>
@@ -12829,7 +12829,7 @@
       </c>
     </row>
     <row r="60" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B60" s="52"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="6" t="s">
         <v>225</v>
       </c>
@@ -12841,7 +12841,7 @@
       </c>
     </row>
     <row r="61" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B61" s="52" t="s">
+      <c r="B61" s="54" t="s">
         <v>214</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -12855,7 +12855,7 @@
       </c>
     </row>
     <row r="62" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B62" s="52"/>
+      <c r="B62" s="54"/>
       <c r="C62" s="6" t="s">
         <v>215</v>
       </c>
@@ -12879,7 +12879,7 @@
       </c>
     </row>
     <row r="64" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B64" s="58" t="s">
+      <c r="B64" s="59" t="s">
         <v>226</v>
       </c>
       <c r="C64" s="6" t="s">
@@ -12967,7 +12967,7 @@
       <c r="E70" s="24"/>
     </row>
     <row r="71" spans="2:6" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="54" t="s">
         <v>233</v>
       </c>
       <c r="C71" s="6" t="s">
@@ -12981,7 +12981,7 @@
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B72" s="52"/>
+      <c r="B72" s="54"/>
       <c r="C72" s="6" t="s">
         <v>232</v>
       </c>
@@ -12993,7 +12993,7 @@
       </c>
     </row>
     <row r="73" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B73" s="52"/>
+      <c r="B73" s="54"/>
       <c r="C73" s="6" t="s">
         <v>592</v>
       </c>
@@ -13005,7 +13005,7 @@
       </c>
     </row>
     <row r="74" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B74" s="52"/>
+      <c r="B74" s="54"/>
       <c r="C74" s="6" t="s">
         <v>241</v>
       </c>
@@ -13017,7 +13017,7 @@
       </c>
     </row>
     <row r="75" spans="2:6" ht="330.6" x14ac:dyDescent="0.4">
-      <c r="B75" s="52"/>
+      <c r="B75" s="54"/>
       <c r="C75" s="6" t="s">
         <v>236</v>
       </c>
@@ -13029,7 +13029,7 @@
       </c>
     </row>
     <row r="76" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B76" s="52"/>
+      <c r="B76" s="54"/>
       <c r="C76" s="7" t="s">
         <v>237</v>
       </c>
@@ -13041,7 +13041,7 @@
       </c>
     </row>
     <row r="77" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B77" s="52"/>
+      <c r="B77" s="54"/>
       <c r="C77" s="7" t="s">
         <v>239</v>
       </c>
@@ -13053,7 +13053,7 @@
       </c>
     </row>
     <row r="78" spans="2:6" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B78" s="52"/>
+      <c r="B78" s="54"/>
       <c r="C78" s="6" t="s">
         <v>601</v>
       </c>
@@ -13063,7 +13063,7 @@
       <c r="E78" s="6"/>
     </row>
     <row r="79" spans="2:6" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B79" s="52"/>
+      <c r="B79" s="54"/>
       <c r="C79" s="29" t="s">
         <v>242</v>
       </c>
@@ -13075,7 +13075,7 @@
       </c>
     </row>
     <row r="80" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B80" s="52"/>
+      <c r="B80" s="54"/>
       <c r="C80" s="6" t="s">
         <v>243</v>
       </c>
@@ -13087,7 +13087,7 @@
       </c>
     </row>
     <row r="81" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B81" s="52"/>
+      <c r="B81" s="54"/>
       <c r="C81" s="6" t="s">
         <v>244</v>
       </c>
@@ -13099,7 +13099,7 @@
       </c>
     </row>
     <row r="82" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B82" s="52"/>
+      <c r="B82" s="54"/>
       <c r="C82" s="7" t="s">
         <v>609</v>
       </c>
@@ -13109,7 +13109,7 @@
       <c r="E82" s="7"/>
     </row>
     <row r="83" spans="2:5" ht="174" x14ac:dyDescent="0.4">
-      <c r="B83" s="52"/>
+      <c r="B83" s="54"/>
       <c r="C83" s="7" t="s">
         <v>611</v>
       </c>
@@ -13120,6 +13120,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="B71:B83"/>
     <mergeCell ref="B29:B31"/>
@@ -13128,12 +13134,6 @@
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B54:B60"/>
     <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13149,8 +13149,8 @@
   </sheetPr>
   <dimension ref="B2:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:E46"/>
+    <sheetView topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13177,7 +13177,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="65" t="s">
         <v>613</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -13191,7 +13191,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="394.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="62"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="7" t="s">
         <v>616</v>
       </c>
@@ -13203,7 +13203,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="278.39999999999998" x14ac:dyDescent="0.4">
-      <c r="B5" s="62"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="6" t="s">
         <v>246</v>
       </c>
@@ -13215,7 +13215,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="191.4" x14ac:dyDescent="0.4">
-      <c r="B6" s="62"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="7" t="s">
         <v>262</v>
       </c>
@@ -13227,7 +13227,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B7" s="62"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="7" t="s">
         <v>263</v>
       </c>
@@ -13239,7 +13239,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B8" s="62"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="7" t="s">
         <v>259</v>
       </c>
@@ -13251,7 +13251,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="62"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="7" t="s">
         <v>260</v>
       </c>
@@ -13263,7 +13263,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="65" t="s">
         <v>627</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -13277,7 +13277,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="226.2" x14ac:dyDescent="0.4">
-      <c r="B11" s="62"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="23" t="s">
         <v>308</v>
       </c>
@@ -13289,7 +13289,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B12" s="62"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="7" t="s">
         <v>248</v>
       </c>
@@ -13301,7 +13301,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="177" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="62"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="7" t="s">
         <v>254</v>
       </c>
@@ -13313,7 +13313,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B14" s="62"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="7" t="s">
         <v>255</v>
       </c>
@@ -13325,7 +13325,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B15" s="62"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="6" t="s">
         <v>636</v>
       </c>
@@ -13337,7 +13337,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B16" s="62"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="6" t="s">
         <v>249</v>
       </c>
@@ -13349,7 +13349,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B17" s="62"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="6" t="s">
         <v>641</v>
       </c>
@@ -13359,7 +13359,7 @@
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:5" ht="174" x14ac:dyDescent="0.4">
-      <c r="B18" s="62"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="34" t="s">
         <v>250</v>
       </c>
@@ -13371,7 +13371,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="62"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="7" t="s">
         <v>313</v>
       </c>
@@ -13381,7 +13381,7 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" ht="191.4" x14ac:dyDescent="0.4">
-      <c r="B20" s="62"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="7" t="s">
         <v>251</v>
       </c>
@@ -13393,7 +13393,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B21" s="62"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="7" t="s">
         <v>264</v>
       </c>
@@ -13405,7 +13405,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B22" s="62"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="7" t="s">
         <v>252</v>
       </c>
@@ -13417,7 +13417,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B23" s="62"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="7" t="s">
         <v>253</v>
       </c>
@@ -13429,7 +13429,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B24" s="62"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="7" t="s">
         <v>256</v>
       </c>
@@ -13441,7 +13441,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B25" s="62"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="7" t="s">
         <v>257</v>
       </c>
@@ -13453,7 +13453,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B26" s="62"/>
+      <c r="B26" s="65"/>
       <c r="C26" s="7" t="s">
         <v>258</v>
       </c>
@@ -13465,7 +13465,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B27" s="62"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="7" t="s">
         <v>658</v>
       </c>
@@ -13477,8 +13477,8 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B28" s="62"/>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="65"/>
+      <c r="C28" s="34" t="s">
         <v>310</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -13487,7 +13487,7 @@
       <c r="E28" s="7"/>
     </row>
     <row r="29" spans="2:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B29" s="62"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="7" t="s">
         <v>662</v>
       </c>
@@ -13497,7 +13497,7 @@
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="2:5" ht="136.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="62"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="7" t="s">
         <v>664</v>
       </c>
@@ -13577,7 +13577,7 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="66" t="s">
         <v>273</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -13586,62 +13586,62 @@
       <c r="D40" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="E40" s="64" t="s">
+      <c r="E40" s="67" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B41" s="63"/>
+      <c r="B41" s="66"/>
       <c r="C41" s="6" t="s">
         <v>275</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="E41" s="54"/>
+      <c r="E41" s="55"/>
     </row>
     <row r="42" spans="2:5" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B42" s="63"/>
+      <c r="B42" s="66"/>
       <c r="C42" s="6" t="s">
         <v>277</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>670</v>
       </c>
-      <c r="E42" s="54"/>
+      <c r="E42" s="55"/>
     </row>
     <row r="43" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B43" s="63"/>
+      <c r="B43" s="66"/>
       <c r="C43" s="6" t="s">
         <v>278</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>671</v>
       </c>
-      <c r="E43" s="54"/>
+      <c r="E43" s="55"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B44" s="63"/>
+      <c r="B44" s="66"/>
       <c r="C44" s="6" t="s">
         <v>279</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="E44" s="54"/>
+      <c r="E44" s="55"/>
     </row>
     <row r="45" spans="2:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="B45" s="63"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="6" t="s">
         <v>281</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>672</v>
       </c>
-      <c r="E45" s="54"/>
+      <c r="E45" s="55"/>
     </row>
     <row r="46" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B46" s="63"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="6" t="s">
         <v>315</v>
       </c>
